--- a/config/测试结果表格.xlsx
+++ b/config/测试结果表格.xlsx
@@ -18,7 +18,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="25">
+  <fonts count="24">
     <font>
       <name val="宋体"/>
       <charset val="134"/>
@@ -54,6 +54,14 @@
       <charset val="0"/>
       <color theme="1"/>
       <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <b val="1"/>
+      <color theme="3"/>
+      <sz val="15"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -88,7 +96,54 @@
     <font>
       <name val="宋体"/>
       <charset val="0"/>
-      <color rgb="FF9C6500"/>
+      <b val="1"/>
+      <color theme="1"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <i val="1"/>
+      <color rgb="FF7F7F7F"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <b val="1"/>
+      <color theme="3"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <color rgb="FF800080"/>
+      <sz val="11"/>
+      <u val="single"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <color rgb="FF006100"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <color rgb="FF3F3F76"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <b val="1"/>
+      <color rgb="FFFA7D00"/>
       <sz val="11"/>
       <scheme val="minor"/>
     </font>
@@ -103,69 +158,15 @@
     <font>
       <name val="宋体"/>
       <charset val="0"/>
-      <color rgb="FF3F3F76"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
       <color rgb="FFFA7D00"/>
       <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <b val="1"/>
-      <color theme="3"/>
-      <sz val="15"/>
       <scheme val="minor"/>
     </font>
     <font>
       <name val="宋体"/>
       <charset val="0"/>
       <b val="1"/>
-      <color rgb="FFFA7D00"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <i val="1"/>
-      <color rgb="FF7F7F7F"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <b val="1"/>
-      <color theme="3"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <color rgb="FF800080"/>
-      <sz val="11"/>
-      <u val="single"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <color rgb="FF006100"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <b val="1"/>
-      <color theme="1"/>
+      <color rgb="FFFFFFFF"/>
       <sz val="11"/>
       <scheme val="minor"/>
     </font>
@@ -180,26 +181,20 @@
     <font>
       <name val="宋体"/>
       <charset val="0"/>
+      <color rgb="FF9C6500"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
       <b val="1"/>
-      <color rgb="FFFFFFFF"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <b val="1"/>
-      <color rgb="00FF0000"/>
+      <color rgb="0000ff00"/>
     </font>
     <font>
       <name val="宋体"/>
       <b val="1"/>
       <color rgb="009900cc"/>
     </font>
-    <font>
-      <name val="宋体"/>
-      <b val="1"/>
-      <color rgb="0000ff00"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -210,67 +205,169 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -282,115 +379,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -409,45 +404,6 @@
       <top/>
       <bottom style="medium">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -478,11 +434,41 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -501,6 +487,15 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1">
@@ -509,10 +504,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="3" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="16" borderId="4" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyAlignment="1">
@@ -521,137 +516,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="18" borderId="5" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="18" borderId="4" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="7" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="5" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="2" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="3" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="28" borderId="8" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -673,10 +668,6 @@
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1091,10 +1082,10 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N8"/>
+  <dimension ref="A1:O13"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="I1" sqref="I1"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="I3" sqref="I3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1104,8 +1095,8 @@
     <col width="47.375" customWidth="1" style="3" min="3" max="3"/>
     <col width="21" customWidth="1" style="3" min="4" max="6"/>
     <col width="37.25" customWidth="1" style="3" min="7" max="7"/>
-    <col width="21" customWidth="1" style="3" min="8" max="10"/>
-    <col width="9" customWidth="1" style="3" min="11" max="16384"/>
+    <col width="21" customWidth="1" style="3" min="8" max="11"/>
+    <col width="9" customWidth="1" style="3" min="12" max="16384"/>
   </cols>
   <sheetData>
     <row r="1" ht="69" customHeight="1" s="1">
@@ -1151,6 +1142,11 @@
       </c>
       <c r="I1" s="3" t="inlineStr">
         <is>
+          <t>接口返回信息</t>
+        </is>
+      </c>
+      <c r="J1" s="3" t="inlineStr">
+        <is>
           <t>测试员</t>
         </is>
       </c>
@@ -1186,19 +1182,8 @@
           <t>{"pageNum":"1",pageSize":"15","merchantId":"","startDate":"2020-12","endDate":"2020-12","taxpayer":"","status":"0","type":"3","order":"2","businessNo":"","amountRangeJson":"[]"}</t>
         </is>
       </c>
-      <c r="H2" s="7" t="inlineStr">
-        <is>
-          <t>fail</t>
-        </is>
-      </c>
-      <c r="I2" s="8" t="inlineStr">
-        <is>
-          <t>BIN</t>
-        </is>
-      </c>
-      <c r="L2" s="2" t="n"/>
-      <c r="M2" s="9" t="n"/>
       <c r="N2" s="6" t="n"/>
+      <c r="O2" s="6" t="n"/>
     </row>
     <row r="3" ht="69" customHeight="1" s="1">
       <c r="A3" s="3" t="inlineStr">
@@ -1231,19 +1216,8 @@
           <t>{"tartDate":"2020-12","endDate":"2020-12","merchantId":"","taxpayer":"","status":"0","type":"3""businessNo":"","amountRangeJson":"[]"}</t>
         </is>
       </c>
-      <c r="H3" s="7" t="inlineStr">
-        <is>
-          <t>fail</t>
-        </is>
-      </c>
-      <c r="I3" s="8" t="inlineStr">
-        <is>
-          <t>BIN</t>
-        </is>
-      </c>
-      <c r="L3" s="2" t="n"/>
-      <c r="M3" s="9" t="n"/>
       <c r="N3" s="6" t="n"/>
+      <c r="O3" s="6" t="n"/>
     </row>
     <row r="4" ht="69" customHeight="1" s="1">
       <c r="A4" s="3" t="inlineStr">
@@ -1276,12 +1250,12 @@
           <t>{"startDate":"","endDate":"","merchantId":"","orderNo":"","payee":"","status":"0","payType":"","type":"1"}</t>
         </is>
       </c>
-      <c r="H4" s="10" t="inlineStr">
+      <c r="H4" s="7" t="inlineStr">
         <is>
           <t>pass</t>
         </is>
       </c>
-      <c r="I4" s="8" t="inlineStr">
+      <c r="J4" s="8" t="inlineStr">
         <is>
           <t>BIN</t>
         </is>
@@ -1320,12 +1294,12 @@
           <t>{"pageNum":"1","pageSize":"15","startDate":"","endDate":"","merchantId":"","orderNo":"","payee":"","status":"0","type":"1","payType":"","orderBy":""}</t>
         </is>
       </c>
-      <c r="H5" s="10" t="inlineStr">
+      <c r="H5" s="7" t="inlineStr">
         <is>
           <t>pass</t>
         </is>
       </c>
-      <c r="I5" s="8" t="inlineStr">
+      <c r="J5" s="8" t="inlineStr">
         <is>
           <t>BIN</t>
         </is>
@@ -1364,12 +1338,12 @@
           <t>{"pageNum":"1","pageSize":"15","startDate":"","endDate":"","status":"0","merchantId":"","businessNo":"","isMerchant":"0"}</t>
         </is>
       </c>
-      <c r="H6" s="10" t="inlineStr">
+      <c r="H6" s="7" t="inlineStr">
         <is>
           <t>pass</t>
         </is>
       </c>
-      <c r="I6" s="8" t="inlineStr">
+      <c r="J6" s="8" t="inlineStr">
         <is>
           <t>BIN</t>
         </is>
@@ -1408,12 +1382,12 @@
           <t>{"pageNum":"1","pageSize":"15","startDate":"","endDate":""}</t>
         </is>
       </c>
-      <c r="H7" s="10" t="inlineStr">
+      <c r="H7" s="7" t="inlineStr">
         <is>
           <t>pass</t>
         </is>
       </c>
-      <c r="I7" s="8" t="inlineStr">
+      <c r="J7" s="8" t="inlineStr">
         <is>
           <t>BIN</t>
         </is>
@@ -1452,12 +1426,12 @@
           <t>{"pageNum":"1","pageSize":"15","browseMode":"1","merchantName":"","taxpayerCondition":"","startDate":"","endDate":"","status":"","authStatus":"","signStatus":""}</t>
         </is>
       </c>
-      <c r="H8" s="10" t="inlineStr">
+      <c r="H8" s="7" t="inlineStr">
         <is>
           <t>pass</t>
         </is>
       </c>
-      <c r="I8" s="8" t="inlineStr">
+      <c r="J8" s="8" t="inlineStr">
         <is>
           <t>BIN</t>
         </is>
@@ -1465,11 +1439,100 @@
       <c r="L8" s="2" t="n"/>
       <c r="M8" s="2" t="n"/>
     </row>
-    <row r="9" ht="69" customHeight="1" s="1"/>
-    <row r="10" ht="69" customHeight="1" s="1"/>
-    <row r="11" ht="69" customHeight="1" s="1"/>
-    <row r="12" ht="69" customHeight="1" s="1"/>
-    <row r="13" ht="69" customHeight="1" s="1"/>
+    <row r="9" ht="69" customHeight="1" s="1">
+      <c r="A9" s="3" t="inlineStr">
+        <is>
+          <t>ID_008</t>
+        </is>
+      </c>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>查看商户列表数据</t>
+        </is>
+      </c>
+      <c r="C9" s="4" t="inlineStr">
+        <is>
+          <t>http://account-admin-webos-test.lastmiles.cn/account-admin-web/merchant/selectMerchantPage</t>
+        </is>
+      </c>
+      <c r="D9" s="3" t="inlineStr">
+        <is>
+          <t>post</t>
+        </is>
+      </c>
+      <c r="F9" s="3" t="inlineStr">
+        <is>
+          <t>application/x-www-form-urlencoded</t>
+        </is>
+      </c>
+      <c r="G9" s="3" t="inlineStr">
+        <is>
+          <t>{"merchantName":"",
+"pageNum":"1",
+"pageSize":"15"}</t>
+        </is>
+      </c>
+      <c r="H9" s="7" t="inlineStr">
+        <is>
+          <t>pass</t>
+        </is>
+      </c>
+      <c r="J9" s="8" t="inlineStr">
+        <is>
+          <t>BIN</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="n"/>
+      <c r="M9" s="2" t="n"/>
+    </row>
+    <row r="10" ht="69" customHeight="1" s="1">
+      <c r="A10" s="3" t="inlineStr">
+        <is>
+          <t>ID_009</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>查看商户详情信息</t>
+        </is>
+      </c>
+      <c r="C10" s="4" t="inlineStr">
+        <is>
+          <t>http://account-admin-webos-test.lastmiles.cn/account-admin-web/merchant/selectMerchantById</t>
+        </is>
+      </c>
+      <c r="D10" s="3" t="inlineStr">
+        <is>
+          <t>get</t>
+        </is>
+      </c>
+      <c r="G10" s="3" t="inlineStr">
+        <is>
+          <t>{"6735026743345618944"}</t>
+        </is>
+      </c>
+    </row>
+    <row r="11" ht="69" customHeight="1" s="1">
+      <c r="A11" s="3" t="inlineStr">
+        <is>
+          <t>ID_010</t>
+        </is>
+      </c>
+    </row>
+    <row r="12" ht="69" customHeight="1" s="1">
+      <c r="A12" s="3" t="inlineStr">
+        <is>
+          <t>ID_011</t>
+        </is>
+      </c>
+    </row>
+    <row r="13" ht="69" customHeight="1" s="1">
+      <c r="A13" s="3" t="inlineStr">
+        <is>
+          <t>ID_012</t>
+        </is>
+      </c>
+    </row>
     <row r="14" ht="69" customHeight="1" s="1"/>
     <row r="15" ht="69" customHeight="1" s="1"/>
     <row r="16" ht="69" customHeight="1" s="1"/>
@@ -1482,6 +1545,8 @@
     <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C6" tooltip="http://account-admin-webos-test.lastmiles.cn/account-admin-web/taxPaymentRecord/selectTaxPaymentRecordPage" display="http://account-admin-webos-test.lastmiles.cn/account-admin-web/taxPaymentRecord/selectTaxPaymentRecordPage" r:id="rId5"/>
     <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C7" tooltip="http://account-admin-webos-test.lastmiles.cn/account-admin-web/taxInvoice/selectListPage" display="http://account-admin-webos-test.lastmiles.cn/account-admin-web/taxInvoice/selectListPage" r:id="rId6"/>
     <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C8" display="http://account-admin-webos-test.lastmiles.cn/account-admin-web/taxpayer/selectTaxpayerPage" r:id="rId7"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C9" display="http://account-admin-webos-test.lastmiles.cn/account-admin-web/merchant/selectMerchantPage" r:id="rId8"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C10" tooltip="http://account-admin-webos-test.lastmiles.cn/account-admin-web/merchant/selectMerchantById" display="http://account-admin-webos-test.lastmiles.cn/account-admin-web/merchant/selectMerchantById" r:id="rId9"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" paperSize="9"/>

--- a/config/测试结果表格.xlsx
+++ b/config/测试结果表格.xlsx
@@ -52,43 +52,15 @@
     <font>
       <name val="宋体"/>
       <charset val="0"/>
-      <color theme="0"/>
+      <color theme="1"/>
       <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
       <name val="宋体"/>
       <charset val="0"/>
-      <color rgb="FF3F3F76"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <color theme="1"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <color rgb="FF9C0006"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <color rgb="FF9C6500"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <b val="1"/>
-      <color rgb="FFFA7D00"/>
+      <i val="1"/>
+      <color rgb="FF7F7F7F"/>
       <sz val="11"/>
       <scheme val="minor"/>
     </font>
@@ -97,6 +69,96 @@
       <charset val="134"/>
       <b val="1"/>
       <color theme="3"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <color theme="0"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <color rgb="FF800080"/>
+      <sz val="11"/>
+      <u val="single"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <color rgb="FF9C0006"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <b val="1"/>
+      <color theme="1"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <b val="1"/>
+      <color theme="3"/>
+      <sz val="13"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <color rgb="FFFF0000"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <color rgb="FF3F3F76"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <color rgb="FFFA7D00"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <b val="1"/>
+      <color theme="3"/>
+      <sz val="15"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <b val="1"/>
+      <color rgb="FFFFFFFF"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <color rgb="FF9C6500"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <b val="1"/>
+      <color rgb="FF3F3F3F"/>
       <sz val="11"/>
       <scheme val="minor"/>
     </font>
@@ -112,38 +174,7 @@
       <name val="宋体"/>
       <charset val="0"/>
       <b val="1"/>
-      <color theme="1"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <b val="1"/>
-      <color rgb="FF3F3F3F"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <b val="1"/>
-      <color theme="3"/>
-      <sz val="13"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <color rgb="FFFF0000"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <b val="1"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FFFA7D00"/>
       <sz val="11"/>
       <scheme val="minor"/>
     </font>
@@ -156,39 +187,8 @@
     </font>
     <font>
       <name val="宋体"/>
-      <charset val="0"/>
-      <i val="1"/>
-      <color rgb="FF7F7F7F"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <color rgb="FF800080"/>
-      <sz val="11"/>
-      <u val="single"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <color rgb="FFFA7D00"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="134"/>
       <b val="1"/>
-      <color theme="3"/>
-      <sz val="15"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <b val="1"/>
-      <color rgb="0000ff00"/>
+      <color rgb="00FF0000"/>
     </font>
     <font>
       <name val="宋体"/>
@@ -205,25 +205,175 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -235,157 +385,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -396,6 +396,26 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -410,65 +430,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -496,6 +457,45 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1">
@@ -504,10 +504,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="3" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyAlignment="1">
@@ -516,133 +516,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="5" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="24" borderId="7" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="24" borderId="3" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="19" borderId="6" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="27" borderId="8" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="23" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="5" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="4" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="20" borderId="6" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1085,7 +1085,7 @@
   <dimension ref="A1:O10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1172,6 +1172,11 @@
           <t>POST</t>
         </is>
       </c>
+      <c r="E2" s="0" t="inlineStr">
+        <is>
+          <t>{"Authorization":"eyJhbGciOiJIUzUxMiJ9.eyJkYXRhIjp7ImZkZFRlbXBsYXRlSWQiOiJYWUZERDY3NzYwMzI2NTc1MzEyMzYzNTIiLCJpc1VwZGF0ZVB3ZCI6MCwibG9naW5UeXBlIjowLCJ1c2VyTG9naW5JZCI6NjU5Mzc0NjkwMTM1MzA4Mjg4MywibWVyY2hhbnRJZCI6IiIsInRhc2tVcmwiOiJodHRwczovL2Nkbi5sYXN0bWlsZXMuY24vYXBwcy82NzIyODEyMjM3NzQzNTk5NjE2LnBkZiIsInN5c05hbWUiOiLns7vnu5_mk43kvZzmiYvlhowtVjEuMCIsImlzTWFuYWdlciI6MSwiaXNBc3luY1JlcXVlc3QiOiJ0cnVlIiwic3lzVXJsIjoiaHR0cHM6Ly9jZG4ubGFzdG1pbGVzLmNuL2FwcHMvNjcyMjgxMTU2OTM5ODAzNDQzMi5wZGYiLCJ0YXNrTmFtZSI6IuWFheWAvOS7o-WPkeaTjeS9nOaJi-WGjC1WMS4wIiwibWVyY2hhbnRSYW5nZSI6MSwidXNlcm5hbWUiOiJBRE1pbiJ9LCJzdWIiOiI2NTkzNzQ2OTAxMzUzMDgyODgzIiwiZXhwIjoxNjIwOTY4OTc1fQ.mRQInJcXBx0PO-TuuxKs1Dqq-8Zz6R8mjyDEZY5BfLUOZTBApIXf4F2kQmWg-mViu_nl3BTKDHqk6LCO9euIdg"}</t>
+        </is>
+      </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
           <t>application/x-www-form-urlencoded</t>
@@ -1179,9 +1184,26 @@
       </c>
       <c r="G2" s="3" t="inlineStr">
         <is>
-          <t>{"pageNum":"1",pageSize":"15","merchantId":"","startDate":"2020-12","endDate":"2020-12","taxpayer":"","status":"0","type":"3","order":"2","businessNo":"","amountRangeJson":"[]"}</t>
-        </is>
-      </c>
+          <t>{"pageNum":"1","pageSize":"15","merchantId":"","startDate":"2020-12","endDate":"2020-12","taxpayer":"","status":"0","type":"3","order":"2","businessNo":"","amountRangeJson":"[]"}</t>
+        </is>
+      </c>
+      <c r="H2" s="7" t="inlineStr">
+        <is>
+          <t>fail</t>
+        </is>
+      </c>
+      <c r="I2" s="8" t="inlineStr">
+        <is>
+          <t>{'code': 401, 'message': None, 'data': None, 'requestId': 'ac130005161882149242939106'}</t>
+        </is>
+      </c>
+      <c r="J2" s="8" t="inlineStr">
+        <is>
+          <t>BIN</t>
+        </is>
+      </c>
+      <c r="L2" s="2" t="n"/>
+      <c r="M2" s="2" t="n"/>
       <c r="N2" s="6" t="n"/>
       <c r="O2" s="6" t="n"/>
     </row>
@@ -1206,6 +1228,11 @@
           <t>POST</t>
         </is>
       </c>
+      <c r="E3" s="0" t="inlineStr">
+        <is>
+          <t>{"Authorization":"eyJhbGciOiJIUzUxMiJ9.eyJkYXRhIjp7ImZkZFRlbXBsYXRlSWQiOiJYWUZERDY3NzYwMzI2NTc1MzEyMzYzNTIiLCJpc1VwZGF0ZVB3ZCI6MCwibG9naW5UeXBlIjowLCJ1c2VyTG9naW5JZCI6NjU5Mzc0NjkwMTM1MzA4Mjg4MywibWVyY2hhbnRJZCI6IiIsInRhc2tVcmwiOiJodHRwczovL2Nkbi5sYXN0bWlsZXMuY24vYXBwcy82NzIyODEyMjM3NzQzNTk5NjE2LnBkZiIsInN5c05hbWUiOiLns7vnu5_mk43kvZzmiYvlhowtVjEuMCIsImlzTWFuYWdlciI6MSwiaXNBc3luY1JlcXVlc3QiOiJ0cnVlIiwic3lzVXJsIjoiaHR0cHM6Ly9jZG4ubGFzdG1pbGVzLmNuL2FwcHMvNjcyMjgxMTU2OTM5ODAzNDQzMi5wZGYiLCJ0YXNrTmFtZSI6IuWFheWAvOS7o-WPkeaTjeS9nOaJi-WGjC1WMS4wIiwibWVyY2hhbnRSYW5nZSI6MSwidXNlcm5hbWUiOiJBRE1pbiJ9LCJzdWIiOiI2NTkzNzQ2OTAxMzUzMDgyODgzIiwiZXhwIjoxNjIwOTY4OTc1fQ.mRQInJcXBx0PO-TuuxKs1Dqq-8Zz6R8mjyDEZY5BfLUOZTBApIXf4F2kQmWg-mViu_nl3BTKDHqk6LCO9euIdg"}</t>
+        </is>
+      </c>
       <c r="F3" s="3" t="inlineStr">
         <is>
           <t>application/x-www-form-urlencoded</t>
@@ -1240,6 +1267,11 @@
           <t>POST</t>
         </is>
       </c>
+      <c r="E4" s="0" t="inlineStr">
+        <is>
+          <t>{"Authorization":"eyJhbGciOiJIUzUxMiJ9.eyJkYXRhIjp7ImZkZFRlbXBsYXRlSWQiOiJYWUZERDY3NzYwMzI2NTc1MzEyMzYzNTIiLCJpc1VwZGF0ZVB3ZCI6MCwibG9naW5UeXBlIjowLCJ1c2VyTG9naW5JZCI6NjU5Mzc0NjkwMTM1MzA4Mjg4MywibWVyY2hhbnRJZCI6IiIsInRhc2tVcmwiOiJodHRwczovL2Nkbi5sYXN0bWlsZXMuY24vYXBwcy82NzIyODEyMjM3NzQzNTk5NjE2LnBkZiIsInN5c05hbWUiOiLns7vnu5_mk43kvZzmiYvlhowtVjEuMCIsImlzTWFuYWdlciI6MSwiaXNBc3luY1JlcXVlc3QiOiJ0cnVlIiwic3lzVXJsIjoiaHR0cHM6Ly9jZG4ubGFzdG1pbGVzLmNuL2FwcHMvNjcyMjgxMTU2OTM5ODAzNDQzMi5wZGYiLCJ0YXNrTmFtZSI6IuWFheWAvOS7o-WPkeaTjeS9nOaJi-WGjC1WMS4wIiwibWVyY2hhbnRSYW5nZSI6MSwidXNlcm5hbWUiOiJBRE1pbiJ9LCJzdWIiOiI2NTkzNzQ2OTAxMzUzMDgyODgzIiwiZXhwIjoxNjIwOTY4OTc1fQ.mRQInJcXBx0PO-TuuxKs1Dqq-8Zz6R8mjyDEZY5BfLUOZTBApIXf4F2kQmWg-mViu_nl3BTKDHqk6LCO9euIdg"}</t>
+        </is>
+      </c>
       <c r="F4" s="3" t="inlineStr">
         <is>
           <t>application/x-www-form-urlencoded</t>
@@ -1272,6 +1304,11 @@
           <t>POST</t>
         </is>
       </c>
+      <c r="E5" s="0" t="inlineStr">
+        <is>
+          <t>{"Authorization":"eyJhbGciOiJIUzUxMiJ9.eyJkYXRhIjp7ImZkZFRlbXBsYXRlSWQiOiJYWUZERDY3NzYwMzI2NTc1MzEyMzYzNTIiLCJpc1VwZGF0ZVB3ZCI6MCwibG9naW5UeXBlIjowLCJ1c2VyTG9naW5JZCI6NjU5Mzc0NjkwMTM1MzA4Mjg4MywibWVyY2hhbnRJZCI6IiIsInRhc2tVcmwiOiJodHRwczovL2Nkbi5sYXN0bWlsZXMuY24vYXBwcy82NzIyODEyMjM3NzQzNTk5NjE2LnBkZiIsInN5c05hbWUiOiLns7vnu5_mk43kvZzmiYvlhowtVjEuMCIsImlzTWFuYWdlciI6MSwiaXNBc3luY1JlcXVlc3QiOiJ0cnVlIiwic3lzVXJsIjoiaHR0cHM6Ly9jZG4ubGFzdG1pbGVzLmNuL2FwcHMvNjcyMjgxMTU2OTM5ODAzNDQzMi5wZGYiLCJ0YXNrTmFtZSI6IuWFheWAvOS7o-WPkeaTjeS9nOaJi-WGjC1WMS4wIiwibWVyY2hhbnRSYW5nZSI6MSwidXNlcm5hbWUiOiJBRE1pbiJ9LCJzdWIiOiI2NTkzNzQ2OTAxMzUzMDgyODgzIiwiZXhwIjoxNjIwOTY4OTc1fQ.mRQInJcXBx0PO-TuuxKs1Dqq-8Zz6R8mjyDEZY5BfLUOZTBApIXf4F2kQmWg-mViu_nl3BTKDHqk6LCO9euIdg"}</t>
+        </is>
+      </c>
       <c r="F5" s="3" t="inlineStr">
         <is>
           <t>application/x-www-form-urlencoded</t>
@@ -1282,18 +1319,6 @@
           <t>{"pageNum":"1","pageSize":"15","startDate":"","endDate":"","merchantId":"","orderNo":"","payee":"","status":"0","type":"1","payType":"","orderBy":""}</t>
         </is>
       </c>
-      <c r="H5" s="7" t="inlineStr">
-        <is>
-          <t>pass</t>
-        </is>
-      </c>
-      <c r="J5" s="8" t="inlineStr">
-        <is>
-          <t>BIN</t>
-        </is>
-      </c>
-      <c r="L5" s="2" t="n"/>
-      <c r="M5" s="2" t="n"/>
     </row>
     <row r="6" ht="69" customHeight="1" s="1">
       <c r="A6" s="3" t="inlineStr">
@@ -1316,6 +1341,11 @@
           <t>POST</t>
         </is>
       </c>
+      <c r="E6" s="0" t="inlineStr">
+        <is>
+          <t>{"Authorization":"eyJhbGciOiJIUzUxMiJ9.eyJkYXRhIjp7ImZkZFRlbXBsYXRlSWQiOiJYWUZERDY3NzYwMzI2NTc1MzEyMzYzNTIiLCJpc1VwZGF0ZVB3ZCI6MCwibG9naW5UeXBlIjowLCJ1c2VyTG9naW5JZCI6NjU5Mzc0NjkwMTM1MzA4Mjg4MywibWVyY2hhbnRJZCI6IiIsInRhc2tVcmwiOiJodHRwczovL2Nkbi5sYXN0bWlsZXMuY24vYXBwcy82NzIyODEyMjM3NzQzNTk5NjE2LnBkZiIsInN5c05hbWUiOiLns7vnu5_mk43kvZzmiYvlhowtVjEuMCIsImlzTWFuYWdlciI6MSwiaXNBc3luY1JlcXVlc3QiOiJ0cnVlIiwic3lzVXJsIjoiaHR0cHM6Ly9jZG4ubGFzdG1pbGVzLmNuL2FwcHMvNjcyMjgxMTU2OTM5ODAzNDQzMi5wZGYiLCJ0YXNrTmFtZSI6IuWFheWAvOS7o-WPkeaTjeS9nOaJi-WGjC1WMS4wIiwibWVyY2hhbnRSYW5nZSI6MSwidXNlcm5hbWUiOiJBRE1pbiJ9LCJzdWIiOiI2NTkzNzQ2OTAxMzUzMDgyODgzIiwiZXhwIjoxNjIwOTY4OTc1fQ.mRQInJcXBx0PO-TuuxKs1Dqq-8Zz6R8mjyDEZY5BfLUOZTBApIXf4F2kQmWg-mViu_nl3BTKDHqk6LCO9euIdg"}</t>
+        </is>
+      </c>
       <c r="F6" s="3" t="inlineStr">
         <is>
           <t>application/x-www-form-urlencoded</t>
@@ -1326,18 +1356,6 @@
           <t>{"pageNum":"1","pageSize":"15","startDate":"","endDate":"","status":"0","merchantId":"","businessNo":"","isMerchant":"0"}</t>
         </is>
       </c>
-      <c r="H6" s="7" t="inlineStr">
-        <is>
-          <t>pass</t>
-        </is>
-      </c>
-      <c r="J6" s="8" t="inlineStr">
-        <is>
-          <t>BIN</t>
-        </is>
-      </c>
-      <c r="L6" s="2" t="n"/>
-      <c r="M6" s="2" t="n"/>
     </row>
     <row r="7" ht="69" customHeight="1" s="1">
       <c r="A7" s="3" t="inlineStr">
@@ -1360,6 +1378,11 @@
           <t>POST</t>
         </is>
       </c>
+      <c r="E7" s="0" t="inlineStr">
+        <is>
+          <t>{"Authorization":"eyJhbGciOiJIUzUxMiJ9.eyJkYXRhIjp7ImZkZFRlbXBsYXRlSWQiOiJYWUZERDY3NzYwMzI2NTc1MzEyMzYzNTIiLCJpc1VwZGF0ZVB3ZCI6MCwibG9naW5UeXBlIjowLCJ1c2VyTG9naW5JZCI6NjU5Mzc0NjkwMTM1MzA4Mjg4MywibWVyY2hhbnRJZCI6IiIsInRhc2tVcmwiOiJodHRwczovL2Nkbi5sYXN0bWlsZXMuY24vYXBwcy82NzIyODEyMjM3NzQzNTk5NjE2LnBkZiIsInN5c05hbWUiOiLns7vnu5_mk43kvZzmiYvlhowtVjEuMCIsImlzTWFuYWdlciI6MSwiaXNBc3luY1JlcXVlc3QiOiJ0cnVlIiwic3lzVXJsIjoiaHR0cHM6Ly9jZG4ubGFzdG1pbGVzLmNuL2FwcHMvNjcyMjgxMTU2OTM5ODAzNDQzMi5wZGYiLCJ0YXNrTmFtZSI6IuWFheWAvOS7o-WPkeaTjeS9nOaJi-WGjC1WMS4wIiwibWVyY2hhbnRSYW5nZSI6MSwidXNlcm5hbWUiOiJBRE1pbiJ9LCJzdWIiOiI2NTkzNzQ2OTAxMzUzMDgyODgzIiwiZXhwIjoxNjIwOTY4OTc1fQ.mRQInJcXBx0PO-TuuxKs1Dqq-8Zz6R8mjyDEZY5BfLUOZTBApIXf4F2kQmWg-mViu_nl3BTKDHqk6LCO9euIdg"}</t>
+        </is>
+      </c>
       <c r="F7" s="3" t="inlineStr">
         <is>
           <t>application/x-www-form-urlencoded</t>
@@ -1370,18 +1393,6 @@
           <t>{"pageNum":"1","pageSize":"15","startDate":"","endDate":""}</t>
         </is>
       </c>
-      <c r="H7" s="7" t="inlineStr">
-        <is>
-          <t>pass</t>
-        </is>
-      </c>
-      <c r="J7" s="8" t="inlineStr">
-        <is>
-          <t>BIN</t>
-        </is>
-      </c>
-      <c r="L7" s="2" t="n"/>
-      <c r="M7" s="2" t="n"/>
     </row>
     <row r="8" ht="69" customHeight="1" s="1">
       <c r="A8" s="3" t="inlineStr">
@@ -1404,6 +1415,11 @@
           <t>POST</t>
         </is>
       </c>
+      <c r="E8" s="0" t="inlineStr">
+        <is>
+          <t>{"Authorization":"eyJhbGciOiJIUzUxMiJ9.eyJkYXRhIjp7ImZkZFRlbXBsYXRlSWQiOiJYWUZERDY3NzYwMzI2NTc1MzEyMzYzNTIiLCJpc1VwZGF0ZVB3ZCI6MCwibG9naW5UeXBlIjowLCJ1c2VyTG9naW5JZCI6NjU5Mzc0NjkwMTM1MzA4Mjg4MywibWVyY2hhbnRJZCI6IiIsInRhc2tVcmwiOiJodHRwczovL2Nkbi5sYXN0bWlsZXMuY24vYXBwcy82NzIyODEyMjM3NzQzNTk5NjE2LnBkZiIsInN5c05hbWUiOiLns7vnu5_mk43kvZzmiYvlhowtVjEuMCIsImlzTWFuYWdlciI6MSwiaXNBc3luY1JlcXVlc3QiOiJ0cnVlIiwic3lzVXJsIjoiaHR0cHM6Ly9jZG4ubGFzdG1pbGVzLmNuL2FwcHMvNjcyMjgxMTU2OTM5ODAzNDQzMi5wZGYiLCJ0YXNrTmFtZSI6IuWFheWAvOS7o-WPkeaTjeS9nOaJi-WGjC1WMS4wIiwibWVyY2hhbnRSYW5nZSI6MSwidXNlcm5hbWUiOiJBRE1pbiJ9LCJzdWIiOiI2NTkzNzQ2OTAxMzUzMDgyODgzIiwiZXhwIjoxNjIwOTY4OTc1fQ.mRQInJcXBx0PO-TuuxKs1Dqq-8Zz6R8mjyDEZY5BfLUOZTBApIXf4F2kQmWg-mViu_nl3BTKDHqk6LCO9euIdg"}</t>
+        </is>
+      </c>
       <c r="F8" s="3" t="inlineStr">
         <is>
           <t>application/x-www-form-urlencoded</t>
@@ -1414,18 +1430,6 @@
           <t>{"pageNum":"1","pageSize":"15","browseMode":"1","merchantName":"","taxpayerCondition":"","startDate":"","endDate":"","status":"","authStatus":"","signStatus":""}</t>
         </is>
       </c>
-      <c r="H8" s="7" t="inlineStr">
-        <is>
-          <t>pass</t>
-        </is>
-      </c>
-      <c r="J8" s="8" t="inlineStr">
-        <is>
-          <t>BIN</t>
-        </is>
-      </c>
-      <c r="L8" s="2" t="n"/>
-      <c r="M8" s="2" t="n"/>
     </row>
     <row r="9" ht="69" customHeight="1" s="1">
       <c r="A9" s="3" t="inlineStr">
@@ -1448,6 +1452,11 @@
           <t>post</t>
         </is>
       </c>
+      <c r="E9" s="0" t="inlineStr">
+        <is>
+          <t>{"Authorization":"eyJhbGciOiJIUzUxMiJ9.eyJkYXRhIjp7ImZkZFRlbXBsYXRlSWQiOiJYWUZERDY3NzYwMzI2NTc1MzEyMzYzNTIiLCJpc1VwZGF0ZVB3ZCI6MCwibG9naW5UeXBlIjowLCJ1c2VyTG9naW5JZCI6NjU5Mzc0NjkwMTM1MzA4Mjg4MywibWVyY2hhbnRJZCI6IiIsInRhc2tVcmwiOiJodHRwczovL2Nkbi5sYXN0bWlsZXMuY24vYXBwcy82NzIyODEyMjM3NzQzNTk5NjE2LnBkZiIsInN5c05hbWUiOiLns7vnu5_mk43kvZzmiYvlhowtVjEuMCIsImlzTWFuYWdlciI6MSwiaXNBc3luY1JlcXVlc3QiOiJ0cnVlIiwic3lzVXJsIjoiaHR0cHM6Ly9jZG4ubGFzdG1pbGVzLmNuL2FwcHMvNjcyMjgxMTU2OTM5ODAzNDQzMi5wZGYiLCJ0YXNrTmFtZSI6IuWFheWAvOS7o-WPkeaTjeS9nOaJi-WGjC1WMS4wIiwibWVyY2hhbnRSYW5nZSI6MSwidXNlcm5hbWUiOiJBRE1pbiJ9LCJzdWIiOiI2NTkzNzQ2OTAxMzUzMDgyODgzIiwiZXhwIjoxNjIwOTY4OTc1fQ.mRQInJcXBx0PO-TuuxKs1Dqq-8Zz6R8mjyDEZY5BfLUOZTBApIXf4F2kQmWg-mViu_nl3BTKDHqk6LCO9euIdg"}</t>
+        </is>
+      </c>
       <c r="F9" s="3" t="inlineStr">
         <is>
           <t>application/x-www-form-urlencoded</t>
@@ -1460,18 +1469,6 @@
 "pageSize":"15"}</t>
         </is>
       </c>
-      <c r="H9" s="7" t="inlineStr">
-        <is>
-          <t>pass</t>
-        </is>
-      </c>
-      <c r="J9" s="8" t="inlineStr">
-        <is>
-          <t>BIN</t>
-        </is>
-      </c>
-      <c r="L9" s="2" t="n"/>
-      <c r="M9" s="2" t="n"/>
     </row>
     <row r="10" ht="69" customHeight="1" s="1">
       <c r="A10" s="3" t="inlineStr">
@@ -1492,6 +1489,11 @@
       <c r="D10" s="3" t="inlineStr">
         <is>
           <t>get</t>
+        </is>
+      </c>
+      <c r="E10" s="0" t="inlineStr">
+        <is>
+          <t>{"Authorization":"eyJhbGciOiJIUzUxMiJ9.eyJkYXRhIjp7ImZkZFRlbXBsYXRlSWQiOiJYWUZERDY3NzYwMzI2NTc1MzEyMzYzNTIiLCJpc1VwZGF0ZVB3ZCI6MCwibG9naW5UeXBlIjowLCJ1c2VyTG9naW5JZCI6NjU5Mzc0NjkwMTM1MzA4Mjg4MywibWVyY2hhbnRJZCI6IiIsInRhc2tVcmwiOiJodHRwczovL2Nkbi5sYXN0bWlsZXMuY24vYXBwcy82NzIyODEyMjM3NzQzNTk5NjE2LnBkZiIsInN5c05hbWUiOiLns7vnu5_mk43kvZzmiYvlhowtVjEuMCIsImlzTWFuYWdlciI6MSwiaXNBc3luY1JlcXVlc3QiOiJ0cnVlIiwic3lzVXJsIjoiaHR0cHM6Ly9jZG4ubGFzdG1pbGVzLmNuL2FwcHMvNjcyMjgxMTU2OTM5ODAzNDQzMi5wZGYiLCJ0YXNrTmFtZSI6IuWFheWAvOS7o-WPkeaTjeS9nOaJi-WGjC1WMS4wIiwibWVyY2hhbnRSYW5nZSI6MSwidXNlcm5hbWUiOiJBRE1pbiJ9LCJzdWIiOiI2NTkzNzQ2OTAxMzUzMDgyODgzIiwiZXhwIjoxNjIwOTY4OTc1fQ.mRQInJcXBx0PO-TuuxKs1Dqq-8Zz6R8mjyDEZY5BfLUOZTBApIXf4F2kQmWg-mViu_nl3BTKDHqk6LCO9euIdg"}</t>
         </is>
       </c>
       <c r="G10" s="3" t="inlineStr">

--- a/config/测试结果表格.xlsx
+++ b/config/测试结果表格.xlsx
@@ -18,7 +18,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="24">
+  <fonts count="23">
     <font>
       <name val="宋体"/>
       <charset val="134"/>
@@ -184,11 +184,6 @@
       <color rgb="FF006100"/>
       <sz val="11"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <b val="1"/>
-      <color rgb="00FF0000"/>
     </font>
     <font>
       <name val="宋体"/>
@@ -646,7 +641,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -667,7 +662,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1174,7 +1168,7 @@
       </c>
       <c r="E2" s="0" t="inlineStr">
         <is>
-          <t>{"Authorization":"eyJhbGciOiJIUzUxMiJ9.eyJkYXRhIjp7ImZkZFRlbXBsYXRlSWQiOiJYWUZERDY3NzYwMzI2NTc1MzEyMzYzNTIiLCJpc1VwZGF0ZVB3ZCI6MCwibG9naW5UeXBlIjowLCJ1c2VyTG9naW5JZCI6NjU5Mzc0NjkwMTM1MzA4Mjg4MywibWVyY2hhbnRJZCI6IiIsInRhc2tVcmwiOiJodHRwczovL2Nkbi5sYXN0bWlsZXMuY24vYXBwcy82NzIyODEyMjM3NzQzNTk5NjE2LnBkZiIsInN5c05hbWUiOiLns7vnu5_mk43kvZzmiYvlhowtVjEuMCIsImlzTWFuYWdlciI6MSwiaXNBc3luY1JlcXVlc3QiOiJ0cnVlIiwic3lzVXJsIjoiaHR0cHM6Ly9jZG4ubGFzdG1pbGVzLmNuL2FwcHMvNjcyMjgxMTU2OTM5ODAzNDQzMi5wZGYiLCJ0YXNrTmFtZSI6IuWFheWAvOS7o-WPkeaTjeS9nOaJi-WGjC1WMS4wIiwibWVyY2hhbnRSYW5nZSI6MSwidXNlcm5hbWUiOiJBRE1pbiJ9LCJzdWIiOiI2NTkzNzQ2OTAxMzUzMDgyODgzIiwiZXhwIjoxNjIwOTY4OTc1fQ.mRQInJcXBx0PO-TuuxKs1Dqq-8Zz6R8mjyDEZY5BfLUOZTBApIXf4F2kQmWg-mViu_nl3BTKDHqk6LCO9euIdg"}</t>
+          <t>{"Authorization":"eyJhbGciOiJIUzUxMiJ9.eyJkYXRhIjp7ImZkZFRlbXBsYXRlSWQiOiJYWUZERDY3NzYwMzI2NTc1MzEyMzYzNTIiLCJpc1VwZGF0ZVB3ZCI6MCwibG9naW5UeXBlIjowLCJ1c2VyTG9naW5JZCI6NjU5Mzc0NjkwMTM1MzA4Mjg4MywibWVyY2hhbnRJZCI6IiIsInRhc2tVcmwiOiJodHRwczovL2Nkbi5sYXN0bWlsZXMuY24vYXBwcy82NzIyODEyMjM3NzQzNTk5NjE2LnBkZiIsInN5c05hbWUiOiLns7vnu5_mk43kvZzmiYvlhowtVjEuMCIsImlzTWFuYWdlciI6MSwiaXNBc3luY1JlcXVlc3QiOiJ0cnVlIiwic3lzVXJsIjoiaHR0cHM6Ly9jZG4ubGFzdG1pbGVzLmNuL2FwcHMvNjcyMjgxMTU2OTM5ODAzNDQzMi5wZGYiLCJ0YXNrTmFtZSI6IuWFheWAvOS7o-WPkeaTjeS9nOaJi-WGjC1WMS4wIiwibWVyY2hhbnRSYW5nZSI6MSwidXNlcm5hbWUiOiJBRE1pbiJ9LCJzdWIiOiI2NTkzNzQ2OTAxMzUzMDgyODgzIiwiZXhwIjoxNjIwOTcyOTU2fQ.qrrRlc0GQU2uhJBhSFTP0fcpGS-8Gg3BpdRmxecm1xygt6s2Qh5TvAXfMwIeFr1ha2iX51WfER1pdloxE_hl_A"}</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -1187,17 +1181,12 @@
           <t>{"pageNum":"1","pageSize":"15","merchantId":"","startDate":"2020-12","endDate":"2020-12","taxpayer":"","status":"0","type":"3","order":"2","businessNo":"","amountRangeJson":"[]"}</t>
         </is>
       </c>
-      <c r="H2" s="7" t="inlineStr">
-        <is>
-          <t>fail</t>
-        </is>
-      </c>
-      <c r="I2" s="8" t="inlineStr">
-        <is>
-          <t>{'code': 401, 'message': None, 'data': None, 'requestId': 'ac130005161882149242939106'}</t>
-        </is>
-      </c>
-      <c r="J2" s="8" t="inlineStr">
+      <c r="I2" s="7" t="inlineStr">
+        <is>
+          <t>报错了</t>
+        </is>
+      </c>
+      <c r="J2" s="7" t="inlineStr">
         <is>
           <t>BIN</t>
         </is>
@@ -1230,7 +1219,7 @@
       </c>
       <c r="E3" s="0" t="inlineStr">
         <is>
-          <t>{"Authorization":"eyJhbGciOiJIUzUxMiJ9.eyJkYXRhIjp7ImZkZFRlbXBsYXRlSWQiOiJYWUZERDY3NzYwMzI2NTc1MzEyMzYzNTIiLCJpc1VwZGF0ZVB3ZCI6MCwibG9naW5UeXBlIjowLCJ1c2VyTG9naW5JZCI6NjU5Mzc0NjkwMTM1MzA4Mjg4MywibWVyY2hhbnRJZCI6IiIsInRhc2tVcmwiOiJodHRwczovL2Nkbi5sYXN0bWlsZXMuY24vYXBwcy82NzIyODEyMjM3NzQzNTk5NjE2LnBkZiIsInN5c05hbWUiOiLns7vnu5_mk43kvZzmiYvlhowtVjEuMCIsImlzTWFuYWdlciI6MSwiaXNBc3luY1JlcXVlc3QiOiJ0cnVlIiwic3lzVXJsIjoiaHR0cHM6Ly9jZG4ubGFzdG1pbGVzLmNuL2FwcHMvNjcyMjgxMTU2OTM5ODAzNDQzMi5wZGYiLCJ0YXNrTmFtZSI6IuWFheWAvOS7o-WPkeaTjeS9nOaJi-WGjC1WMS4wIiwibWVyY2hhbnRSYW5nZSI6MSwidXNlcm5hbWUiOiJBRE1pbiJ9LCJzdWIiOiI2NTkzNzQ2OTAxMzUzMDgyODgzIiwiZXhwIjoxNjIwOTY4OTc1fQ.mRQInJcXBx0PO-TuuxKs1Dqq-8Zz6R8mjyDEZY5BfLUOZTBApIXf4F2kQmWg-mViu_nl3BTKDHqk6LCO9euIdg"}</t>
+          <t>{"Authorization":"eyJhbGciOiJIUzUxMiJ9.eyJkYXRhIjp7ImZkZFRlbXBsYXRlSWQiOiJYWUZERDY3NzYwMzI2NTc1MzEyMzYzNTIiLCJpc1VwZGF0ZVB3ZCI6MCwibG9naW5UeXBlIjowLCJ1c2VyTG9naW5JZCI6NjU5Mzc0NjkwMTM1MzA4Mjg4MywibWVyY2hhbnRJZCI6IiIsInRhc2tVcmwiOiJodHRwczovL2Nkbi5sYXN0bWlsZXMuY24vYXBwcy82NzIyODEyMjM3NzQzNTk5NjE2LnBkZiIsInN5c05hbWUiOiLns7vnu5_mk43kvZzmiYvlhowtVjEuMCIsImlzTWFuYWdlciI6MSwiaXNBc3luY1JlcXVlc3QiOiJ0cnVlIiwic3lzVXJsIjoiaHR0cHM6Ly9jZG4ubGFzdG1pbGVzLmNuL2FwcHMvNjcyMjgxMTU2OTM5ODAzNDQzMi5wZGYiLCJ0YXNrTmFtZSI6IuWFheWAvOS7o-WPkeaTjeS9nOaJi-WGjC1WMS4wIiwibWVyY2hhbnRSYW5nZSI6MSwidXNlcm5hbWUiOiJBRE1pbiJ9LCJzdWIiOiI2NTkzNzQ2OTAxMzUzMDgyODgzIiwiZXhwIjoxNjIwOTcyOTU2fQ.qrrRlc0GQU2uhJBhSFTP0fcpGS-8Gg3BpdRmxecm1xygt6s2Qh5TvAXfMwIeFr1ha2iX51WfER1pdloxE_hl_A"}</t>
         </is>
       </c>
       <c r="F3" s="3" t="inlineStr">
@@ -1269,7 +1258,7 @@
       </c>
       <c r="E4" s="0" t="inlineStr">
         <is>
-          <t>{"Authorization":"eyJhbGciOiJIUzUxMiJ9.eyJkYXRhIjp7ImZkZFRlbXBsYXRlSWQiOiJYWUZERDY3NzYwMzI2NTc1MzEyMzYzNTIiLCJpc1VwZGF0ZVB3ZCI6MCwibG9naW5UeXBlIjowLCJ1c2VyTG9naW5JZCI6NjU5Mzc0NjkwMTM1MzA4Mjg4MywibWVyY2hhbnRJZCI6IiIsInRhc2tVcmwiOiJodHRwczovL2Nkbi5sYXN0bWlsZXMuY24vYXBwcy82NzIyODEyMjM3NzQzNTk5NjE2LnBkZiIsInN5c05hbWUiOiLns7vnu5_mk43kvZzmiYvlhowtVjEuMCIsImlzTWFuYWdlciI6MSwiaXNBc3luY1JlcXVlc3QiOiJ0cnVlIiwic3lzVXJsIjoiaHR0cHM6Ly9jZG4ubGFzdG1pbGVzLmNuL2FwcHMvNjcyMjgxMTU2OTM5ODAzNDQzMi5wZGYiLCJ0YXNrTmFtZSI6IuWFheWAvOS7o-WPkeaTjeS9nOaJi-WGjC1WMS4wIiwibWVyY2hhbnRSYW5nZSI6MSwidXNlcm5hbWUiOiJBRE1pbiJ9LCJzdWIiOiI2NTkzNzQ2OTAxMzUzMDgyODgzIiwiZXhwIjoxNjIwOTY4OTc1fQ.mRQInJcXBx0PO-TuuxKs1Dqq-8Zz6R8mjyDEZY5BfLUOZTBApIXf4F2kQmWg-mViu_nl3BTKDHqk6LCO9euIdg"}</t>
+          <t>{"Authorization":"eyJhbGciOiJIUzUxMiJ9.eyJkYXRhIjp7ImZkZFRlbXBsYXRlSWQiOiJYWUZERDY3NzYwMzI2NTc1MzEyMzYzNTIiLCJpc1VwZGF0ZVB3ZCI6MCwibG9naW5UeXBlIjowLCJ1c2VyTG9naW5JZCI6NjU5Mzc0NjkwMTM1MzA4Mjg4MywibWVyY2hhbnRJZCI6IiIsInRhc2tVcmwiOiJodHRwczovL2Nkbi5sYXN0bWlsZXMuY24vYXBwcy82NzIyODEyMjM3NzQzNTk5NjE2LnBkZiIsInN5c05hbWUiOiLns7vnu5_mk43kvZzmiYvlhowtVjEuMCIsImlzTWFuYWdlciI6MSwiaXNBc3luY1JlcXVlc3QiOiJ0cnVlIiwic3lzVXJsIjoiaHR0cHM6Ly9jZG4ubGFzdG1pbGVzLmNuL2FwcHMvNjcyMjgxMTU2OTM5ODAzNDQzMi5wZGYiLCJ0YXNrTmFtZSI6IuWFheWAvOS7o-WPkeaTjeS9nOaJi-WGjC1WMS4wIiwibWVyY2hhbnRSYW5nZSI6MSwidXNlcm5hbWUiOiJBRE1pbiJ9LCJzdWIiOiI2NTkzNzQ2OTAxMzUzMDgyODgzIiwiZXhwIjoxNjIwOTcyOTU2fQ.qrrRlc0GQU2uhJBhSFTP0fcpGS-8Gg3BpdRmxecm1xygt6s2Qh5TvAXfMwIeFr1ha2iX51WfER1pdloxE_hl_A"}</t>
         </is>
       </c>
       <c r="F4" s="3" t="inlineStr">
@@ -1306,7 +1295,7 @@
       </c>
       <c r="E5" s="0" t="inlineStr">
         <is>
-          <t>{"Authorization":"eyJhbGciOiJIUzUxMiJ9.eyJkYXRhIjp7ImZkZFRlbXBsYXRlSWQiOiJYWUZERDY3NzYwMzI2NTc1MzEyMzYzNTIiLCJpc1VwZGF0ZVB3ZCI6MCwibG9naW5UeXBlIjowLCJ1c2VyTG9naW5JZCI6NjU5Mzc0NjkwMTM1MzA4Mjg4MywibWVyY2hhbnRJZCI6IiIsInRhc2tVcmwiOiJodHRwczovL2Nkbi5sYXN0bWlsZXMuY24vYXBwcy82NzIyODEyMjM3NzQzNTk5NjE2LnBkZiIsInN5c05hbWUiOiLns7vnu5_mk43kvZzmiYvlhowtVjEuMCIsImlzTWFuYWdlciI6MSwiaXNBc3luY1JlcXVlc3QiOiJ0cnVlIiwic3lzVXJsIjoiaHR0cHM6Ly9jZG4ubGFzdG1pbGVzLmNuL2FwcHMvNjcyMjgxMTU2OTM5ODAzNDQzMi5wZGYiLCJ0YXNrTmFtZSI6IuWFheWAvOS7o-WPkeaTjeS9nOaJi-WGjC1WMS4wIiwibWVyY2hhbnRSYW5nZSI6MSwidXNlcm5hbWUiOiJBRE1pbiJ9LCJzdWIiOiI2NTkzNzQ2OTAxMzUzMDgyODgzIiwiZXhwIjoxNjIwOTY4OTc1fQ.mRQInJcXBx0PO-TuuxKs1Dqq-8Zz6R8mjyDEZY5BfLUOZTBApIXf4F2kQmWg-mViu_nl3BTKDHqk6LCO9euIdg"}</t>
+          <t>{"Authorization":"eyJhbGciOiJIUzUxMiJ9.eyJkYXRhIjp7ImZkZFRlbXBsYXRlSWQiOiJYWUZERDY3NzYwMzI2NTc1MzEyMzYzNTIiLCJpc1VwZGF0ZVB3ZCI6MCwibG9naW5UeXBlIjowLCJ1c2VyTG9naW5JZCI6NjU5Mzc0NjkwMTM1MzA4Mjg4MywibWVyY2hhbnRJZCI6IiIsInRhc2tVcmwiOiJodHRwczovL2Nkbi5sYXN0bWlsZXMuY24vYXBwcy82NzIyODEyMjM3NzQzNTk5NjE2LnBkZiIsInN5c05hbWUiOiLns7vnu5_mk43kvZzmiYvlhowtVjEuMCIsImlzTWFuYWdlciI6MSwiaXNBc3luY1JlcXVlc3QiOiJ0cnVlIiwic3lzVXJsIjoiaHR0cHM6Ly9jZG4ubGFzdG1pbGVzLmNuL2FwcHMvNjcyMjgxMTU2OTM5ODAzNDQzMi5wZGYiLCJ0YXNrTmFtZSI6IuWFheWAvOS7o-WPkeaTjeS9nOaJi-WGjC1WMS4wIiwibWVyY2hhbnRSYW5nZSI6MSwidXNlcm5hbWUiOiJBRE1pbiJ9LCJzdWIiOiI2NTkzNzQ2OTAxMzUzMDgyODgzIiwiZXhwIjoxNjIwOTcyOTU2fQ.qrrRlc0GQU2uhJBhSFTP0fcpGS-8Gg3BpdRmxecm1xygt6s2Qh5TvAXfMwIeFr1ha2iX51WfER1pdloxE_hl_A"}</t>
         </is>
       </c>
       <c r="F5" s="3" t="inlineStr">
@@ -1343,7 +1332,7 @@
       </c>
       <c r="E6" s="0" t="inlineStr">
         <is>
-          <t>{"Authorization":"eyJhbGciOiJIUzUxMiJ9.eyJkYXRhIjp7ImZkZFRlbXBsYXRlSWQiOiJYWUZERDY3NzYwMzI2NTc1MzEyMzYzNTIiLCJpc1VwZGF0ZVB3ZCI6MCwibG9naW5UeXBlIjowLCJ1c2VyTG9naW5JZCI6NjU5Mzc0NjkwMTM1MzA4Mjg4MywibWVyY2hhbnRJZCI6IiIsInRhc2tVcmwiOiJodHRwczovL2Nkbi5sYXN0bWlsZXMuY24vYXBwcy82NzIyODEyMjM3NzQzNTk5NjE2LnBkZiIsInN5c05hbWUiOiLns7vnu5_mk43kvZzmiYvlhowtVjEuMCIsImlzTWFuYWdlciI6MSwiaXNBc3luY1JlcXVlc3QiOiJ0cnVlIiwic3lzVXJsIjoiaHR0cHM6Ly9jZG4ubGFzdG1pbGVzLmNuL2FwcHMvNjcyMjgxMTU2OTM5ODAzNDQzMi5wZGYiLCJ0YXNrTmFtZSI6IuWFheWAvOS7o-WPkeaTjeS9nOaJi-WGjC1WMS4wIiwibWVyY2hhbnRSYW5nZSI6MSwidXNlcm5hbWUiOiJBRE1pbiJ9LCJzdWIiOiI2NTkzNzQ2OTAxMzUzMDgyODgzIiwiZXhwIjoxNjIwOTY4OTc1fQ.mRQInJcXBx0PO-TuuxKs1Dqq-8Zz6R8mjyDEZY5BfLUOZTBApIXf4F2kQmWg-mViu_nl3BTKDHqk6LCO9euIdg"}</t>
+          <t>{"Authorization":"eyJhbGciOiJIUzUxMiJ9.eyJkYXRhIjp7ImZkZFRlbXBsYXRlSWQiOiJYWUZERDY3NzYwMzI2NTc1MzEyMzYzNTIiLCJpc1VwZGF0ZVB3ZCI6MCwibG9naW5UeXBlIjowLCJ1c2VyTG9naW5JZCI6NjU5Mzc0NjkwMTM1MzA4Mjg4MywibWVyY2hhbnRJZCI6IiIsInRhc2tVcmwiOiJodHRwczovL2Nkbi5sYXN0bWlsZXMuY24vYXBwcy82NzIyODEyMjM3NzQzNTk5NjE2LnBkZiIsInN5c05hbWUiOiLns7vnu5_mk43kvZzmiYvlhowtVjEuMCIsImlzTWFuYWdlciI6MSwiaXNBc3luY1JlcXVlc3QiOiJ0cnVlIiwic3lzVXJsIjoiaHR0cHM6Ly9jZG4ubGFzdG1pbGVzLmNuL2FwcHMvNjcyMjgxMTU2OTM5ODAzNDQzMi5wZGYiLCJ0YXNrTmFtZSI6IuWFheWAvOS7o-WPkeaTjeS9nOaJi-WGjC1WMS4wIiwibWVyY2hhbnRSYW5nZSI6MSwidXNlcm5hbWUiOiJBRE1pbiJ9LCJzdWIiOiI2NTkzNzQ2OTAxMzUzMDgyODgzIiwiZXhwIjoxNjIwOTcyOTU2fQ.qrrRlc0GQU2uhJBhSFTP0fcpGS-8Gg3BpdRmxecm1xygt6s2Qh5TvAXfMwIeFr1ha2iX51WfER1pdloxE_hl_A"}</t>
         </is>
       </c>
       <c r="F6" s="3" t="inlineStr">
@@ -1380,7 +1369,7 @@
       </c>
       <c r="E7" s="0" t="inlineStr">
         <is>
-          <t>{"Authorization":"eyJhbGciOiJIUzUxMiJ9.eyJkYXRhIjp7ImZkZFRlbXBsYXRlSWQiOiJYWUZERDY3NzYwMzI2NTc1MzEyMzYzNTIiLCJpc1VwZGF0ZVB3ZCI6MCwibG9naW5UeXBlIjowLCJ1c2VyTG9naW5JZCI6NjU5Mzc0NjkwMTM1MzA4Mjg4MywibWVyY2hhbnRJZCI6IiIsInRhc2tVcmwiOiJodHRwczovL2Nkbi5sYXN0bWlsZXMuY24vYXBwcy82NzIyODEyMjM3NzQzNTk5NjE2LnBkZiIsInN5c05hbWUiOiLns7vnu5_mk43kvZzmiYvlhowtVjEuMCIsImlzTWFuYWdlciI6MSwiaXNBc3luY1JlcXVlc3QiOiJ0cnVlIiwic3lzVXJsIjoiaHR0cHM6Ly9jZG4ubGFzdG1pbGVzLmNuL2FwcHMvNjcyMjgxMTU2OTM5ODAzNDQzMi5wZGYiLCJ0YXNrTmFtZSI6IuWFheWAvOS7o-WPkeaTjeS9nOaJi-WGjC1WMS4wIiwibWVyY2hhbnRSYW5nZSI6MSwidXNlcm5hbWUiOiJBRE1pbiJ9LCJzdWIiOiI2NTkzNzQ2OTAxMzUzMDgyODgzIiwiZXhwIjoxNjIwOTY4OTc1fQ.mRQInJcXBx0PO-TuuxKs1Dqq-8Zz6R8mjyDEZY5BfLUOZTBApIXf4F2kQmWg-mViu_nl3BTKDHqk6LCO9euIdg"}</t>
+          <t>{"Authorization":"eyJhbGciOiJIUzUxMiJ9.eyJkYXRhIjp7ImZkZFRlbXBsYXRlSWQiOiJYWUZERDY3NzYwMzI2NTc1MzEyMzYzNTIiLCJpc1VwZGF0ZVB3ZCI6MCwibG9naW5UeXBlIjowLCJ1c2VyTG9naW5JZCI6NjU5Mzc0NjkwMTM1MzA4Mjg4MywibWVyY2hhbnRJZCI6IiIsInRhc2tVcmwiOiJodHRwczovL2Nkbi5sYXN0bWlsZXMuY24vYXBwcy82NzIyODEyMjM3NzQzNTk5NjE2LnBkZiIsInN5c05hbWUiOiLns7vnu5_mk43kvZzmiYvlhowtVjEuMCIsImlzTWFuYWdlciI6MSwiaXNBc3luY1JlcXVlc3QiOiJ0cnVlIiwic3lzVXJsIjoiaHR0cHM6Ly9jZG4ubGFzdG1pbGVzLmNuL2FwcHMvNjcyMjgxMTU2OTM5ODAzNDQzMi5wZGYiLCJ0YXNrTmFtZSI6IuWFheWAvOS7o-WPkeaTjeS9nOaJi-WGjC1WMS4wIiwibWVyY2hhbnRSYW5nZSI6MSwidXNlcm5hbWUiOiJBRE1pbiJ9LCJzdWIiOiI2NTkzNzQ2OTAxMzUzMDgyODgzIiwiZXhwIjoxNjIwOTcyOTU2fQ.qrrRlc0GQU2uhJBhSFTP0fcpGS-8Gg3BpdRmxecm1xygt6s2Qh5TvAXfMwIeFr1ha2iX51WfER1pdloxE_hl_A"}</t>
         </is>
       </c>
       <c r="F7" s="3" t="inlineStr">
@@ -1417,7 +1406,7 @@
       </c>
       <c r="E8" s="0" t="inlineStr">
         <is>
-          <t>{"Authorization":"eyJhbGciOiJIUzUxMiJ9.eyJkYXRhIjp7ImZkZFRlbXBsYXRlSWQiOiJYWUZERDY3NzYwMzI2NTc1MzEyMzYzNTIiLCJpc1VwZGF0ZVB3ZCI6MCwibG9naW5UeXBlIjowLCJ1c2VyTG9naW5JZCI6NjU5Mzc0NjkwMTM1MzA4Mjg4MywibWVyY2hhbnRJZCI6IiIsInRhc2tVcmwiOiJodHRwczovL2Nkbi5sYXN0bWlsZXMuY24vYXBwcy82NzIyODEyMjM3NzQzNTk5NjE2LnBkZiIsInN5c05hbWUiOiLns7vnu5_mk43kvZzmiYvlhowtVjEuMCIsImlzTWFuYWdlciI6MSwiaXNBc3luY1JlcXVlc3QiOiJ0cnVlIiwic3lzVXJsIjoiaHR0cHM6Ly9jZG4ubGFzdG1pbGVzLmNuL2FwcHMvNjcyMjgxMTU2OTM5ODAzNDQzMi5wZGYiLCJ0YXNrTmFtZSI6IuWFheWAvOS7o-WPkeaTjeS9nOaJi-WGjC1WMS4wIiwibWVyY2hhbnRSYW5nZSI6MSwidXNlcm5hbWUiOiJBRE1pbiJ9LCJzdWIiOiI2NTkzNzQ2OTAxMzUzMDgyODgzIiwiZXhwIjoxNjIwOTY4OTc1fQ.mRQInJcXBx0PO-TuuxKs1Dqq-8Zz6R8mjyDEZY5BfLUOZTBApIXf4F2kQmWg-mViu_nl3BTKDHqk6LCO9euIdg"}</t>
+          <t>{"Authorization":"eyJhbGciOiJIUzUxMiJ9.eyJkYXRhIjp7ImZkZFRlbXBsYXRlSWQiOiJYWUZERDY3NzYwMzI2NTc1MzEyMzYzNTIiLCJpc1VwZGF0ZVB3ZCI6MCwibG9naW5UeXBlIjowLCJ1c2VyTG9naW5JZCI6NjU5Mzc0NjkwMTM1MzA4Mjg4MywibWVyY2hhbnRJZCI6IiIsInRhc2tVcmwiOiJodHRwczovL2Nkbi5sYXN0bWlsZXMuY24vYXBwcy82NzIyODEyMjM3NzQzNTk5NjE2LnBkZiIsInN5c05hbWUiOiLns7vnu5_mk43kvZzmiYvlhowtVjEuMCIsImlzTWFuYWdlciI6MSwiaXNBc3luY1JlcXVlc3QiOiJ0cnVlIiwic3lzVXJsIjoiaHR0cHM6Ly9jZG4ubGFzdG1pbGVzLmNuL2FwcHMvNjcyMjgxMTU2OTM5ODAzNDQzMi5wZGYiLCJ0YXNrTmFtZSI6IuWFheWAvOS7o-WPkeaTjeS9nOaJi-WGjC1WMS4wIiwibWVyY2hhbnRSYW5nZSI6MSwidXNlcm5hbWUiOiJBRE1pbiJ9LCJzdWIiOiI2NTkzNzQ2OTAxMzUzMDgyODgzIiwiZXhwIjoxNjIwOTcyOTU2fQ.qrrRlc0GQU2uhJBhSFTP0fcpGS-8Gg3BpdRmxecm1xygt6s2Qh5TvAXfMwIeFr1ha2iX51WfER1pdloxE_hl_A"}</t>
         </is>
       </c>
       <c r="F8" s="3" t="inlineStr">
@@ -1454,7 +1443,7 @@
       </c>
       <c r="E9" s="0" t="inlineStr">
         <is>
-          <t>{"Authorization":"eyJhbGciOiJIUzUxMiJ9.eyJkYXRhIjp7ImZkZFRlbXBsYXRlSWQiOiJYWUZERDY3NzYwMzI2NTc1MzEyMzYzNTIiLCJpc1VwZGF0ZVB3ZCI6MCwibG9naW5UeXBlIjowLCJ1c2VyTG9naW5JZCI6NjU5Mzc0NjkwMTM1MzA4Mjg4MywibWVyY2hhbnRJZCI6IiIsInRhc2tVcmwiOiJodHRwczovL2Nkbi5sYXN0bWlsZXMuY24vYXBwcy82NzIyODEyMjM3NzQzNTk5NjE2LnBkZiIsInN5c05hbWUiOiLns7vnu5_mk43kvZzmiYvlhowtVjEuMCIsImlzTWFuYWdlciI6MSwiaXNBc3luY1JlcXVlc3QiOiJ0cnVlIiwic3lzVXJsIjoiaHR0cHM6Ly9jZG4ubGFzdG1pbGVzLmNuL2FwcHMvNjcyMjgxMTU2OTM5ODAzNDQzMi5wZGYiLCJ0YXNrTmFtZSI6IuWFheWAvOS7o-WPkeaTjeS9nOaJi-WGjC1WMS4wIiwibWVyY2hhbnRSYW5nZSI6MSwidXNlcm5hbWUiOiJBRE1pbiJ9LCJzdWIiOiI2NTkzNzQ2OTAxMzUzMDgyODgzIiwiZXhwIjoxNjIwOTY4OTc1fQ.mRQInJcXBx0PO-TuuxKs1Dqq-8Zz6R8mjyDEZY5BfLUOZTBApIXf4F2kQmWg-mViu_nl3BTKDHqk6LCO9euIdg"}</t>
+          <t>{"Authorization":"eyJhbGciOiJIUzUxMiJ9.eyJkYXRhIjp7ImZkZFRlbXBsYXRlSWQiOiJYWUZERDY3NzYwMzI2NTc1MzEyMzYzNTIiLCJpc1VwZGF0ZVB3ZCI6MCwibG9naW5UeXBlIjowLCJ1c2VyTG9naW5JZCI6NjU5Mzc0NjkwMTM1MzA4Mjg4MywibWVyY2hhbnRJZCI6IiIsInRhc2tVcmwiOiJodHRwczovL2Nkbi5sYXN0bWlsZXMuY24vYXBwcy82NzIyODEyMjM3NzQzNTk5NjE2LnBkZiIsInN5c05hbWUiOiLns7vnu5_mk43kvZzmiYvlhowtVjEuMCIsImlzTWFuYWdlciI6MSwiaXNBc3luY1JlcXVlc3QiOiJ0cnVlIiwic3lzVXJsIjoiaHR0cHM6Ly9jZG4ubGFzdG1pbGVzLmNuL2FwcHMvNjcyMjgxMTU2OTM5ODAzNDQzMi5wZGYiLCJ0YXNrTmFtZSI6IuWFheWAvOS7o-WPkeaTjeS9nOaJi-WGjC1WMS4wIiwibWVyY2hhbnRSYW5nZSI6MSwidXNlcm5hbWUiOiJBRE1pbiJ9LCJzdWIiOiI2NTkzNzQ2OTAxMzUzMDgyODgzIiwiZXhwIjoxNjIwOTcyOTU2fQ.qrrRlc0GQU2uhJBhSFTP0fcpGS-8Gg3BpdRmxecm1xygt6s2Qh5TvAXfMwIeFr1ha2iX51WfER1pdloxE_hl_A"}</t>
         </is>
       </c>
       <c r="F9" s="3" t="inlineStr">
@@ -1493,7 +1482,7 @@
       </c>
       <c r="E10" s="0" t="inlineStr">
         <is>
-          <t>{"Authorization":"eyJhbGciOiJIUzUxMiJ9.eyJkYXRhIjp7ImZkZFRlbXBsYXRlSWQiOiJYWUZERDY3NzYwMzI2NTc1MzEyMzYzNTIiLCJpc1VwZGF0ZVB3ZCI6MCwibG9naW5UeXBlIjowLCJ1c2VyTG9naW5JZCI6NjU5Mzc0NjkwMTM1MzA4Mjg4MywibWVyY2hhbnRJZCI6IiIsInRhc2tVcmwiOiJodHRwczovL2Nkbi5sYXN0bWlsZXMuY24vYXBwcy82NzIyODEyMjM3NzQzNTk5NjE2LnBkZiIsInN5c05hbWUiOiLns7vnu5_mk43kvZzmiYvlhowtVjEuMCIsImlzTWFuYWdlciI6MSwiaXNBc3luY1JlcXVlc3QiOiJ0cnVlIiwic3lzVXJsIjoiaHR0cHM6Ly9jZG4ubGFzdG1pbGVzLmNuL2FwcHMvNjcyMjgxMTU2OTM5ODAzNDQzMi5wZGYiLCJ0YXNrTmFtZSI6IuWFheWAvOS7o-WPkeaTjeS9nOaJi-WGjC1WMS4wIiwibWVyY2hhbnRSYW5nZSI6MSwidXNlcm5hbWUiOiJBRE1pbiJ9LCJzdWIiOiI2NTkzNzQ2OTAxMzUzMDgyODgzIiwiZXhwIjoxNjIwOTY4OTc1fQ.mRQInJcXBx0PO-TuuxKs1Dqq-8Zz6R8mjyDEZY5BfLUOZTBApIXf4F2kQmWg-mViu_nl3BTKDHqk6LCO9euIdg"}</t>
+          <t>{"Authorization":"eyJhbGciOiJIUzUxMiJ9.eyJkYXRhIjp7ImZkZFRlbXBsYXRlSWQiOiJYWUZERDY3NzYwMzI2NTc1MzEyMzYzNTIiLCJpc1VwZGF0ZVB3ZCI6MCwibG9naW5UeXBlIjowLCJ1c2VyTG9naW5JZCI6NjU5Mzc0NjkwMTM1MzA4Mjg4MywibWVyY2hhbnRJZCI6IiIsInRhc2tVcmwiOiJodHRwczovL2Nkbi5sYXN0bWlsZXMuY24vYXBwcy82NzIyODEyMjM3NzQzNTk5NjE2LnBkZiIsInN5c05hbWUiOiLns7vnu5_mk43kvZzmiYvlhowtVjEuMCIsImlzTWFuYWdlciI6MSwiaXNBc3luY1JlcXVlc3QiOiJ0cnVlIiwic3lzVXJsIjoiaHR0cHM6Ly9jZG4ubGFzdG1pbGVzLmNuL2FwcHMvNjcyMjgxMTU2OTM5ODAzNDQzMi5wZGYiLCJ0YXNrTmFtZSI6IuWFheWAvOS7o-WPkeaTjeS9nOaJi-WGjC1WMS4wIiwibWVyY2hhbnRSYW5nZSI6MSwidXNlcm5hbWUiOiJBRE1pbiJ9LCJzdWIiOiI2NTkzNzQ2OTAxMzUzMDgyODgzIiwiZXhwIjoxNjIwOTcyOTU2fQ.qrrRlc0GQU2uhJBhSFTP0fcpGS-8Gg3BpdRmxecm1xygt6s2Qh5TvAXfMwIeFr1ha2iX51WfER1pdloxE_hl_A"}</t>
         </is>
       </c>
       <c r="G10" s="3" t="inlineStr">

--- a/config/测试结果表格.xlsx
+++ b/config/测试结果表格.xlsx
@@ -18,7 +18,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="23">
+  <fonts count="24">
     <font>
       <name val="宋体"/>
       <charset val="134"/>
@@ -184,6 +184,11 @@
       <color rgb="FF006100"/>
       <sz val="11"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <b val="1"/>
+      <color rgb="0000ff00"/>
     </font>
     <font>
       <name val="宋体"/>
@@ -641,7 +646,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -662,6 +667,7 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1168,7 +1174,7 @@
       </c>
       <c r="E2" s="0" t="inlineStr">
         <is>
-          <t>{"Authorization":"eyJhbGciOiJIUzUxMiJ9.eyJkYXRhIjp7ImZkZFRlbXBsYXRlSWQiOiJYWUZERDY3NzYwMzI2NTc1MzEyMzYzNTIiLCJpc1VwZGF0ZVB3ZCI6MCwibG9naW5UeXBlIjowLCJ1c2VyTG9naW5JZCI6NjU5Mzc0NjkwMTM1MzA4Mjg4MywibWVyY2hhbnRJZCI6IiIsInRhc2tVcmwiOiJodHRwczovL2Nkbi5sYXN0bWlsZXMuY24vYXBwcy82NzIyODEyMjM3NzQzNTk5NjE2LnBkZiIsInN5c05hbWUiOiLns7vnu5_mk43kvZzmiYvlhowtVjEuMCIsImlzTWFuYWdlciI6MSwiaXNBc3luY1JlcXVlc3QiOiJ0cnVlIiwic3lzVXJsIjoiaHR0cHM6Ly9jZG4ubGFzdG1pbGVzLmNuL2FwcHMvNjcyMjgxMTU2OTM5ODAzNDQzMi5wZGYiLCJ0YXNrTmFtZSI6IuWFheWAvOS7o-WPkeaTjeS9nOaJi-WGjC1WMS4wIiwibWVyY2hhbnRSYW5nZSI6MSwidXNlcm5hbWUiOiJBRE1pbiJ9LCJzdWIiOiI2NTkzNzQ2OTAxMzUzMDgyODgzIiwiZXhwIjoxNjIwOTcyOTU2fQ.qrrRlc0GQU2uhJBhSFTP0fcpGS-8Gg3BpdRmxecm1xygt6s2Qh5TvAXfMwIeFr1ha2iX51WfER1pdloxE_hl_A"}</t>
+          <t>{"Authorization":"eyJhbGciOiJIUzUxMiJ9.eyJkYXRhIjp7ImZkZFRlbXBsYXRlSWQiOiJYWUZERDY3NzYwMzI2NTc1MzEyMzYzNTIiLCJpc1VwZGF0ZVB3ZCI6MCwibG9naW5UeXBlIjowLCJ1c2VyTG9naW5JZCI6NjU5Mzc0NjkwMTM1MzA4Mjg4MywibWVyY2hhbnRJZCI6IiIsInRhc2tVcmwiOiJodHRwczovL2Nkbi5sYXN0bWlsZXMuY24vYXBwcy82NzIyODEyMjM3NzQzNTk5NjE2LnBkZiIsInN5c05hbWUiOiLns7vnu5_mk43kvZzmiYvlhowtVjEuMCIsImlzTWFuYWdlciI6MSwiaXNBc3luY1JlcXVlc3QiOiJ0cnVlIiwic3lzVXJsIjoiaHR0cHM6Ly9jZG4ubGFzdG1pbGVzLmNuL2FwcHMvNjcyMjgxMTU2OTM5ODAzNDQzMi5wZGYiLCJ0YXNrTmFtZSI6IuWFheWAvOS7o-WPkeaTjeS9nOaJi-WGjC1WMS4wIiwibWVyY2hhbnRSYW5nZSI6MSwidXNlcm5hbWUiOiJBRE1pbiJ9LCJzdWIiOiI2NTkzNzQ2OTAxMzUzMDgyODgzIiwiZXhwIjoxNjIxMDYxNzg0fQ.UbtUGGKQQqbDqJjU0hhXHCmHGo7zkVH9vbZfH4KzDjqYXqRLTMDXvpDMnYmYJSPeOyNOa-33nVR5nND8YrIsZg"}</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -1181,14 +1187,14 @@
           <t>{"pageNum":"1","pageSize":"15","merchantId":"","startDate":"2020-12","endDate":"2020-12","taxpayer":"","status":"0","type":"3","order":"2","businessNo":"","amountRangeJson":"[]"}</t>
         </is>
       </c>
-      <c r="I2" s="7" t="inlineStr">
-        <is>
-          <t>报错了</t>
-        </is>
-      </c>
-      <c r="J2" s="7" t="inlineStr">
-        <is>
-          <t>BIN</t>
+      <c r="H2" s="7" t="inlineStr">
+        <is>
+          <t>pass</t>
+        </is>
+      </c>
+      <c r="J2" s="8" t="inlineStr">
+        <is>
+          <t>bin</t>
         </is>
       </c>
       <c r="L2" s="2" t="n"/>
@@ -1219,7 +1225,7 @@
       </c>
       <c r="E3" s="0" t="inlineStr">
         <is>
-          <t>{"Authorization":"eyJhbGciOiJIUzUxMiJ9.eyJkYXRhIjp7ImZkZFRlbXBsYXRlSWQiOiJYWUZERDY3NzYwMzI2NTc1MzEyMzYzNTIiLCJpc1VwZGF0ZVB3ZCI6MCwibG9naW5UeXBlIjowLCJ1c2VyTG9naW5JZCI6NjU5Mzc0NjkwMTM1MzA4Mjg4MywibWVyY2hhbnRJZCI6IiIsInRhc2tVcmwiOiJodHRwczovL2Nkbi5sYXN0bWlsZXMuY24vYXBwcy82NzIyODEyMjM3NzQzNTk5NjE2LnBkZiIsInN5c05hbWUiOiLns7vnu5_mk43kvZzmiYvlhowtVjEuMCIsImlzTWFuYWdlciI6MSwiaXNBc3luY1JlcXVlc3QiOiJ0cnVlIiwic3lzVXJsIjoiaHR0cHM6Ly9jZG4ubGFzdG1pbGVzLmNuL2FwcHMvNjcyMjgxMTU2OTM5ODAzNDQzMi5wZGYiLCJ0YXNrTmFtZSI6IuWFheWAvOS7o-WPkeaTjeS9nOaJi-WGjC1WMS4wIiwibWVyY2hhbnRSYW5nZSI6MSwidXNlcm5hbWUiOiJBRE1pbiJ9LCJzdWIiOiI2NTkzNzQ2OTAxMzUzMDgyODgzIiwiZXhwIjoxNjIwOTcyOTU2fQ.qrrRlc0GQU2uhJBhSFTP0fcpGS-8Gg3BpdRmxecm1xygt6s2Qh5TvAXfMwIeFr1ha2iX51WfER1pdloxE_hl_A"}</t>
+          <t>{"Authorization":"eyJhbGciOiJIUzUxMiJ9.eyJkYXRhIjp7ImZkZFRlbXBsYXRlSWQiOiJYWUZERDY3NzYwMzI2NTc1MzEyMzYzNTIiLCJpc1VwZGF0ZVB3ZCI6MCwibG9naW5UeXBlIjowLCJ1c2VyTG9naW5JZCI6NjU5Mzc0NjkwMTM1MzA4Mjg4MywibWVyY2hhbnRJZCI6IiIsInRhc2tVcmwiOiJodHRwczovL2Nkbi5sYXN0bWlsZXMuY24vYXBwcy82NzIyODEyMjM3NzQzNTk5NjE2LnBkZiIsInN5c05hbWUiOiLns7vnu5_mk43kvZzmiYvlhowtVjEuMCIsImlzTWFuYWdlciI6MSwiaXNBc3luY1JlcXVlc3QiOiJ0cnVlIiwic3lzVXJsIjoiaHR0cHM6Ly9jZG4ubGFzdG1pbGVzLmNuL2FwcHMvNjcyMjgxMTU2OTM5ODAzNDQzMi5wZGYiLCJ0YXNrTmFtZSI6IuWFheWAvOS7o-WPkeaTjeS9nOaJi-WGjC1WMS4wIiwibWVyY2hhbnRSYW5nZSI6MSwidXNlcm5hbWUiOiJBRE1pbiJ9LCJzdWIiOiI2NTkzNzQ2OTAxMzUzMDgyODgzIiwiZXhwIjoxNjIxMDYxNzg0fQ.UbtUGGKQQqbDqJjU0hhXHCmHGo7zkVH9vbZfH4KzDjqYXqRLTMDXvpDMnYmYJSPeOyNOa-33nVR5nND8YrIsZg"}</t>
         </is>
       </c>
       <c r="F3" s="3" t="inlineStr">
@@ -1258,7 +1264,7 @@
       </c>
       <c r="E4" s="0" t="inlineStr">
         <is>
-          <t>{"Authorization":"eyJhbGciOiJIUzUxMiJ9.eyJkYXRhIjp7ImZkZFRlbXBsYXRlSWQiOiJYWUZERDY3NzYwMzI2NTc1MzEyMzYzNTIiLCJpc1VwZGF0ZVB3ZCI6MCwibG9naW5UeXBlIjowLCJ1c2VyTG9naW5JZCI6NjU5Mzc0NjkwMTM1MzA4Mjg4MywibWVyY2hhbnRJZCI6IiIsInRhc2tVcmwiOiJodHRwczovL2Nkbi5sYXN0bWlsZXMuY24vYXBwcy82NzIyODEyMjM3NzQzNTk5NjE2LnBkZiIsInN5c05hbWUiOiLns7vnu5_mk43kvZzmiYvlhowtVjEuMCIsImlzTWFuYWdlciI6MSwiaXNBc3luY1JlcXVlc3QiOiJ0cnVlIiwic3lzVXJsIjoiaHR0cHM6Ly9jZG4ubGFzdG1pbGVzLmNuL2FwcHMvNjcyMjgxMTU2OTM5ODAzNDQzMi5wZGYiLCJ0YXNrTmFtZSI6IuWFheWAvOS7o-WPkeaTjeS9nOaJi-WGjC1WMS4wIiwibWVyY2hhbnRSYW5nZSI6MSwidXNlcm5hbWUiOiJBRE1pbiJ9LCJzdWIiOiI2NTkzNzQ2OTAxMzUzMDgyODgzIiwiZXhwIjoxNjIwOTcyOTU2fQ.qrrRlc0GQU2uhJBhSFTP0fcpGS-8Gg3BpdRmxecm1xygt6s2Qh5TvAXfMwIeFr1ha2iX51WfER1pdloxE_hl_A"}</t>
+          <t>{"Authorization":"eyJhbGciOiJIUzUxMiJ9.eyJkYXRhIjp7ImZkZFRlbXBsYXRlSWQiOiJYWUZERDY3NzYwMzI2NTc1MzEyMzYzNTIiLCJpc1VwZGF0ZVB3ZCI6MCwibG9naW5UeXBlIjowLCJ1c2VyTG9naW5JZCI6NjU5Mzc0NjkwMTM1MzA4Mjg4MywibWVyY2hhbnRJZCI6IiIsInRhc2tVcmwiOiJodHRwczovL2Nkbi5sYXN0bWlsZXMuY24vYXBwcy82NzIyODEyMjM3NzQzNTk5NjE2LnBkZiIsInN5c05hbWUiOiLns7vnu5_mk43kvZzmiYvlhowtVjEuMCIsImlzTWFuYWdlciI6MSwiaXNBc3luY1JlcXVlc3QiOiJ0cnVlIiwic3lzVXJsIjoiaHR0cHM6Ly9jZG4ubGFzdG1pbGVzLmNuL2FwcHMvNjcyMjgxMTU2OTM5ODAzNDQzMi5wZGYiLCJ0YXNrTmFtZSI6IuWFheWAvOS7o-WPkeaTjeS9nOaJi-WGjC1WMS4wIiwibWVyY2hhbnRSYW5nZSI6MSwidXNlcm5hbWUiOiJBRE1pbiJ9LCJzdWIiOiI2NTkzNzQ2OTAxMzUzMDgyODgzIiwiZXhwIjoxNjIxMDYxNzg0fQ.UbtUGGKQQqbDqJjU0hhXHCmHGo7zkVH9vbZfH4KzDjqYXqRLTMDXvpDMnYmYJSPeOyNOa-33nVR5nND8YrIsZg"}</t>
         </is>
       </c>
       <c r="F4" s="3" t="inlineStr">
@@ -1295,7 +1301,7 @@
       </c>
       <c r="E5" s="0" t="inlineStr">
         <is>
-          <t>{"Authorization":"eyJhbGciOiJIUzUxMiJ9.eyJkYXRhIjp7ImZkZFRlbXBsYXRlSWQiOiJYWUZERDY3NzYwMzI2NTc1MzEyMzYzNTIiLCJpc1VwZGF0ZVB3ZCI6MCwibG9naW5UeXBlIjowLCJ1c2VyTG9naW5JZCI6NjU5Mzc0NjkwMTM1MzA4Mjg4MywibWVyY2hhbnRJZCI6IiIsInRhc2tVcmwiOiJodHRwczovL2Nkbi5sYXN0bWlsZXMuY24vYXBwcy82NzIyODEyMjM3NzQzNTk5NjE2LnBkZiIsInN5c05hbWUiOiLns7vnu5_mk43kvZzmiYvlhowtVjEuMCIsImlzTWFuYWdlciI6MSwiaXNBc3luY1JlcXVlc3QiOiJ0cnVlIiwic3lzVXJsIjoiaHR0cHM6Ly9jZG4ubGFzdG1pbGVzLmNuL2FwcHMvNjcyMjgxMTU2OTM5ODAzNDQzMi5wZGYiLCJ0YXNrTmFtZSI6IuWFheWAvOS7o-WPkeaTjeS9nOaJi-WGjC1WMS4wIiwibWVyY2hhbnRSYW5nZSI6MSwidXNlcm5hbWUiOiJBRE1pbiJ9LCJzdWIiOiI2NTkzNzQ2OTAxMzUzMDgyODgzIiwiZXhwIjoxNjIwOTcyOTU2fQ.qrrRlc0GQU2uhJBhSFTP0fcpGS-8Gg3BpdRmxecm1xygt6s2Qh5TvAXfMwIeFr1ha2iX51WfER1pdloxE_hl_A"}</t>
+          <t>{"Authorization":"eyJhbGciOiJIUzUxMiJ9.eyJkYXRhIjp7ImZkZFRlbXBsYXRlSWQiOiJYWUZERDY3NzYwMzI2NTc1MzEyMzYzNTIiLCJpc1VwZGF0ZVB3ZCI6MCwibG9naW5UeXBlIjowLCJ1c2VyTG9naW5JZCI6NjU5Mzc0NjkwMTM1MzA4Mjg4MywibWVyY2hhbnRJZCI6IiIsInRhc2tVcmwiOiJodHRwczovL2Nkbi5sYXN0bWlsZXMuY24vYXBwcy82NzIyODEyMjM3NzQzNTk5NjE2LnBkZiIsInN5c05hbWUiOiLns7vnu5_mk43kvZzmiYvlhowtVjEuMCIsImlzTWFuYWdlciI6MSwiaXNBc3luY1JlcXVlc3QiOiJ0cnVlIiwic3lzVXJsIjoiaHR0cHM6Ly9jZG4ubGFzdG1pbGVzLmNuL2FwcHMvNjcyMjgxMTU2OTM5ODAzNDQzMi5wZGYiLCJ0YXNrTmFtZSI6IuWFheWAvOS7o-WPkeaTjeS9nOaJi-WGjC1WMS4wIiwibWVyY2hhbnRSYW5nZSI6MSwidXNlcm5hbWUiOiJBRE1pbiJ9LCJzdWIiOiI2NTkzNzQ2OTAxMzUzMDgyODgzIiwiZXhwIjoxNjIxMDYxNzg0fQ.UbtUGGKQQqbDqJjU0hhXHCmHGo7zkVH9vbZfH4KzDjqYXqRLTMDXvpDMnYmYJSPeOyNOa-33nVR5nND8YrIsZg"}</t>
         </is>
       </c>
       <c r="F5" s="3" t="inlineStr">
@@ -1332,7 +1338,7 @@
       </c>
       <c r="E6" s="0" t="inlineStr">
         <is>
-          <t>{"Authorization":"eyJhbGciOiJIUzUxMiJ9.eyJkYXRhIjp7ImZkZFRlbXBsYXRlSWQiOiJYWUZERDY3NzYwMzI2NTc1MzEyMzYzNTIiLCJpc1VwZGF0ZVB3ZCI6MCwibG9naW5UeXBlIjowLCJ1c2VyTG9naW5JZCI6NjU5Mzc0NjkwMTM1MzA4Mjg4MywibWVyY2hhbnRJZCI6IiIsInRhc2tVcmwiOiJodHRwczovL2Nkbi5sYXN0bWlsZXMuY24vYXBwcy82NzIyODEyMjM3NzQzNTk5NjE2LnBkZiIsInN5c05hbWUiOiLns7vnu5_mk43kvZzmiYvlhowtVjEuMCIsImlzTWFuYWdlciI6MSwiaXNBc3luY1JlcXVlc3QiOiJ0cnVlIiwic3lzVXJsIjoiaHR0cHM6Ly9jZG4ubGFzdG1pbGVzLmNuL2FwcHMvNjcyMjgxMTU2OTM5ODAzNDQzMi5wZGYiLCJ0YXNrTmFtZSI6IuWFheWAvOS7o-WPkeaTjeS9nOaJi-WGjC1WMS4wIiwibWVyY2hhbnRSYW5nZSI6MSwidXNlcm5hbWUiOiJBRE1pbiJ9LCJzdWIiOiI2NTkzNzQ2OTAxMzUzMDgyODgzIiwiZXhwIjoxNjIwOTcyOTU2fQ.qrrRlc0GQU2uhJBhSFTP0fcpGS-8Gg3BpdRmxecm1xygt6s2Qh5TvAXfMwIeFr1ha2iX51WfER1pdloxE_hl_A"}</t>
+          <t>{"Authorization":"eyJhbGciOiJIUzUxMiJ9.eyJkYXRhIjp7ImZkZFRlbXBsYXRlSWQiOiJYWUZERDY3NzYwMzI2NTc1MzEyMzYzNTIiLCJpc1VwZGF0ZVB3ZCI6MCwibG9naW5UeXBlIjowLCJ1c2VyTG9naW5JZCI6NjU5Mzc0NjkwMTM1MzA4Mjg4MywibWVyY2hhbnRJZCI6IiIsInRhc2tVcmwiOiJodHRwczovL2Nkbi5sYXN0bWlsZXMuY24vYXBwcy82NzIyODEyMjM3NzQzNTk5NjE2LnBkZiIsInN5c05hbWUiOiLns7vnu5_mk43kvZzmiYvlhowtVjEuMCIsImlzTWFuYWdlciI6MSwiaXNBc3luY1JlcXVlc3QiOiJ0cnVlIiwic3lzVXJsIjoiaHR0cHM6Ly9jZG4ubGFzdG1pbGVzLmNuL2FwcHMvNjcyMjgxMTU2OTM5ODAzNDQzMi5wZGYiLCJ0YXNrTmFtZSI6IuWFheWAvOS7o-WPkeaTjeS9nOaJi-WGjC1WMS4wIiwibWVyY2hhbnRSYW5nZSI6MSwidXNlcm5hbWUiOiJBRE1pbiJ9LCJzdWIiOiI2NTkzNzQ2OTAxMzUzMDgyODgzIiwiZXhwIjoxNjIxMDYxNzg0fQ.UbtUGGKQQqbDqJjU0hhXHCmHGo7zkVH9vbZfH4KzDjqYXqRLTMDXvpDMnYmYJSPeOyNOa-33nVR5nND8YrIsZg"}</t>
         </is>
       </c>
       <c r="F6" s="3" t="inlineStr">
@@ -1369,7 +1375,7 @@
       </c>
       <c r="E7" s="0" t="inlineStr">
         <is>
-          <t>{"Authorization":"eyJhbGciOiJIUzUxMiJ9.eyJkYXRhIjp7ImZkZFRlbXBsYXRlSWQiOiJYWUZERDY3NzYwMzI2NTc1MzEyMzYzNTIiLCJpc1VwZGF0ZVB3ZCI6MCwibG9naW5UeXBlIjowLCJ1c2VyTG9naW5JZCI6NjU5Mzc0NjkwMTM1MzA4Mjg4MywibWVyY2hhbnRJZCI6IiIsInRhc2tVcmwiOiJodHRwczovL2Nkbi5sYXN0bWlsZXMuY24vYXBwcy82NzIyODEyMjM3NzQzNTk5NjE2LnBkZiIsInN5c05hbWUiOiLns7vnu5_mk43kvZzmiYvlhowtVjEuMCIsImlzTWFuYWdlciI6MSwiaXNBc3luY1JlcXVlc3QiOiJ0cnVlIiwic3lzVXJsIjoiaHR0cHM6Ly9jZG4ubGFzdG1pbGVzLmNuL2FwcHMvNjcyMjgxMTU2OTM5ODAzNDQzMi5wZGYiLCJ0YXNrTmFtZSI6IuWFheWAvOS7o-WPkeaTjeS9nOaJi-WGjC1WMS4wIiwibWVyY2hhbnRSYW5nZSI6MSwidXNlcm5hbWUiOiJBRE1pbiJ9LCJzdWIiOiI2NTkzNzQ2OTAxMzUzMDgyODgzIiwiZXhwIjoxNjIwOTcyOTU2fQ.qrrRlc0GQU2uhJBhSFTP0fcpGS-8Gg3BpdRmxecm1xygt6s2Qh5TvAXfMwIeFr1ha2iX51WfER1pdloxE_hl_A"}</t>
+          <t>{"Authorization":"eyJhbGciOiJIUzUxMiJ9.eyJkYXRhIjp7ImZkZFRlbXBsYXRlSWQiOiJYWUZERDY3NzYwMzI2NTc1MzEyMzYzNTIiLCJpc1VwZGF0ZVB3ZCI6MCwibG9naW5UeXBlIjowLCJ1c2VyTG9naW5JZCI6NjU5Mzc0NjkwMTM1MzA4Mjg4MywibWVyY2hhbnRJZCI6IiIsInRhc2tVcmwiOiJodHRwczovL2Nkbi5sYXN0bWlsZXMuY24vYXBwcy82NzIyODEyMjM3NzQzNTk5NjE2LnBkZiIsInN5c05hbWUiOiLns7vnu5_mk43kvZzmiYvlhowtVjEuMCIsImlzTWFuYWdlciI6MSwiaXNBc3luY1JlcXVlc3QiOiJ0cnVlIiwic3lzVXJsIjoiaHR0cHM6Ly9jZG4ubGFzdG1pbGVzLmNuL2FwcHMvNjcyMjgxMTU2OTM5ODAzNDQzMi5wZGYiLCJ0YXNrTmFtZSI6IuWFheWAvOS7o-WPkeaTjeS9nOaJi-WGjC1WMS4wIiwibWVyY2hhbnRSYW5nZSI6MSwidXNlcm5hbWUiOiJBRE1pbiJ9LCJzdWIiOiI2NTkzNzQ2OTAxMzUzMDgyODgzIiwiZXhwIjoxNjIxMDYxNzg0fQ.UbtUGGKQQqbDqJjU0hhXHCmHGo7zkVH9vbZfH4KzDjqYXqRLTMDXvpDMnYmYJSPeOyNOa-33nVR5nND8YrIsZg"}</t>
         </is>
       </c>
       <c r="F7" s="3" t="inlineStr">
@@ -1406,7 +1412,7 @@
       </c>
       <c r="E8" s="0" t="inlineStr">
         <is>
-          <t>{"Authorization":"eyJhbGciOiJIUzUxMiJ9.eyJkYXRhIjp7ImZkZFRlbXBsYXRlSWQiOiJYWUZERDY3NzYwMzI2NTc1MzEyMzYzNTIiLCJpc1VwZGF0ZVB3ZCI6MCwibG9naW5UeXBlIjowLCJ1c2VyTG9naW5JZCI6NjU5Mzc0NjkwMTM1MzA4Mjg4MywibWVyY2hhbnRJZCI6IiIsInRhc2tVcmwiOiJodHRwczovL2Nkbi5sYXN0bWlsZXMuY24vYXBwcy82NzIyODEyMjM3NzQzNTk5NjE2LnBkZiIsInN5c05hbWUiOiLns7vnu5_mk43kvZzmiYvlhowtVjEuMCIsImlzTWFuYWdlciI6MSwiaXNBc3luY1JlcXVlc3QiOiJ0cnVlIiwic3lzVXJsIjoiaHR0cHM6Ly9jZG4ubGFzdG1pbGVzLmNuL2FwcHMvNjcyMjgxMTU2OTM5ODAzNDQzMi5wZGYiLCJ0YXNrTmFtZSI6IuWFheWAvOS7o-WPkeaTjeS9nOaJi-WGjC1WMS4wIiwibWVyY2hhbnRSYW5nZSI6MSwidXNlcm5hbWUiOiJBRE1pbiJ9LCJzdWIiOiI2NTkzNzQ2OTAxMzUzMDgyODgzIiwiZXhwIjoxNjIwOTcyOTU2fQ.qrrRlc0GQU2uhJBhSFTP0fcpGS-8Gg3BpdRmxecm1xygt6s2Qh5TvAXfMwIeFr1ha2iX51WfER1pdloxE_hl_A"}</t>
+          <t>{"Authorization":"eyJhbGciOiJIUzUxMiJ9.eyJkYXRhIjp7ImZkZFRlbXBsYXRlSWQiOiJYWUZERDY3NzYwMzI2NTc1MzEyMzYzNTIiLCJpc1VwZGF0ZVB3ZCI6MCwibG9naW5UeXBlIjowLCJ1c2VyTG9naW5JZCI6NjU5Mzc0NjkwMTM1MzA4Mjg4MywibWVyY2hhbnRJZCI6IiIsInRhc2tVcmwiOiJodHRwczovL2Nkbi5sYXN0bWlsZXMuY24vYXBwcy82NzIyODEyMjM3NzQzNTk5NjE2LnBkZiIsInN5c05hbWUiOiLns7vnu5_mk43kvZzmiYvlhowtVjEuMCIsImlzTWFuYWdlciI6MSwiaXNBc3luY1JlcXVlc3QiOiJ0cnVlIiwic3lzVXJsIjoiaHR0cHM6Ly9jZG4ubGFzdG1pbGVzLmNuL2FwcHMvNjcyMjgxMTU2OTM5ODAzNDQzMi5wZGYiLCJ0YXNrTmFtZSI6IuWFheWAvOS7o-WPkeaTjeS9nOaJi-WGjC1WMS4wIiwibWVyY2hhbnRSYW5nZSI6MSwidXNlcm5hbWUiOiJBRE1pbiJ9LCJzdWIiOiI2NTkzNzQ2OTAxMzUzMDgyODgzIiwiZXhwIjoxNjIxMDYxNzg0fQ.UbtUGGKQQqbDqJjU0hhXHCmHGo7zkVH9vbZfH4KzDjqYXqRLTMDXvpDMnYmYJSPeOyNOa-33nVR5nND8YrIsZg"}</t>
         </is>
       </c>
       <c r="F8" s="3" t="inlineStr">
@@ -1443,7 +1449,7 @@
       </c>
       <c r="E9" s="0" t="inlineStr">
         <is>
-          <t>{"Authorization":"eyJhbGciOiJIUzUxMiJ9.eyJkYXRhIjp7ImZkZFRlbXBsYXRlSWQiOiJYWUZERDY3NzYwMzI2NTc1MzEyMzYzNTIiLCJpc1VwZGF0ZVB3ZCI6MCwibG9naW5UeXBlIjowLCJ1c2VyTG9naW5JZCI6NjU5Mzc0NjkwMTM1MzA4Mjg4MywibWVyY2hhbnRJZCI6IiIsInRhc2tVcmwiOiJodHRwczovL2Nkbi5sYXN0bWlsZXMuY24vYXBwcy82NzIyODEyMjM3NzQzNTk5NjE2LnBkZiIsInN5c05hbWUiOiLns7vnu5_mk43kvZzmiYvlhowtVjEuMCIsImlzTWFuYWdlciI6MSwiaXNBc3luY1JlcXVlc3QiOiJ0cnVlIiwic3lzVXJsIjoiaHR0cHM6Ly9jZG4ubGFzdG1pbGVzLmNuL2FwcHMvNjcyMjgxMTU2OTM5ODAzNDQzMi5wZGYiLCJ0YXNrTmFtZSI6IuWFheWAvOS7o-WPkeaTjeS9nOaJi-WGjC1WMS4wIiwibWVyY2hhbnRSYW5nZSI6MSwidXNlcm5hbWUiOiJBRE1pbiJ9LCJzdWIiOiI2NTkzNzQ2OTAxMzUzMDgyODgzIiwiZXhwIjoxNjIwOTcyOTU2fQ.qrrRlc0GQU2uhJBhSFTP0fcpGS-8Gg3BpdRmxecm1xygt6s2Qh5TvAXfMwIeFr1ha2iX51WfER1pdloxE_hl_A"}</t>
+          <t>{"Authorization":"eyJhbGciOiJIUzUxMiJ9.eyJkYXRhIjp7ImZkZFRlbXBsYXRlSWQiOiJYWUZERDY3NzYwMzI2NTc1MzEyMzYzNTIiLCJpc1VwZGF0ZVB3ZCI6MCwibG9naW5UeXBlIjowLCJ1c2VyTG9naW5JZCI6NjU5Mzc0NjkwMTM1MzA4Mjg4MywibWVyY2hhbnRJZCI6IiIsInRhc2tVcmwiOiJodHRwczovL2Nkbi5sYXN0bWlsZXMuY24vYXBwcy82NzIyODEyMjM3NzQzNTk5NjE2LnBkZiIsInN5c05hbWUiOiLns7vnu5_mk43kvZzmiYvlhowtVjEuMCIsImlzTWFuYWdlciI6MSwiaXNBc3luY1JlcXVlc3QiOiJ0cnVlIiwic3lzVXJsIjoiaHR0cHM6Ly9jZG4ubGFzdG1pbGVzLmNuL2FwcHMvNjcyMjgxMTU2OTM5ODAzNDQzMi5wZGYiLCJ0YXNrTmFtZSI6IuWFheWAvOS7o-WPkeaTjeS9nOaJi-WGjC1WMS4wIiwibWVyY2hhbnRSYW5nZSI6MSwidXNlcm5hbWUiOiJBRE1pbiJ9LCJzdWIiOiI2NTkzNzQ2OTAxMzUzMDgyODgzIiwiZXhwIjoxNjIxMDYxNzg0fQ.UbtUGGKQQqbDqJjU0hhXHCmHGo7zkVH9vbZfH4KzDjqYXqRLTMDXvpDMnYmYJSPeOyNOa-33nVR5nND8YrIsZg"}</t>
         </is>
       </c>
       <c r="F9" s="3" t="inlineStr">
@@ -1482,7 +1488,7 @@
       </c>
       <c r="E10" s="0" t="inlineStr">
         <is>
-          <t>{"Authorization":"eyJhbGciOiJIUzUxMiJ9.eyJkYXRhIjp7ImZkZFRlbXBsYXRlSWQiOiJYWUZERDY3NzYwMzI2NTc1MzEyMzYzNTIiLCJpc1VwZGF0ZVB3ZCI6MCwibG9naW5UeXBlIjowLCJ1c2VyTG9naW5JZCI6NjU5Mzc0NjkwMTM1MzA4Mjg4MywibWVyY2hhbnRJZCI6IiIsInRhc2tVcmwiOiJodHRwczovL2Nkbi5sYXN0bWlsZXMuY24vYXBwcy82NzIyODEyMjM3NzQzNTk5NjE2LnBkZiIsInN5c05hbWUiOiLns7vnu5_mk43kvZzmiYvlhowtVjEuMCIsImlzTWFuYWdlciI6MSwiaXNBc3luY1JlcXVlc3QiOiJ0cnVlIiwic3lzVXJsIjoiaHR0cHM6Ly9jZG4ubGFzdG1pbGVzLmNuL2FwcHMvNjcyMjgxMTU2OTM5ODAzNDQzMi5wZGYiLCJ0YXNrTmFtZSI6IuWFheWAvOS7o-WPkeaTjeS9nOaJi-WGjC1WMS4wIiwibWVyY2hhbnRSYW5nZSI6MSwidXNlcm5hbWUiOiJBRE1pbiJ9LCJzdWIiOiI2NTkzNzQ2OTAxMzUzMDgyODgzIiwiZXhwIjoxNjIwOTcyOTU2fQ.qrrRlc0GQU2uhJBhSFTP0fcpGS-8Gg3BpdRmxecm1xygt6s2Qh5TvAXfMwIeFr1ha2iX51WfER1pdloxE_hl_A"}</t>
+          <t>{"Authorization":"eyJhbGciOiJIUzUxMiJ9.eyJkYXRhIjp7ImZkZFRlbXBsYXRlSWQiOiJYWUZERDY3NzYwMzI2NTc1MzEyMzYzNTIiLCJpc1VwZGF0ZVB3ZCI6MCwibG9naW5UeXBlIjowLCJ1c2VyTG9naW5JZCI6NjU5Mzc0NjkwMTM1MzA4Mjg4MywibWVyY2hhbnRJZCI6IiIsInRhc2tVcmwiOiJodHRwczovL2Nkbi5sYXN0bWlsZXMuY24vYXBwcy82NzIyODEyMjM3NzQzNTk5NjE2LnBkZiIsInN5c05hbWUiOiLns7vnu5_mk43kvZzmiYvlhowtVjEuMCIsImlzTWFuYWdlciI6MSwiaXNBc3luY1JlcXVlc3QiOiJ0cnVlIiwic3lzVXJsIjoiaHR0cHM6Ly9jZG4ubGFzdG1pbGVzLmNuL2FwcHMvNjcyMjgxMTU2OTM5ODAzNDQzMi5wZGYiLCJ0YXNrTmFtZSI6IuWFheWAvOS7o-WPkeaTjeS9nOaJi-WGjC1WMS4wIiwibWVyY2hhbnRSYW5nZSI6MSwidXNlcm5hbWUiOiJBRE1pbiJ9LCJzdWIiOiI2NTkzNzQ2OTAxMzUzMDgyODgzIiwiZXhwIjoxNjIxMDYxNzg0fQ.UbtUGGKQQqbDqJjU0hhXHCmHGo7zkVH9vbZfH4KzDjqYXqRLTMDXvpDMnYmYJSPeOyNOa-33nVR5nND8YrIsZg"}</t>
         </is>
       </c>
       <c r="G10" s="3" t="inlineStr">

--- a/config/测试结果表格.xlsx
+++ b/config/测试结果表格.xlsx
@@ -1174,7 +1174,7 @@
       </c>
       <c r="E2" s="0" t="inlineStr">
         <is>
-          <t>{"Authorization":"eyJhbGciOiJIUzUxMiJ9.eyJkYXRhIjp7ImZkZFRlbXBsYXRlSWQiOiJYWUZERDY3NzYwMzI2NTc1MzEyMzYzNTIiLCJpc1VwZGF0ZVB3ZCI6MCwibG9naW5UeXBlIjowLCJ1c2VyTG9naW5JZCI6NjU5Mzc0NjkwMTM1MzA4Mjg4MywibWVyY2hhbnRJZCI6IiIsInRhc2tVcmwiOiJodHRwczovL2Nkbi5sYXN0bWlsZXMuY24vYXBwcy82NzIyODEyMjM3NzQzNTk5NjE2LnBkZiIsInN5c05hbWUiOiLns7vnu5_mk43kvZzmiYvlhowtVjEuMCIsImlzTWFuYWdlciI6MSwiaXNBc3luY1JlcXVlc3QiOiJ0cnVlIiwic3lzVXJsIjoiaHR0cHM6Ly9jZG4ubGFzdG1pbGVzLmNuL2FwcHMvNjcyMjgxMTU2OTM5ODAzNDQzMi5wZGYiLCJ0YXNrTmFtZSI6IuWFheWAvOS7o-WPkeaTjeS9nOaJi-WGjC1WMS4wIiwibWVyY2hhbnRSYW5nZSI6MSwidXNlcm5hbWUiOiJBRE1pbiJ9LCJzdWIiOiI2NTkzNzQ2OTAxMzUzMDgyODgzIiwiZXhwIjoxNjIxMDYxNzg0fQ.UbtUGGKQQqbDqJjU0hhXHCmHGo7zkVH9vbZfH4KzDjqYXqRLTMDXvpDMnYmYJSPeOyNOa-33nVR5nND8YrIsZg"}</t>
+          <t>{"Authorization":"eyJhbGciOiJIUzUxMiJ9.eyJkYXRhIjp7ImZkZFRlbXBsYXRlSWQiOiJYWUZERDY3NzYwMzI2NTc1MzEyMzYzNTIiLCJpc1VwZGF0ZVB3ZCI6MCwibG9naW5UeXBlIjowLCJ1c2VyTG9naW5JZCI6NjU5Mzc0NjkwMTM1MzA4Mjg4MywibWVyY2hhbnRJZCI6IiIsInRhc2tVcmwiOiJodHRwczovL2Nkbi5sYXN0bWlsZXMuY24vYXBwcy82NzIyODEyMjM3NzQzNTk5NjE2LnBkZiIsInN5c05hbWUiOiLns7vnu5_mk43kvZzmiYvlhowtVjEuMCIsImlzTWFuYWdlciI6MSwiaXNBc3luY1JlcXVlc3QiOiJ0cnVlIiwic3lzVXJsIjoiaHR0cHM6Ly9jZG4ubGFzdG1pbGVzLmNuL2FwcHMvNjcyMjgxMTU2OTM5ODAzNDQzMi5wZGYiLCJ0YXNrTmFtZSI6IuWFheWAvOS7o-WPkeaTjeS9nOaJi-WGjC1WMS4wIiwibWVyY2hhbnRSYW5nZSI6MSwidXNlcm5hbWUiOiJBRE1pbiJ9LCJzdWIiOiI2NTkzNzQ2OTAxMzUzMDgyODgzIiwiZXhwIjoxNjIxMjIwMzQwfQ.tl_Ow8IiwGBaJMLTzgznR07p8D9wElVof3opocSAQR9kWKUdnoFL6vRMxczQxt-l6inRywWg1DWwQnrwIch0Ng"}</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -1197,8 +1197,6 @@
           <t>bin</t>
         </is>
       </c>
-      <c r="L2" s="2" t="n"/>
-      <c r="M2" s="2" t="n"/>
       <c r="N2" s="6" t="n"/>
       <c r="O2" s="6" t="n"/>
     </row>
@@ -1225,7 +1223,7 @@
       </c>
       <c r="E3" s="0" t="inlineStr">
         <is>
-          <t>{"Authorization":"eyJhbGciOiJIUzUxMiJ9.eyJkYXRhIjp7ImZkZFRlbXBsYXRlSWQiOiJYWUZERDY3NzYwMzI2NTc1MzEyMzYzNTIiLCJpc1VwZGF0ZVB3ZCI6MCwibG9naW5UeXBlIjowLCJ1c2VyTG9naW5JZCI6NjU5Mzc0NjkwMTM1MzA4Mjg4MywibWVyY2hhbnRJZCI6IiIsInRhc2tVcmwiOiJodHRwczovL2Nkbi5sYXN0bWlsZXMuY24vYXBwcy82NzIyODEyMjM3NzQzNTk5NjE2LnBkZiIsInN5c05hbWUiOiLns7vnu5_mk43kvZzmiYvlhowtVjEuMCIsImlzTWFuYWdlciI6MSwiaXNBc3luY1JlcXVlc3QiOiJ0cnVlIiwic3lzVXJsIjoiaHR0cHM6Ly9jZG4ubGFzdG1pbGVzLmNuL2FwcHMvNjcyMjgxMTU2OTM5ODAzNDQzMi5wZGYiLCJ0YXNrTmFtZSI6IuWFheWAvOS7o-WPkeaTjeS9nOaJi-WGjC1WMS4wIiwibWVyY2hhbnRSYW5nZSI6MSwidXNlcm5hbWUiOiJBRE1pbiJ9LCJzdWIiOiI2NTkzNzQ2OTAxMzUzMDgyODgzIiwiZXhwIjoxNjIxMDYxNzg0fQ.UbtUGGKQQqbDqJjU0hhXHCmHGo7zkVH9vbZfH4KzDjqYXqRLTMDXvpDMnYmYJSPeOyNOa-33nVR5nND8YrIsZg"}</t>
+          <t>{"Authorization":"eyJhbGciOiJIUzUxMiJ9.eyJkYXRhIjp7ImZkZFRlbXBsYXRlSWQiOiJYWUZERDY3NzYwMzI2NTc1MzEyMzYzNTIiLCJpc1VwZGF0ZVB3ZCI6MCwibG9naW5UeXBlIjowLCJ1c2VyTG9naW5JZCI6NjU5Mzc0NjkwMTM1MzA4Mjg4MywibWVyY2hhbnRJZCI6IiIsInRhc2tVcmwiOiJodHRwczovL2Nkbi5sYXN0bWlsZXMuY24vYXBwcy82NzIyODEyMjM3NzQzNTk5NjE2LnBkZiIsInN5c05hbWUiOiLns7vnu5_mk43kvZzmiYvlhowtVjEuMCIsImlzTWFuYWdlciI6MSwiaXNBc3luY1JlcXVlc3QiOiJ0cnVlIiwic3lzVXJsIjoiaHR0cHM6Ly9jZG4ubGFzdG1pbGVzLmNuL2FwcHMvNjcyMjgxMTU2OTM5ODAzNDQzMi5wZGYiLCJ0YXNrTmFtZSI6IuWFheWAvOS7o-WPkeaTjeS9nOaJi-WGjC1WMS4wIiwibWVyY2hhbnRSYW5nZSI6MSwidXNlcm5hbWUiOiJBRE1pbiJ9LCJzdWIiOiI2NTkzNzQ2OTAxMzUzMDgyODgzIiwiZXhwIjoxNjIxMjIwMzQwfQ.tl_Ow8IiwGBaJMLTzgznR07p8D9wElVof3opocSAQR9kWKUdnoFL6vRMxczQxt-l6inRywWg1DWwQnrwIch0Ng"}</t>
         </is>
       </c>
       <c r="F3" s="3" t="inlineStr">
@@ -1264,7 +1262,7 @@
       </c>
       <c r="E4" s="0" t="inlineStr">
         <is>
-          <t>{"Authorization":"eyJhbGciOiJIUzUxMiJ9.eyJkYXRhIjp7ImZkZFRlbXBsYXRlSWQiOiJYWUZERDY3NzYwMzI2NTc1MzEyMzYzNTIiLCJpc1VwZGF0ZVB3ZCI6MCwibG9naW5UeXBlIjowLCJ1c2VyTG9naW5JZCI6NjU5Mzc0NjkwMTM1MzA4Mjg4MywibWVyY2hhbnRJZCI6IiIsInRhc2tVcmwiOiJodHRwczovL2Nkbi5sYXN0bWlsZXMuY24vYXBwcy82NzIyODEyMjM3NzQzNTk5NjE2LnBkZiIsInN5c05hbWUiOiLns7vnu5_mk43kvZzmiYvlhowtVjEuMCIsImlzTWFuYWdlciI6MSwiaXNBc3luY1JlcXVlc3QiOiJ0cnVlIiwic3lzVXJsIjoiaHR0cHM6Ly9jZG4ubGFzdG1pbGVzLmNuL2FwcHMvNjcyMjgxMTU2OTM5ODAzNDQzMi5wZGYiLCJ0YXNrTmFtZSI6IuWFheWAvOS7o-WPkeaTjeS9nOaJi-WGjC1WMS4wIiwibWVyY2hhbnRSYW5nZSI6MSwidXNlcm5hbWUiOiJBRE1pbiJ9LCJzdWIiOiI2NTkzNzQ2OTAxMzUzMDgyODgzIiwiZXhwIjoxNjIxMDYxNzg0fQ.UbtUGGKQQqbDqJjU0hhXHCmHGo7zkVH9vbZfH4KzDjqYXqRLTMDXvpDMnYmYJSPeOyNOa-33nVR5nND8YrIsZg"}</t>
+          <t>{"Authorization":"eyJhbGciOiJIUzUxMiJ9.eyJkYXRhIjp7ImZkZFRlbXBsYXRlSWQiOiJYWUZERDY3NzYwMzI2NTc1MzEyMzYzNTIiLCJpc1VwZGF0ZVB3ZCI6MCwibG9naW5UeXBlIjowLCJ1c2VyTG9naW5JZCI6NjU5Mzc0NjkwMTM1MzA4Mjg4MywibWVyY2hhbnRJZCI6IiIsInRhc2tVcmwiOiJodHRwczovL2Nkbi5sYXN0bWlsZXMuY24vYXBwcy82NzIyODEyMjM3NzQzNTk5NjE2LnBkZiIsInN5c05hbWUiOiLns7vnu5_mk43kvZzmiYvlhowtVjEuMCIsImlzTWFuYWdlciI6MSwiaXNBc3luY1JlcXVlc3QiOiJ0cnVlIiwic3lzVXJsIjoiaHR0cHM6Ly9jZG4ubGFzdG1pbGVzLmNuL2FwcHMvNjcyMjgxMTU2OTM5ODAzNDQzMi5wZGYiLCJ0YXNrTmFtZSI6IuWFheWAvOS7o-WPkeaTjeS9nOaJi-WGjC1WMS4wIiwibWVyY2hhbnRSYW5nZSI6MSwidXNlcm5hbWUiOiJBRE1pbiJ9LCJzdWIiOiI2NTkzNzQ2OTAxMzUzMDgyODgzIiwiZXhwIjoxNjIxMjIwMzQwfQ.tl_Ow8IiwGBaJMLTzgznR07p8D9wElVof3opocSAQR9kWKUdnoFL6vRMxczQxt-l6inRywWg1DWwQnrwIch0Ng"}</t>
         </is>
       </c>
       <c r="F4" s="3" t="inlineStr">
@@ -1301,7 +1299,7 @@
       </c>
       <c r="E5" s="0" t="inlineStr">
         <is>
-          <t>{"Authorization":"eyJhbGciOiJIUzUxMiJ9.eyJkYXRhIjp7ImZkZFRlbXBsYXRlSWQiOiJYWUZERDY3NzYwMzI2NTc1MzEyMzYzNTIiLCJpc1VwZGF0ZVB3ZCI6MCwibG9naW5UeXBlIjowLCJ1c2VyTG9naW5JZCI6NjU5Mzc0NjkwMTM1MzA4Mjg4MywibWVyY2hhbnRJZCI6IiIsInRhc2tVcmwiOiJodHRwczovL2Nkbi5sYXN0bWlsZXMuY24vYXBwcy82NzIyODEyMjM3NzQzNTk5NjE2LnBkZiIsInN5c05hbWUiOiLns7vnu5_mk43kvZzmiYvlhowtVjEuMCIsImlzTWFuYWdlciI6MSwiaXNBc3luY1JlcXVlc3QiOiJ0cnVlIiwic3lzVXJsIjoiaHR0cHM6Ly9jZG4ubGFzdG1pbGVzLmNuL2FwcHMvNjcyMjgxMTU2OTM5ODAzNDQzMi5wZGYiLCJ0YXNrTmFtZSI6IuWFheWAvOS7o-WPkeaTjeS9nOaJi-WGjC1WMS4wIiwibWVyY2hhbnRSYW5nZSI6MSwidXNlcm5hbWUiOiJBRE1pbiJ9LCJzdWIiOiI2NTkzNzQ2OTAxMzUzMDgyODgzIiwiZXhwIjoxNjIxMDYxNzg0fQ.UbtUGGKQQqbDqJjU0hhXHCmHGo7zkVH9vbZfH4KzDjqYXqRLTMDXvpDMnYmYJSPeOyNOa-33nVR5nND8YrIsZg"}</t>
+          <t>{"Authorization":"eyJhbGciOiJIUzUxMiJ9.eyJkYXRhIjp7ImZkZFRlbXBsYXRlSWQiOiJYWUZERDY3NzYwMzI2NTc1MzEyMzYzNTIiLCJpc1VwZGF0ZVB3ZCI6MCwibG9naW5UeXBlIjowLCJ1c2VyTG9naW5JZCI6NjU5Mzc0NjkwMTM1MzA4Mjg4MywibWVyY2hhbnRJZCI6IiIsInRhc2tVcmwiOiJodHRwczovL2Nkbi5sYXN0bWlsZXMuY24vYXBwcy82NzIyODEyMjM3NzQzNTk5NjE2LnBkZiIsInN5c05hbWUiOiLns7vnu5_mk43kvZzmiYvlhowtVjEuMCIsImlzTWFuYWdlciI6MSwiaXNBc3luY1JlcXVlc3QiOiJ0cnVlIiwic3lzVXJsIjoiaHR0cHM6Ly9jZG4ubGFzdG1pbGVzLmNuL2FwcHMvNjcyMjgxMTU2OTM5ODAzNDQzMi5wZGYiLCJ0YXNrTmFtZSI6IuWFheWAvOS7o-WPkeaTjeS9nOaJi-WGjC1WMS4wIiwibWVyY2hhbnRSYW5nZSI6MSwidXNlcm5hbWUiOiJBRE1pbiJ9LCJzdWIiOiI2NTkzNzQ2OTAxMzUzMDgyODgzIiwiZXhwIjoxNjIxMjIwMzQwfQ.tl_Ow8IiwGBaJMLTzgznR07p8D9wElVof3opocSAQR9kWKUdnoFL6vRMxczQxt-l6inRywWg1DWwQnrwIch0Ng"}</t>
         </is>
       </c>
       <c r="F5" s="3" t="inlineStr">
@@ -1338,7 +1336,7 @@
       </c>
       <c r="E6" s="0" t="inlineStr">
         <is>
-          <t>{"Authorization":"eyJhbGciOiJIUzUxMiJ9.eyJkYXRhIjp7ImZkZFRlbXBsYXRlSWQiOiJYWUZERDY3NzYwMzI2NTc1MzEyMzYzNTIiLCJpc1VwZGF0ZVB3ZCI6MCwibG9naW5UeXBlIjowLCJ1c2VyTG9naW5JZCI6NjU5Mzc0NjkwMTM1MzA4Mjg4MywibWVyY2hhbnRJZCI6IiIsInRhc2tVcmwiOiJodHRwczovL2Nkbi5sYXN0bWlsZXMuY24vYXBwcy82NzIyODEyMjM3NzQzNTk5NjE2LnBkZiIsInN5c05hbWUiOiLns7vnu5_mk43kvZzmiYvlhowtVjEuMCIsImlzTWFuYWdlciI6MSwiaXNBc3luY1JlcXVlc3QiOiJ0cnVlIiwic3lzVXJsIjoiaHR0cHM6Ly9jZG4ubGFzdG1pbGVzLmNuL2FwcHMvNjcyMjgxMTU2OTM5ODAzNDQzMi5wZGYiLCJ0YXNrTmFtZSI6IuWFheWAvOS7o-WPkeaTjeS9nOaJi-WGjC1WMS4wIiwibWVyY2hhbnRSYW5nZSI6MSwidXNlcm5hbWUiOiJBRE1pbiJ9LCJzdWIiOiI2NTkzNzQ2OTAxMzUzMDgyODgzIiwiZXhwIjoxNjIxMDYxNzg0fQ.UbtUGGKQQqbDqJjU0hhXHCmHGo7zkVH9vbZfH4KzDjqYXqRLTMDXvpDMnYmYJSPeOyNOa-33nVR5nND8YrIsZg"}</t>
+          <t>{"Authorization":"eyJhbGciOiJIUzUxMiJ9.eyJkYXRhIjp7ImZkZFRlbXBsYXRlSWQiOiJYWUZERDY3NzYwMzI2NTc1MzEyMzYzNTIiLCJpc1VwZGF0ZVB3ZCI6MCwibG9naW5UeXBlIjowLCJ1c2VyTG9naW5JZCI6NjU5Mzc0NjkwMTM1MzA4Mjg4MywibWVyY2hhbnRJZCI6IiIsInRhc2tVcmwiOiJodHRwczovL2Nkbi5sYXN0bWlsZXMuY24vYXBwcy82NzIyODEyMjM3NzQzNTk5NjE2LnBkZiIsInN5c05hbWUiOiLns7vnu5_mk43kvZzmiYvlhowtVjEuMCIsImlzTWFuYWdlciI6MSwiaXNBc3luY1JlcXVlc3QiOiJ0cnVlIiwic3lzVXJsIjoiaHR0cHM6Ly9jZG4ubGFzdG1pbGVzLmNuL2FwcHMvNjcyMjgxMTU2OTM5ODAzNDQzMi5wZGYiLCJ0YXNrTmFtZSI6IuWFheWAvOS7o-WPkeaTjeS9nOaJi-WGjC1WMS4wIiwibWVyY2hhbnRSYW5nZSI6MSwidXNlcm5hbWUiOiJBRE1pbiJ9LCJzdWIiOiI2NTkzNzQ2OTAxMzUzMDgyODgzIiwiZXhwIjoxNjIxMjIwMzQwfQ.tl_Ow8IiwGBaJMLTzgznR07p8D9wElVof3opocSAQR9kWKUdnoFL6vRMxczQxt-l6inRywWg1DWwQnrwIch0Ng"}</t>
         </is>
       </c>
       <c r="F6" s="3" t="inlineStr">
@@ -1375,7 +1373,7 @@
       </c>
       <c r="E7" s="0" t="inlineStr">
         <is>
-          <t>{"Authorization":"eyJhbGciOiJIUzUxMiJ9.eyJkYXRhIjp7ImZkZFRlbXBsYXRlSWQiOiJYWUZERDY3NzYwMzI2NTc1MzEyMzYzNTIiLCJpc1VwZGF0ZVB3ZCI6MCwibG9naW5UeXBlIjowLCJ1c2VyTG9naW5JZCI6NjU5Mzc0NjkwMTM1MzA4Mjg4MywibWVyY2hhbnRJZCI6IiIsInRhc2tVcmwiOiJodHRwczovL2Nkbi5sYXN0bWlsZXMuY24vYXBwcy82NzIyODEyMjM3NzQzNTk5NjE2LnBkZiIsInN5c05hbWUiOiLns7vnu5_mk43kvZzmiYvlhowtVjEuMCIsImlzTWFuYWdlciI6MSwiaXNBc3luY1JlcXVlc3QiOiJ0cnVlIiwic3lzVXJsIjoiaHR0cHM6Ly9jZG4ubGFzdG1pbGVzLmNuL2FwcHMvNjcyMjgxMTU2OTM5ODAzNDQzMi5wZGYiLCJ0YXNrTmFtZSI6IuWFheWAvOS7o-WPkeaTjeS9nOaJi-WGjC1WMS4wIiwibWVyY2hhbnRSYW5nZSI6MSwidXNlcm5hbWUiOiJBRE1pbiJ9LCJzdWIiOiI2NTkzNzQ2OTAxMzUzMDgyODgzIiwiZXhwIjoxNjIxMDYxNzg0fQ.UbtUGGKQQqbDqJjU0hhXHCmHGo7zkVH9vbZfH4KzDjqYXqRLTMDXvpDMnYmYJSPeOyNOa-33nVR5nND8YrIsZg"}</t>
+          <t>{"Authorization":"eyJhbGciOiJIUzUxMiJ9.eyJkYXRhIjp7ImZkZFRlbXBsYXRlSWQiOiJYWUZERDY3NzYwMzI2NTc1MzEyMzYzNTIiLCJpc1VwZGF0ZVB3ZCI6MCwibG9naW5UeXBlIjowLCJ1c2VyTG9naW5JZCI6NjU5Mzc0NjkwMTM1MzA4Mjg4MywibWVyY2hhbnRJZCI6IiIsInRhc2tVcmwiOiJodHRwczovL2Nkbi5sYXN0bWlsZXMuY24vYXBwcy82NzIyODEyMjM3NzQzNTk5NjE2LnBkZiIsInN5c05hbWUiOiLns7vnu5_mk43kvZzmiYvlhowtVjEuMCIsImlzTWFuYWdlciI6MSwiaXNBc3luY1JlcXVlc3QiOiJ0cnVlIiwic3lzVXJsIjoiaHR0cHM6Ly9jZG4ubGFzdG1pbGVzLmNuL2FwcHMvNjcyMjgxMTU2OTM5ODAzNDQzMi5wZGYiLCJ0YXNrTmFtZSI6IuWFheWAvOS7o-WPkeaTjeS9nOaJi-WGjC1WMS4wIiwibWVyY2hhbnRSYW5nZSI6MSwidXNlcm5hbWUiOiJBRE1pbiJ9LCJzdWIiOiI2NTkzNzQ2OTAxMzUzMDgyODgzIiwiZXhwIjoxNjIxMjIwMzQwfQ.tl_Ow8IiwGBaJMLTzgznR07p8D9wElVof3opocSAQR9kWKUdnoFL6vRMxczQxt-l6inRywWg1DWwQnrwIch0Ng"}</t>
         </is>
       </c>
       <c r="F7" s="3" t="inlineStr">
@@ -1412,7 +1410,7 @@
       </c>
       <c r="E8" s="0" t="inlineStr">
         <is>
-          <t>{"Authorization":"eyJhbGciOiJIUzUxMiJ9.eyJkYXRhIjp7ImZkZFRlbXBsYXRlSWQiOiJYWUZERDY3NzYwMzI2NTc1MzEyMzYzNTIiLCJpc1VwZGF0ZVB3ZCI6MCwibG9naW5UeXBlIjowLCJ1c2VyTG9naW5JZCI6NjU5Mzc0NjkwMTM1MzA4Mjg4MywibWVyY2hhbnRJZCI6IiIsInRhc2tVcmwiOiJodHRwczovL2Nkbi5sYXN0bWlsZXMuY24vYXBwcy82NzIyODEyMjM3NzQzNTk5NjE2LnBkZiIsInN5c05hbWUiOiLns7vnu5_mk43kvZzmiYvlhowtVjEuMCIsImlzTWFuYWdlciI6MSwiaXNBc3luY1JlcXVlc3QiOiJ0cnVlIiwic3lzVXJsIjoiaHR0cHM6Ly9jZG4ubGFzdG1pbGVzLmNuL2FwcHMvNjcyMjgxMTU2OTM5ODAzNDQzMi5wZGYiLCJ0YXNrTmFtZSI6IuWFheWAvOS7o-WPkeaTjeS9nOaJi-WGjC1WMS4wIiwibWVyY2hhbnRSYW5nZSI6MSwidXNlcm5hbWUiOiJBRE1pbiJ9LCJzdWIiOiI2NTkzNzQ2OTAxMzUzMDgyODgzIiwiZXhwIjoxNjIxMDYxNzg0fQ.UbtUGGKQQqbDqJjU0hhXHCmHGo7zkVH9vbZfH4KzDjqYXqRLTMDXvpDMnYmYJSPeOyNOa-33nVR5nND8YrIsZg"}</t>
+          <t>{"Authorization":"eyJhbGciOiJIUzUxMiJ9.eyJkYXRhIjp7ImZkZFRlbXBsYXRlSWQiOiJYWUZERDY3NzYwMzI2NTc1MzEyMzYzNTIiLCJpc1VwZGF0ZVB3ZCI6MCwibG9naW5UeXBlIjowLCJ1c2VyTG9naW5JZCI6NjU5Mzc0NjkwMTM1MzA4Mjg4MywibWVyY2hhbnRJZCI6IiIsInRhc2tVcmwiOiJodHRwczovL2Nkbi5sYXN0bWlsZXMuY24vYXBwcy82NzIyODEyMjM3NzQzNTk5NjE2LnBkZiIsInN5c05hbWUiOiLns7vnu5_mk43kvZzmiYvlhowtVjEuMCIsImlzTWFuYWdlciI6MSwiaXNBc3luY1JlcXVlc3QiOiJ0cnVlIiwic3lzVXJsIjoiaHR0cHM6Ly9jZG4ubGFzdG1pbGVzLmNuL2FwcHMvNjcyMjgxMTU2OTM5ODAzNDQzMi5wZGYiLCJ0YXNrTmFtZSI6IuWFheWAvOS7o-WPkeaTjeS9nOaJi-WGjC1WMS4wIiwibWVyY2hhbnRSYW5nZSI6MSwidXNlcm5hbWUiOiJBRE1pbiJ9LCJzdWIiOiI2NTkzNzQ2OTAxMzUzMDgyODgzIiwiZXhwIjoxNjIxMjIwMzQwfQ.tl_Ow8IiwGBaJMLTzgznR07p8D9wElVof3opocSAQR9kWKUdnoFL6vRMxczQxt-l6inRywWg1DWwQnrwIch0Ng"}</t>
         </is>
       </c>
       <c r="F8" s="3" t="inlineStr">
@@ -1449,7 +1447,7 @@
       </c>
       <c r="E9" s="0" t="inlineStr">
         <is>
-          <t>{"Authorization":"eyJhbGciOiJIUzUxMiJ9.eyJkYXRhIjp7ImZkZFRlbXBsYXRlSWQiOiJYWUZERDY3NzYwMzI2NTc1MzEyMzYzNTIiLCJpc1VwZGF0ZVB3ZCI6MCwibG9naW5UeXBlIjowLCJ1c2VyTG9naW5JZCI6NjU5Mzc0NjkwMTM1MzA4Mjg4MywibWVyY2hhbnRJZCI6IiIsInRhc2tVcmwiOiJodHRwczovL2Nkbi5sYXN0bWlsZXMuY24vYXBwcy82NzIyODEyMjM3NzQzNTk5NjE2LnBkZiIsInN5c05hbWUiOiLns7vnu5_mk43kvZzmiYvlhowtVjEuMCIsImlzTWFuYWdlciI6MSwiaXNBc3luY1JlcXVlc3QiOiJ0cnVlIiwic3lzVXJsIjoiaHR0cHM6Ly9jZG4ubGFzdG1pbGVzLmNuL2FwcHMvNjcyMjgxMTU2OTM5ODAzNDQzMi5wZGYiLCJ0YXNrTmFtZSI6IuWFheWAvOS7o-WPkeaTjeS9nOaJi-WGjC1WMS4wIiwibWVyY2hhbnRSYW5nZSI6MSwidXNlcm5hbWUiOiJBRE1pbiJ9LCJzdWIiOiI2NTkzNzQ2OTAxMzUzMDgyODgzIiwiZXhwIjoxNjIxMDYxNzg0fQ.UbtUGGKQQqbDqJjU0hhXHCmHGo7zkVH9vbZfH4KzDjqYXqRLTMDXvpDMnYmYJSPeOyNOa-33nVR5nND8YrIsZg"}</t>
+          <t>{"Authorization":"eyJhbGciOiJIUzUxMiJ9.eyJkYXRhIjp7ImZkZFRlbXBsYXRlSWQiOiJYWUZERDY3NzYwMzI2NTc1MzEyMzYzNTIiLCJpc1VwZGF0ZVB3ZCI6MCwibG9naW5UeXBlIjowLCJ1c2VyTG9naW5JZCI6NjU5Mzc0NjkwMTM1MzA4Mjg4MywibWVyY2hhbnRJZCI6IiIsInRhc2tVcmwiOiJodHRwczovL2Nkbi5sYXN0bWlsZXMuY24vYXBwcy82NzIyODEyMjM3NzQzNTk5NjE2LnBkZiIsInN5c05hbWUiOiLns7vnu5_mk43kvZzmiYvlhowtVjEuMCIsImlzTWFuYWdlciI6MSwiaXNBc3luY1JlcXVlc3QiOiJ0cnVlIiwic3lzVXJsIjoiaHR0cHM6Ly9jZG4ubGFzdG1pbGVzLmNuL2FwcHMvNjcyMjgxMTU2OTM5ODAzNDQzMi5wZGYiLCJ0YXNrTmFtZSI6IuWFheWAvOS7o-WPkeaTjeS9nOaJi-WGjC1WMS4wIiwibWVyY2hhbnRSYW5nZSI6MSwidXNlcm5hbWUiOiJBRE1pbiJ9LCJzdWIiOiI2NTkzNzQ2OTAxMzUzMDgyODgzIiwiZXhwIjoxNjIxMjIwMzQwfQ.tl_Ow8IiwGBaJMLTzgznR07p8D9wElVof3opocSAQR9kWKUdnoFL6vRMxczQxt-l6inRywWg1DWwQnrwIch0Ng"}</t>
         </is>
       </c>
       <c r="F9" s="3" t="inlineStr">
@@ -1488,7 +1486,7 @@
       </c>
       <c r="E10" s="0" t="inlineStr">
         <is>
-          <t>{"Authorization":"eyJhbGciOiJIUzUxMiJ9.eyJkYXRhIjp7ImZkZFRlbXBsYXRlSWQiOiJYWUZERDY3NzYwMzI2NTc1MzEyMzYzNTIiLCJpc1VwZGF0ZVB3ZCI6MCwibG9naW5UeXBlIjowLCJ1c2VyTG9naW5JZCI6NjU5Mzc0NjkwMTM1MzA4Mjg4MywibWVyY2hhbnRJZCI6IiIsInRhc2tVcmwiOiJodHRwczovL2Nkbi5sYXN0bWlsZXMuY24vYXBwcy82NzIyODEyMjM3NzQzNTk5NjE2LnBkZiIsInN5c05hbWUiOiLns7vnu5_mk43kvZzmiYvlhowtVjEuMCIsImlzTWFuYWdlciI6MSwiaXNBc3luY1JlcXVlc3QiOiJ0cnVlIiwic3lzVXJsIjoiaHR0cHM6Ly9jZG4ubGFzdG1pbGVzLmNuL2FwcHMvNjcyMjgxMTU2OTM5ODAzNDQzMi5wZGYiLCJ0YXNrTmFtZSI6IuWFheWAvOS7o-WPkeaTjeS9nOaJi-WGjC1WMS4wIiwibWVyY2hhbnRSYW5nZSI6MSwidXNlcm5hbWUiOiJBRE1pbiJ9LCJzdWIiOiI2NTkzNzQ2OTAxMzUzMDgyODgzIiwiZXhwIjoxNjIxMDYxNzg0fQ.UbtUGGKQQqbDqJjU0hhXHCmHGo7zkVH9vbZfH4KzDjqYXqRLTMDXvpDMnYmYJSPeOyNOa-33nVR5nND8YrIsZg"}</t>
+          <t>{"Authorization":"eyJhbGciOiJIUzUxMiJ9.eyJkYXRhIjp7ImZkZFRlbXBsYXRlSWQiOiJYWUZERDY3NzYwMzI2NTc1MzEyMzYzNTIiLCJpc1VwZGF0ZVB3ZCI6MCwibG9naW5UeXBlIjowLCJ1c2VyTG9naW5JZCI6NjU5Mzc0NjkwMTM1MzA4Mjg4MywibWVyY2hhbnRJZCI6IiIsInRhc2tVcmwiOiJodHRwczovL2Nkbi5sYXN0bWlsZXMuY24vYXBwcy82NzIyODEyMjM3NzQzNTk5NjE2LnBkZiIsInN5c05hbWUiOiLns7vnu5_mk43kvZzmiYvlhowtVjEuMCIsImlzTWFuYWdlciI6MSwiaXNBc3luY1JlcXVlc3QiOiJ0cnVlIiwic3lzVXJsIjoiaHR0cHM6Ly9jZG4ubGFzdG1pbGVzLmNuL2FwcHMvNjcyMjgxMTU2OTM5ODAzNDQzMi5wZGYiLCJ0YXNrTmFtZSI6IuWFheWAvOS7o-WPkeaTjeS9nOaJi-WGjC1WMS4wIiwibWVyY2hhbnRSYW5nZSI6MSwidXNlcm5hbWUiOiJBRE1pbiJ9LCJzdWIiOiI2NTkzNzQ2OTAxMzUzMDgyODgzIiwiZXhwIjoxNjIxMjIwMzQwfQ.tl_Ow8IiwGBaJMLTzgznR07p8D9wElVof3opocSAQR9kWKUdnoFL6vRMxczQxt-l6inRywWg1DWwQnrwIch0Ng"}</t>
         </is>
       </c>
       <c r="G10" s="3" t="inlineStr">

--- a/config/测试结果表格.xlsx
+++ b/config/测试结果表格.xlsx
@@ -18,7 +18,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="24">
+  <fonts count="23">
     <font>
       <name val="宋体"/>
       <charset val="134"/>
@@ -184,11 +184,6 @@
       <color rgb="FF006100"/>
       <sz val="11"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <b val="1"/>
-      <color rgb="0000ff00"/>
     </font>
     <font>
       <name val="宋体"/>
@@ -646,7 +641,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -667,7 +662,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1174,7 +1168,7 @@
       </c>
       <c r="E2" s="0" t="inlineStr">
         <is>
-          <t>{"Authorization":"eyJhbGciOiJIUzUxMiJ9.eyJkYXRhIjp7ImZkZFRlbXBsYXRlSWQiOiJYWUZERDY3NzYwMzI2NTc1MzEyMzYzNTIiLCJpc1VwZGF0ZVB3ZCI6MCwibG9naW5UeXBlIjowLCJ1c2VyTG9naW5JZCI6NjU5Mzc0NjkwMTM1MzA4Mjg4MywibWVyY2hhbnRJZCI6IiIsInRhc2tVcmwiOiJodHRwczovL2Nkbi5sYXN0bWlsZXMuY24vYXBwcy82NzIyODEyMjM3NzQzNTk5NjE2LnBkZiIsInN5c05hbWUiOiLns7vnu5_mk43kvZzmiYvlhowtVjEuMCIsImlzTWFuYWdlciI6MSwiaXNBc3luY1JlcXVlc3QiOiJ0cnVlIiwic3lzVXJsIjoiaHR0cHM6Ly9jZG4ubGFzdG1pbGVzLmNuL2FwcHMvNjcyMjgxMTU2OTM5ODAzNDQzMi5wZGYiLCJ0YXNrTmFtZSI6IuWFheWAvOS7o-WPkeaTjeS9nOaJi-WGjC1WMS4wIiwibWVyY2hhbnRSYW5nZSI6MSwidXNlcm5hbWUiOiJBRE1pbiJ9LCJzdWIiOiI2NTkzNzQ2OTAxMzUzMDgyODgzIiwiZXhwIjoxNjIxMjIwMzQwfQ.tl_Ow8IiwGBaJMLTzgznR07p8D9wElVof3opocSAQR9kWKUdnoFL6vRMxczQxt-l6inRywWg1DWwQnrwIch0Ng"}</t>
+          <t>{"Authorization":"eyJhbGciOiJIUzUxMiJ9.eyJkYXRhIjp7ImZkZFRlbXBsYXRlSWQiOiJYWUZERDY3NzYwMzI2NTc1MzEyMzYzNTIiLCJpc1VwZGF0ZVB3ZCI6MCwibG9naW5UeXBlIjowLCJ1c2VyTG9naW5JZCI6NjU5Mzc0NjkwMTM1MzA4Mjg4MywibWVyY2hhbnRJZCI6IiIsInRhc2tVcmwiOiJodHRwczovL2Nkbi5sYXN0bWlsZXMuY24vYXBwcy82NzIyODEyMjM3NzQzNTk5NjE2LnBkZiIsInN5c05hbWUiOiLns7vnu5_mk43kvZzmiYvlhowtVjEuMCIsImlzTWFuYWdlciI6MSwiaXNBc3luY1JlcXVlc3QiOiJ0cnVlIiwic3lzVXJsIjoiaHR0cHM6Ly9jZG4ubGFzdG1pbGVzLmNuL2FwcHMvNjcyMjgxMTU2OTM5ODAzNDQzMi5wZGYiLCJ0YXNrTmFtZSI6IuWFheWAvOS7o-WPkeaTjeS9nOaJi-WGjC1WMS4wIiwibWVyY2hhbnRSYW5nZSI6MSwidXNlcm5hbWUiOiJBRE1pbiJ9LCJzdWIiOiI2NTkzNzQ2OTAxMzUzMDgyODgzIiwiZXhwIjoxNjIxMjMyMTk5fQ.ldIgobBkjbyrHyz3W_2lTKuePPiF0d6JfpqnjMGQ8aIofD5RtQO4sGhxu-b1sZ4ybU_qqC5wZOauEdBEv4rvKQ"}</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -1187,12 +1181,7 @@
           <t>{"pageNum":"1","pageSize":"15","merchantId":"","startDate":"2020-12","endDate":"2020-12","taxpayer":"","status":"0","type":"3","order":"2","businessNo":"","amountRangeJson":"[]"}</t>
         </is>
       </c>
-      <c r="H2" s="7" t="inlineStr">
-        <is>
-          <t>pass</t>
-        </is>
-      </c>
-      <c r="J2" s="8" t="inlineStr">
+      <c r="J2" s="7" t="inlineStr">
         <is>
           <t>bin</t>
         </is>
@@ -1223,7 +1212,7 @@
       </c>
       <c r="E3" s="0" t="inlineStr">
         <is>
-          <t>{"Authorization":"eyJhbGciOiJIUzUxMiJ9.eyJkYXRhIjp7ImZkZFRlbXBsYXRlSWQiOiJYWUZERDY3NzYwMzI2NTc1MzEyMzYzNTIiLCJpc1VwZGF0ZVB3ZCI6MCwibG9naW5UeXBlIjowLCJ1c2VyTG9naW5JZCI6NjU5Mzc0NjkwMTM1MzA4Mjg4MywibWVyY2hhbnRJZCI6IiIsInRhc2tVcmwiOiJodHRwczovL2Nkbi5sYXN0bWlsZXMuY24vYXBwcy82NzIyODEyMjM3NzQzNTk5NjE2LnBkZiIsInN5c05hbWUiOiLns7vnu5_mk43kvZzmiYvlhowtVjEuMCIsImlzTWFuYWdlciI6MSwiaXNBc3luY1JlcXVlc3QiOiJ0cnVlIiwic3lzVXJsIjoiaHR0cHM6Ly9jZG4ubGFzdG1pbGVzLmNuL2FwcHMvNjcyMjgxMTU2OTM5ODAzNDQzMi5wZGYiLCJ0YXNrTmFtZSI6IuWFheWAvOS7o-WPkeaTjeS9nOaJi-WGjC1WMS4wIiwibWVyY2hhbnRSYW5nZSI6MSwidXNlcm5hbWUiOiJBRE1pbiJ9LCJzdWIiOiI2NTkzNzQ2OTAxMzUzMDgyODgzIiwiZXhwIjoxNjIxMjIwMzQwfQ.tl_Ow8IiwGBaJMLTzgznR07p8D9wElVof3opocSAQR9kWKUdnoFL6vRMxczQxt-l6inRywWg1DWwQnrwIch0Ng"}</t>
+          <t>{"Authorization":"eyJhbGciOiJIUzUxMiJ9.eyJkYXRhIjp7ImZkZFRlbXBsYXRlSWQiOiJYWUZERDY3NzYwMzI2NTc1MzEyMzYzNTIiLCJpc1VwZGF0ZVB3ZCI6MCwibG9naW5UeXBlIjowLCJ1c2VyTG9naW5JZCI6NjU5Mzc0NjkwMTM1MzA4Mjg4MywibWVyY2hhbnRJZCI6IiIsInRhc2tVcmwiOiJodHRwczovL2Nkbi5sYXN0bWlsZXMuY24vYXBwcy82NzIyODEyMjM3NzQzNTk5NjE2LnBkZiIsInN5c05hbWUiOiLns7vnu5_mk43kvZzmiYvlhowtVjEuMCIsImlzTWFuYWdlciI6MSwiaXNBc3luY1JlcXVlc3QiOiJ0cnVlIiwic3lzVXJsIjoiaHR0cHM6Ly9jZG4ubGFzdG1pbGVzLmNuL2FwcHMvNjcyMjgxMTU2OTM5ODAzNDQzMi5wZGYiLCJ0YXNrTmFtZSI6IuWFheWAvOS7o-WPkeaTjeS9nOaJi-WGjC1WMS4wIiwibWVyY2hhbnRSYW5nZSI6MSwidXNlcm5hbWUiOiJBRE1pbiJ9LCJzdWIiOiI2NTkzNzQ2OTAxMzUzMDgyODgzIiwiZXhwIjoxNjIxMjMyMTk5fQ.ldIgobBkjbyrHyz3W_2lTKuePPiF0d6JfpqnjMGQ8aIofD5RtQO4sGhxu-b1sZ4ybU_qqC5wZOauEdBEv4rvKQ"}</t>
         </is>
       </c>
       <c r="F3" s="3" t="inlineStr">
@@ -1262,7 +1251,7 @@
       </c>
       <c r="E4" s="0" t="inlineStr">
         <is>
-          <t>{"Authorization":"eyJhbGciOiJIUzUxMiJ9.eyJkYXRhIjp7ImZkZFRlbXBsYXRlSWQiOiJYWUZERDY3NzYwMzI2NTc1MzEyMzYzNTIiLCJpc1VwZGF0ZVB3ZCI6MCwibG9naW5UeXBlIjowLCJ1c2VyTG9naW5JZCI6NjU5Mzc0NjkwMTM1MzA4Mjg4MywibWVyY2hhbnRJZCI6IiIsInRhc2tVcmwiOiJodHRwczovL2Nkbi5sYXN0bWlsZXMuY24vYXBwcy82NzIyODEyMjM3NzQzNTk5NjE2LnBkZiIsInN5c05hbWUiOiLns7vnu5_mk43kvZzmiYvlhowtVjEuMCIsImlzTWFuYWdlciI6MSwiaXNBc3luY1JlcXVlc3QiOiJ0cnVlIiwic3lzVXJsIjoiaHR0cHM6Ly9jZG4ubGFzdG1pbGVzLmNuL2FwcHMvNjcyMjgxMTU2OTM5ODAzNDQzMi5wZGYiLCJ0YXNrTmFtZSI6IuWFheWAvOS7o-WPkeaTjeS9nOaJi-WGjC1WMS4wIiwibWVyY2hhbnRSYW5nZSI6MSwidXNlcm5hbWUiOiJBRE1pbiJ9LCJzdWIiOiI2NTkzNzQ2OTAxMzUzMDgyODgzIiwiZXhwIjoxNjIxMjIwMzQwfQ.tl_Ow8IiwGBaJMLTzgznR07p8D9wElVof3opocSAQR9kWKUdnoFL6vRMxczQxt-l6inRywWg1DWwQnrwIch0Ng"}</t>
+          <t>{"Authorization":"eyJhbGciOiJIUzUxMiJ9.eyJkYXRhIjp7ImZkZFRlbXBsYXRlSWQiOiJYWUZERDY3NzYwMzI2NTc1MzEyMzYzNTIiLCJpc1VwZGF0ZVB3ZCI6MCwibG9naW5UeXBlIjowLCJ1c2VyTG9naW5JZCI6NjU5Mzc0NjkwMTM1MzA4Mjg4MywibWVyY2hhbnRJZCI6IiIsInRhc2tVcmwiOiJodHRwczovL2Nkbi5sYXN0bWlsZXMuY24vYXBwcy82NzIyODEyMjM3NzQzNTk5NjE2LnBkZiIsInN5c05hbWUiOiLns7vnu5_mk43kvZzmiYvlhowtVjEuMCIsImlzTWFuYWdlciI6MSwiaXNBc3luY1JlcXVlc3QiOiJ0cnVlIiwic3lzVXJsIjoiaHR0cHM6Ly9jZG4ubGFzdG1pbGVzLmNuL2FwcHMvNjcyMjgxMTU2OTM5ODAzNDQzMi5wZGYiLCJ0YXNrTmFtZSI6IuWFheWAvOS7o-WPkeaTjeS9nOaJi-WGjC1WMS4wIiwibWVyY2hhbnRSYW5nZSI6MSwidXNlcm5hbWUiOiJBRE1pbiJ9LCJzdWIiOiI2NTkzNzQ2OTAxMzUzMDgyODgzIiwiZXhwIjoxNjIxMjMyMTk5fQ.ldIgobBkjbyrHyz3W_2lTKuePPiF0d6JfpqnjMGQ8aIofD5RtQO4sGhxu-b1sZ4ybU_qqC5wZOauEdBEv4rvKQ"}</t>
         </is>
       </c>
       <c r="F4" s="3" t="inlineStr">
@@ -1299,7 +1288,7 @@
       </c>
       <c r="E5" s="0" t="inlineStr">
         <is>
-          <t>{"Authorization":"eyJhbGciOiJIUzUxMiJ9.eyJkYXRhIjp7ImZkZFRlbXBsYXRlSWQiOiJYWUZERDY3NzYwMzI2NTc1MzEyMzYzNTIiLCJpc1VwZGF0ZVB3ZCI6MCwibG9naW5UeXBlIjowLCJ1c2VyTG9naW5JZCI6NjU5Mzc0NjkwMTM1MzA4Mjg4MywibWVyY2hhbnRJZCI6IiIsInRhc2tVcmwiOiJodHRwczovL2Nkbi5sYXN0bWlsZXMuY24vYXBwcy82NzIyODEyMjM3NzQzNTk5NjE2LnBkZiIsInN5c05hbWUiOiLns7vnu5_mk43kvZzmiYvlhowtVjEuMCIsImlzTWFuYWdlciI6MSwiaXNBc3luY1JlcXVlc3QiOiJ0cnVlIiwic3lzVXJsIjoiaHR0cHM6Ly9jZG4ubGFzdG1pbGVzLmNuL2FwcHMvNjcyMjgxMTU2OTM5ODAzNDQzMi5wZGYiLCJ0YXNrTmFtZSI6IuWFheWAvOS7o-WPkeaTjeS9nOaJi-WGjC1WMS4wIiwibWVyY2hhbnRSYW5nZSI6MSwidXNlcm5hbWUiOiJBRE1pbiJ9LCJzdWIiOiI2NTkzNzQ2OTAxMzUzMDgyODgzIiwiZXhwIjoxNjIxMjIwMzQwfQ.tl_Ow8IiwGBaJMLTzgznR07p8D9wElVof3opocSAQR9kWKUdnoFL6vRMxczQxt-l6inRywWg1DWwQnrwIch0Ng"}</t>
+          <t>{"Authorization":"eyJhbGciOiJIUzUxMiJ9.eyJkYXRhIjp7ImZkZFRlbXBsYXRlSWQiOiJYWUZERDY3NzYwMzI2NTc1MzEyMzYzNTIiLCJpc1VwZGF0ZVB3ZCI6MCwibG9naW5UeXBlIjowLCJ1c2VyTG9naW5JZCI6NjU5Mzc0NjkwMTM1MzA4Mjg4MywibWVyY2hhbnRJZCI6IiIsInRhc2tVcmwiOiJodHRwczovL2Nkbi5sYXN0bWlsZXMuY24vYXBwcy82NzIyODEyMjM3NzQzNTk5NjE2LnBkZiIsInN5c05hbWUiOiLns7vnu5_mk43kvZzmiYvlhowtVjEuMCIsImlzTWFuYWdlciI6MSwiaXNBc3luY1JlcXVlc3QiOiJ0cnVlIiwic3lzVXJsIjoiaHR0cHM6Ly9jZG4ubGFzdG1pbGVzLmNuL2FwcHMvNjcyMjgxMTU2OTM5ODAzNDQzMi5wZGYiLCJ0YXNrTmFtZSI6IuWFheWAvOS7o-WPkeaTjeS9nOaJi-WGjC1WMS4wIiwibWVyY2hhbnRSYW5nZSI6MSwidXNlcm5hbWUiOiJBRE1pbiJ9LCJzdWIiOiI2NTkzNzQ2OTAxMzUzMDgyODgzIiwiZXhwIjoxNjIxMjMyMTk5fQ.ldIgobBkjbyrHyz3W_2lTKuePPiF0d6JfpqnjMGQ8aIofD5RtQO4sGhxu-b1sZ4ybU_qqC5wZOauEdBEv4rvKQ"}</t>
         </is>
       </c>
       <c r="F5" s="3" t="inlineStr">
@@ -1336,7 +1325,7 @@
       </c>
       <c r="E6" s="0" t="inlineStr">
         <is>
-          <t>{"Authorization":"eyJhbGciOiJIUzUxMiJ9.eyJkYXRhIjp7ImZkZFRlbXBsYXRlSWQiOiJYWUZERDY3NzYwMzI2NTc1MzEyMzYzNTIiLCJpc1VwZGF0ZVB3ZCI6MCwibG9naW5UeXBlIjowLCJ1c2VyTG9naW5JZCI6NjU5Mzc0NjkwMTM1MzA4Mjg4MywibWVyY2hhbnRJZCI6IiIsInRhc2tVcmwiOiJodHRwczovL2Nkbi5sYXN0bWlsZXMuY24vYXBwcy82NzIyODEyMjM3NzQzNTk5NjE2LnBkZiIsInN5c05hbWUiOiLns7vnu5_mk43kvZzmiYvlhowtVjEuMCIsImlzTWFuYWdlciI6MSwiaXNBc3luY1JlcXVlc3QiOiJ0cnVlIiwic3lzVXJsIjoiaHR0cHM6Ly9jZG4ubGFzdG1pbGVzLmNuL2FwcHMvNjcyMjgxMTU2OTM5ODAzNDQzMi5wZGYiLCJ0YXNrTmFtZSI6IuWFheWAvOS7o-WPkeaTjeS9nOaJi-WGjC1WMS4wIiwibWVyY2hhbnRSYW5nZSI6MSwidXNlcm5hbWUiOiJBRE1pbiJ9LCJzdWIiOiI2NTkzNzQ2OTAxMzUzMDgyODgzIiwiZXhwIjoxNjIxMjIwMzQwfQ.tl_Ow8IiwGBaJMLTzgznR07p8D9wElVof3opocSAQR9kWKUdnoFL6vRMxczQxt-l6inRywWg1DWwQnrwIch0Ng"}</t>
+          <t>{"Authorization":"eyJhbGciOiJIUzUxMiJ9.eyJkYXRhIjp7ImZkZFRlbXBsYXRlSWQiOiJYWUZERDY3NzYwMzI2NTc1MzEyMzYzNTIiLCJpc1VwZGF0ZVB3ZCI6MCwibG9naW5UeXBlIjowLCJ1c2VyTG9naW5JZCI6NjU5Mzc0NjkwMTM1MzA4Mjg4MywibWVyY2hhbnRJZCI6IiIsInRhc2tVcmwiOiJodHRwczovL2Nkbi5sYXN0bWlsZXMuY24vYXBwcy82NzIyODEyMjM3NzQzNTk5NjE2LnBkZiIsInN5c05hbWUiOiLns7vnu5_mk43kvZzmiYvlhowtVjEuMCIsImlzTWFuYWdlciI6MSwiaXNBc3luY1JlcXVlc3QiOiJ0cnVlIiwic3lzVXJsIjoiaHR0cHM6Ly9jZG4ubGFzdG1pbGVzLmNuL2FwcHMvNjcyMjgxMTU2OTM5ODAzNDQzMi5wZGYiLCJ0YXNrTmFtZSI6IuWFheWAvOS7o-WPkeaTjeS9nOaJi-WGjC1WMS4wIiwibWVyY2hhbnRSYW5nZSI6MSwidXNlcm5hbWUiOiJBRE1pbiJ9LCJzdWIiOiI2NTkzNzQ2OTAxMzUzMDgyODgzIiwiZXhwIjoxNjIxMjMyMTk5fQ.ldIgobBkjbyrHyz3W_2lTKuePPiF0d6JfpqnjMGQ8aIofD5RtQO4sGhxu-b1sZ4ybU_qqC5wZOauEdBEv4rvKQ"}</t>
         </is>
       </c>
       <c r="F6" s="3" t="inlineStr">
@@ -1373,7 +1362,7 @@
       </c>
       <c r="E7" s="0" t="inlineStr">
         <is>
-          <t>{"Authorization":"eyJhbGciOiJIUzUxMiJ9.eyJkYXRhIjp7ImZkZFRlbXBsYXRlSWQiOiJYWUZERDY3NzYwMzI2NTc1MzEyMzYzNTIiLCJpc1VwZGF0ZVB3ZCI6MCwibG9naW5UeXBlIjowLCJ1c2VyTG9naW5JZCI6NjU5Mzc0NjkwMTM1MzA4Mjg4MywibWVyY2hhbnRJZCI6IiIsInRhc2tVcmwiOiJodHRwczovL2Nkbi5sYXN0bWlsZXMuY24vYXBwcy82NzIyODEyMjM3NzQzNTk5NjE2LnBkZiIsInN5c05hbWUiOiLns7vnu5_mk43kvZzmiYvlhowtVjEuMCIsImlzTWFuYWdlciI6MSwiaXNBc3luY1JlcXVlc3QiOiJ0cnVlIiwic3lzVXJsIjoiaHR0cHM6Ly9jZG4ubGFzdG1pbGVzLmNuL2FwcHMvNjcyMjgxMTU2OTM5ODAzNDQzMi5wZGYiLCJ0YXNrTmFtZSI6IuWFheWAvOS7o-WPkeaTjeS9nOaJi-WGjC1WMS4wIiwibWVyY2hhbnRSYW5nZSI6MSwidXNlcm5hbWUiOiJBRE1pbiJ9LCJzdWIiOiI2NTkzNzQ2OTAxMzUzMDgyODgzIiwiZXhwIjoxNjIxMjIwMzQwfQ.tl_Ow8IiwGBaJMLTzgznR07p8D9wElVof3opocSAQR9kWKUdnoFL6vRMxczQxt-l6inRywWg1DWwQnrwIch0Ng"}</t>
+          <t>{"Authorization":"eyJhbGciOiJIUzUxMiJ9.eyJkYXRhIjp7ImZkZFRlbXBsYXRlSWQiOiJYWUZERDY3NzYwMzI2NTc1MzEyMzYzNTIiLCJpc1VwZGF0ZVB3ZCI6MCwibG9naW5UeXBlIjowLCJ1c2VyTG9naW5JZCI6NjU5Mzc0NjkwMTM1MzA4Mjg4MywibWVyY2hhbnRJZCI6IiIsInRhc2tVcmwiOiJodHRwczovL2Nkbi5sYXN0bWlsZXMuY24vYXBwcy82NzIyODEyMjM3NzQzNTk5NjE2LnBkZiIsInN5c05hbWUiOiLns7vnu5_mk43kvZzmiYvlhowtVjEuMCIsImlzTWFuYWdlciI6MSwiaXNBc3luY1JlcXVlc3QiOiJ0cnVlIiwic3lzVXJsIjoiaHR0cHM6Ly9jZG4ubGFzdG1pbGVzLmNuL2FwcHMvNjcyMjgxMTU2OTM5ODAzNDQzMi5wZGYiLCJ0YXNrTmFtZSI6IuWFheWAvOS7o-WPkeaTjeS9nOaJi-WGjC1WMS4wIiwibWVyY2hhbnRSYW5nZSI6MSwidXNlcm5hbWUiOiJBRE1pbiJ9LCJzdWIiOiI2NTkzNzQ2OTAxMzUzMDgyODgzIiwiZXhwIjoxNjIxMjMyMTk5fQ.ldIgobBkjbyrHyz3W_2lTKuePPiF0d6JfpqnjMGQ8aIofD5RtQO4sGhxu-b1sZ4ybU_qqC5wZOauEdBEv4rvKQ"}</t>
         </is>
       </c>
       <c r="F7" s="3" t="inlineStr">
@@ -1410,7 +1399,7 @@
       </c>
       <c r="E8" s="0" t="inlineStr">
         <is>
-          <t>{"Authorization":"eyJhbGciOiJIUzUxMiJ9.eyJkYXRhIjp7ImZkZFRlbXBsYXRlSWQiOiJYWUZERDY3NzYwMzI2NTc1MzEyMzYzNTIiLCJpc1VwZGF0ZVB3ZCI6MCwibG9naW5UeXBlIjowLCJ1c2VyTG9naW5JZCI6NjU5Mzc0NjkwMTM1MzA4Mjg4MywibWVyY2hhbnRJZCI6IiIsInRhc2tVcmwiOiJodHRwczovL2Nkbi5sYXN0bWlsZXMuY24vYXBwcy82NzIyODEyMjM3NzQzNTk5NjE2LnBkZiIsInN5c05hbWUiOiLns7vnu5_mk43kvZzmiYvlhowtVjEuMCIsImlzTWFuYWdlciI6MSwiaXNBc3luY1JlcXVlc3QiOiJ0cnVlIiwic3lzVXJsIjoiaHR0cHM6Ly9jZG4ubGFzdG1pbGVzLmNuL2FwcHMvNjcyMjgxMTU2OTM5ODAzNDQzMi5wZGYiLCJ0YXNrTmFtZSI6IuWFheWAvOS7o-WPkeaTjeS9nOaJi-WGjC1WMS4wIiwibWVyY2hhbnRSYW5nZSI6MSwidXNlcm5hbWUiOiJBRE1pbiJ9LCJzdWIiOiI2NTkzNzQ2OTAxMzUzMDgyODgzIiwiZXhwIjoxNjIxMjIwMzQwfQ.tl_Ow8IiwGBaJMLTzgznR07p8D9wElVof3opocSAQR9kWKUdnoFL6vRMxczQxt-l6inRywWg1DWwQnrwIch0Ng"}</t>
+          <t>{"Authorization":"eyJhbGciOiJIUzUxMiJ9.eyJkYXRhIjp7ImZkZFRlbXBsYXRlSWQiOiJYWUZERDY3NzYwMzI2NTc1MzEyMzYzNTIiLCJpc1VwZGF0ZVB3ZCI6MCwibG9naW5UeXBlIjowLCJ1c2VyTG9naW5JZCI6NjU5Mzc0NjkwMTM1MzA4Mjg4MywibWVyY2hhbnRJZCI6IiIsInRhc2tVcmwiOiJodHRwczovL2Nkbi5sYXN0bWlsZXMuY24vYXBwcy82NzIyODEyMjM3NzQzNTk5NjE2LnBkZiIsInN5c05hbWUiOiLns7vnu5_mk43kvZzmiYvlhowtVjEuMCIsImlzTWFuYWdlciI6MSwiaXNBc3luY1JlcXVlc3QiOiJ0cnVlIiwic3lzVXJsIjoiaHR0cHM6Ly9jZG4ubGFzdG1pbGVzLmNuL2FwcHMvNjcyMjgxMTU2OTM5ODAzNDQzMi5wZGYiLCJ0YXNrTmFtZSI6IuWFheWAvOS7o-WPkeaTjeS9nOaJi-WGjC1WMS4wIiwibWVyY2hhbnRSYW5nZSI6MSwidXNlcm5hbWUiOiJBRE1pbiJ9LCJzdWIiOiI2NTkzNzQ2OTAxMzUzMDgyODgzIiwiZXhwIjoxNjIxMjMyMTk5fQ.ldIgobBkjbyrHyz3W_2lTKuePPiF0d6JfpqnjMGQ8aIofD5RtQO4sGhxu-b1sZ4ybU_qqC5wZOauEdBEv4rvKQ"}</t>
         </is>
       </c>
       <c r="F8" s="3" t="inlineStr">
@@ -1447,7 +1436,7 @@
       </c>
       <c r="E9" s="0" t="inlineStr">
         <is>
-          <t>{"Authorization":"eyJhbGciOiJIUzUxMiJ9.eyJkYXRhIjp7ImZkZFRlbXBsYXRlSWQiOiJYWUZERDY3NzYwMzI2NTc1MzEyMzYzNTIiLCJpc1VwZGF0ZVB3ZCI6MCwibG9naW5UeXBlIjowLCJ1c2VyTG9naW5JZCI6NjU5Mzc0NjkwMTM1MzA4Mjg4MywibWVyY2hhbnRJZCI6IiIsInRhc2tVcmwiOiJodHRwczovL2Nkbi5sYXN0bWlsZXMuY24vYXBwcy82NzIyODEyMjM3NzQzNTk5NjE2LnBkZiIsInN5c05hbWUiOiLns7vnu5_mk43kvZzmiYvlhowtVjEuMCIsImlzTWFuYWdlciI6MSwiaXNBc3luY1JlcXVlc3QiOiJ0cnVlIiwic3lzVXJsIjoiaHR0cHM6Ly9jZG4ubGFzdG1pbGVzLmNuL2FwcHMvNjcyMjgxMTU2OTM5ODAzNDQzMi5wZGYiLCJ0YXNrTmFtZSI6IuWFheWAvOS7o-WPkeaTjeS9nOaJi-WGjC1WMS4wIiwibWVyY2hhbnRSYW5nZSI6MSwidXNlcm5hbWUiOiJBRE1pbiJ9LCJzdWIiOiI2NTkzNzQ2OTAxMzUzMDgyODgzIiwiZXhwIjoxNjIxMjIwMzQwfQ.tl_Ow8IiwGBaJMLTzgznR07p8D9wElVof3opocSAQR9kWKUdnoFL6vRMxczQxt-l6inRywWg1DWwQnrwIch0Ng"}</t>
+          <t>{"Authorization":"eyJhbGciOiJIUzUxMiJ9.eyJkYXRhIjp7ImZkZFRlbXBsYXRlSWQiOiJYWUZERDY3NzYwMzI2NTc1MzEyMzYzNTIiLCJpc1VwZGF0ZVB3ZCI6MCwibG9naW5UeXBlIjowLCJ1c2VyTG9naW5JZCI6NjU5Mzc0NjkwMTM1MzA4Mjg4MywibWVyY2hhbnRJZCI6IiIsInRhc2tVcmwiOiJodHRwczovL2Nkbi5sYXN0bWlsZXMuY24vYXBwcy82NzIyODEyMjM3NzQzNTk5NjE2LnBkZiIsInN5c05hbWUiOiLns7vnu5_mk43kvZzmiYvlhowtVjEuMCIsImlzTWFuYWdlciI6MSwiaXNBc3luY1JlcXVlc3QiOiJ0cnVlIiwic3lzVXJsIjoiaHR0cHM6Ly9jZG4ubGFzdG1pbGVzLmNuL2FwcHMvNjcyMjgxMTU2OTM5ODAzNDQzMi5wZGYiLCJ0YXNrTmFtZSI6IuWFheWAvOS7o-WPkeaTjeS9nOaJi-WGjC1WMS4wIiwibWVyY2hhbnRSYW5nZSI6MSwidXNlcm5hbWUiOiJBRE1pbiJ9LCJzdWIiOiI2NTkzNzQ2OTAxMzUzMDgyODgzIiwiZXhwIjoxNjIxMjMyMTk5fQ.ldIgobBkjbyrHyz3W_2lTKuePPiF0d6JfpqnjMGQ8aIofD5RtQO4sGhxu-b1sZ4ybU_qqC5wZOauEdBEv4rvKQ"}</t>
         </is>
       </c>
       <c r="F9" s="3" t="inlineStr">
@@ -1486,7 +1475,7 @@
       </c>
       <c r="E10" s="0" t="inlineStr">
         <is>
-          <t>{"Authorization":"eyJhbGciOiJIUzUxMiJ9.eyJkYXRhIjp7ImZkZFRlbXBsYXRlSWQiOiJYWUZERDY3NzYwMzI2NTc1MzEyMzYzNTIiLCJpc1VwZGF0ZVB3ZCI6MCwibG9naW5UeXBlIjowLCJ1c2VyTG9naW5JZCI6NjU5Mzc0NjkwMTM1MzA4Mjg4MywibWVyY2hhbnRJZCI6IiIsInRhc2tVcmwiOiJodHRwczovL2Nkbi5sYXN0bWlsZXMuY24vYXBwcy82NzIyODEyMjM3NzQzNTk5NjE2LnBkZiIsInN5c05hbWUiOiLns7vnu5_mk43kvZzmiYvlhowtVjEuMCIsImlzTWFuYWdlciI6MSwiaXNBc3luY1JlcXVlc3QiOiJ0cnVlIiwic3lzVXJsIjoiaHR0cHM6Ly9jZG4ubGFzdG1pbGVzLmNuL2FwcHMvNjcyMjgxMTU2OTM5ODAzNDQzMi5wZGYiLCJ0YXNrTmFtZSI6IuWFheWAvOS7o-WPkeaTjeS9nOaJi-WGjC1WMS4wIiwibWVyY2hhbnRSYW5nZSI6MSwidXNlcm5hbWUiOiJBRE1pbiJ9LCJzdWIiOiI2NTkzNzQ2OTAxMzUzMDgyODgzIiwiZXhwIjoxNjIxMjIwMzQwfQ.tl_Ow8IiwGBaJMLTzgznR07p8D9wElVof3opocSAQR9kWKUdnoFL6vRMxczQxt-l6inRywWg1DWwQnrwIch0Ng"}</t>
+          <t>{"Authorization":"eyJhbGciOiJIUzUxMiJ9.eyJkYXRhIjp7ImZkZFRlbXBsYXRlSWQiOiJYWUZERDY3NzYwMzI2NTc1MzEyMzYzNTIiLCJpc1VwZGF0ZVB3ZCI6MCwibG9naW5UeXBlIjowLCJ1c2VyTG9naW5JZCI6NjU5Mzc0NjkwMTM1MzA4Mjg4MywibWVyY2hhbnRJZCI6IiIsInRhc2tVcmwiOiJodHRwczovL2Nkbi5sYXN0bWlsZXMuY24vYXBwcy82NzIyODEyMjM3NzQzNTk5NjE2LnBkZiIsInN5c05hbWUiOiLns7vnu5_mk43kvZzmiYvlhowtVjEuMCIsImlzTWFuYWdlciI6MSwiaXNBc3luY1JlcXVlc3QiOiJ0cnVlIiwic3lzVXJsIjoiaHR0cHM6Ly9jZG4ubGFzdG1pbGVzLmNuL2FwcHMvNjcyMjgxMTU2OTM5ODAzNDQzMi5wZGYiLCJ0YXNrTmFtZSI6IuWFheWAvOS7o-WPkeaTjeS9nOaJi-WGjC1WMS4wIiwibWVyY2hhbnRSYW5nZSI6MSwidXNlcm5hbWUiOiJBRE1pbiJ9LCJzdWIiOiI2NTkzNzQ2OTAxMzUzMDgyODgzIiwiZXhwIjoxNjIxMjMyMTk5fQ.ldIgobBkjbyrHyz3W_2lTKuePPiF0d6JfpqnjMGQ8aIofD5RtQO4sGhxu-b1sZ4ybU_qqC5wZOauEdBEv4rvKQ"}</t>
         </is>
       </c>
       <c r="G10" s="3" t="inlineStr">

--- a/config/测试结果表格.xlsx
+++ b/config/测试结果表格.xlsx
@@ -18,7 +18,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="23">
+  <fonts count="24">
     <font>
       <name val="宋体"/>
       <charset val="134"/>
@@ -184,6 +184,11 @@
       <color rgb="FF006100"/>
       <sz val="11"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <b val="1"/>
+      <color rgb="0000ff00"/>
     </font>
     <font>
       <name val="宋体"/>
@@ -641,7 +646,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -662,6 +667,7 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1168,7 +1174,7 @@
       </c>
       <c r="E2" s="0" t="inlineStr">
         <is>
-          <t>{"Authorization":"eyJhbGciOiJIUzUxMiJ9.eyJkYXRhIjp7ImZkZFRlbXBsYXRlSWQiOiJYWUZERDY3NzYwMzI2NTc1MzEyMzYzNTIiLCJpc1VwZGF0ZVB3ZCI6MCwibG9naW5UeXBlIjowLCJ1c2VyTG9naW5JZCI6NjU5Mzc0NjkwMTM1MzA4Mjg4MywibWVyY2hhbnRJZCI6IiIsInRhc2tVcmwiOiJodHRwczovL2Nkbi5sYXN0bWlsZXMuY24vYXBwcy82NzIyODEyMjM3NzQzNTk5NjE2LnBkZiIsInN5c05hbWUiOiLns7vnu5_mk43kvZzmiYvlhowtVjEuMCIsImlzTWFuYWdlciI6MSwiaXNBc3luY1JlcXVlc3QiOiJ0cnVlIiwic3lzVXJsIjoiaHR0cHM6Ly9jZG4ubGFzdG1pbGVzLmNuL2FwcHMvNjcyMjgxMTU2OTM5ODAzNDQzMi5wZGYiLCJ0YXNrTmFtZSI6IuWFheWAvOS7o-WPkeaTjeS9nOaJi-WGjC1WMS4wIiwibWVyY2hhbnRSYW5nZSI6MSwidXNlcm5hbWUiOiJBRE1pbiJ9LCJzdWIiOiI2NTkzNzQ2OTAxMzUzMDgyODgzIiwiZXhwIjoxNjIxMjMyMTk5fQ.ldIgobBkjbyrHyz3W_2lTKuePPiF0d6JfpqnjMGQ8aIofD5RtQO4sGhxu-b1sZ4ybU_qqC5wZOauEdBEv4rvKQ"}</t>
+          <t>{"Authorization":"eyJhbGciOiJIUzUxMiJ9.eyJkYXRhIjp7ImZkZFRlbXBsYXRlSWQiOiJYWUZERDY3NzYwMzI2NTc1MzEyMzYzNTIiLCJpc1VwZGF0ZVB3ZCI6MCwibG9naW5UeXBlIjowLCJ1c2VyTG9naW5JZCI6NjU5Mzc0NjkwMTM1MzA4Mjg4MywibWVyY2hhbnRJZCI6IiIsInRhc2tVcmwiOiJodHRwczovL2Nkbi5sYXN0bWlsZXMuY24vYXBwcy82NzIyODEyMjM3NzQzNTk5NjE2LnBkZiIsInN5c05hbWUiOiLns7vnu5_mk43kvZzmiYvlhowtVjEuMCIsImlzTWFuYWdlciI6MSwiaXNBc3luY1JlcXVlc3QiOiJ0cnVlIiwic3lzVXJsIjoiaHR0cHM6Ly9jZG4ubGFzdG1pbGVzLmNuL2FwcHMvNjcyMjgxMTU2OTM5ODAzNDQzMi5wZGYiLCJ0YXNrTmFtZSI6IuWFheWAvOS7o-WPkeaTjeS9nOaJi-WGjC1WMS4wIiwibWVyY2hhbnRSYW5nZSI6MSwidXNlcm5hbWUiOiJBRE1pbiJ9LCJzdWIiOiI2NTkzNzQ2OTAxMzUzMDgyODgzIiwiZXhwIjoxNjIxMzEzNjExfQ.NwcBvfYCEo8Z-p_G1p0LSQC9Xtm_J1zwTDg2CMZdkWVLlAztrVohs4IJ5vU_0wShzn2qqnLbQWQ3A506gz-Keg"}</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -1179,11 +1185,6 @@
       <c r="G2" s="3" t="inlineStr">
         <is>
           <t>{"pageNum":"1","pageSize":"15","merchantId":"","startDate":"2020-12","endDate":"2020-12","taxpayer":"","status":"0","type":"3","order":"2","businessNo":"","amountRangeJson":"[]"}</t>
-        </is>
-      </c>
-      <c r="J2" s="7" t="inlineStr">
-        <is>
-          <t>bin</t>
         </is>
       </c>
       <c r="N2" s="6" t="n"/>
@@ -1212,7 +1213,7 @@
       </c>
       <c r="E3" s="0" t="inlineStr">
         <is>
-          <t>{"Authorization":"eyJhbGciOiJIUzUxMiJ9.eyJkYXRhIjp7ImZkZFRlbXBsYXRlSWQiOiJYWUZERDY3NzYwMzI2NTc1MzEyMzYzNTIiLCJpc1VwZGF0ZVB3ZCI6MCwibG9naW5UeXBlIjowLCJ1c2VyTG9naW5JZCI6NjU5Mzc0NjkwMTM1MzA4Mjg4MywibWVyY2hhbnRJZCI6IiIsInRhc2tVcmwiOiJodHRwczovL2Nkbi5sYXN0bWlsZXMuY24vYXBwcy82NzIyODEyMjM3NzQzNTk5NjE2LnBkZiIsInN5c05hbWUiOiLns7vnu5_mk43kvZzmiYvlhowtVjEuMCIsImlzTWFuYWdlciI6MSwiaXNBc3luY1JlcXVlc3QiOiJ0cnVlIiwic3lzVXJsIjoiaHR0cHM6Ly9jZG4ubGFzdG1pbGVzLmNuL2FwcHMvNjcyMjgxMTU2OTM5ODAzNDQzMi5wZGYiLCJ0YXNrTmFtZSI6IuWFheWAvOS7o-WPkeaTjeS9nOaJi-WGjC1WMS4wIiwibWVyY2hhbnRSYW5nZSI6MSwidXNlcm5hbWUiOiJBRE1pbiJ9LCJzdWIiOiI2NTkzNzQ2OTAxMzUzMDgyODgzIiwiZXhwIjoxNjIxMjMyMTk5fQ.ldIgobBkjbyrHyz3W_2lTKuePPiF0d6JfpqnjMGQ8aIofD5RtQO4sGhxu-b1sZ4ybU_qqC5wZOauEdBEv4rvKQ"}</t>
+          <t>{"Authorization":"eyJhbGciOiJIUzUxMiJ9.eyJkYXRhIjp7ImZkZFRlbXBsYXRlSWQiOiJYWUZERDY3NzYwMzI2NTc1MzEyMzYzNTIiLCJpc1VwZGF0ZVB3ZCI6MCwibG9naW5UeXBlIjowLCJ1c2VyTG9naW5JZCI6NjU5Mzc0NjkwMTM1MzA4Mjg4MywibWVyY2hhbnRJZCI6IiIsInRhc2tVcmwiOiJodHRwczovL2Nkbi5sYXN0bWlsZXMuY24vYXBwcy82NzIyODEyMjM3NzQzNTk5NjE2LnBkZiIsInN5c05hbWUiOiLns7vnu5_mk43kvZzmiYvlhowtVjEuMCIsImlzTWFuYWdlciI6MSwiaXNBc3luY1JlcXVlc3QiOiJ0cnVlIiwic3lzVXJsIjoiaHR0cHM6Ly9jZG4ubGFzdG1pbGVzLmNuL2FwcHMvNjcyMjgxMTU2OTM5ODAzNDQzMi5wZGYiLCJ0YXNrTmFtZSI6IuWFheWAvOS7o-WPkeaTjeS9nOaJi-WGjC1WMS4wIiwibWVyY2hhbnRSYW5nZSI6MSwidXNlcm5hbWUiOiJBRE1pbiJ9LCJzdWIiOiI2NTkzNzQ2OTAxMzUzMDgyODgzIiwiZXhwIjoxNjIxMzEzNjExfQ.NwcBvfYCEo8Z-p_G1p0LSQC9Xtm_J1zwTDg2CMZdkWVLlAztrVohs4IJ5vU_0wShzn2qqnLbQWQ3A506gz-Keg"}</t>
         </is>
       </c>
       <c r="F3" s="3" t="inlineStr">
@@ -1251,7 +1252,7 @@
       </c>
       <c r="E4" s="0" t="inlineStr">
         <is>
-          <t>{"Authorization":"eyJhbGciOiJIUzUxMiJ9.eyJkYXRhIjp7ImZkZFRlbXBsYXRlSWQiOiJYWUZERDY3NzYwMzI2NTc1MzEyMzYzNTIiLCJpc1VwZGF0ZVB3ZCI6MCwibG9naW5UeXBlIjowLCJ1c2VyTG9naW5JZCI6NjU5Mzc0NjkwMTM1MzA4Mjg4MywibWVyY2hhbnRJZCI6IiIsInRhc2tVcmwiOiJodHRwczovL2Nkbi5sYXN0bWlsZXMuY24vYXBwcy82NzIyODEyMjM3NzQzNTk5NjE2LnBkZiIsInN5c05hbWUiOiLns7vnu5_mk43kvZzmiYvlhowtVjEuMCIsImlzTWFuYWdlciI6MSwiaXNBc3luY1JlcXVlc3QiOiJ0cnVlIiwic3lzVXJsIjoiaHR0cHM6Ly9jZG4ubGFzdG1pbGVzLmNuL2FwcHMvNjcyMjgxMTU2OTM5ODAzNDQzMi5wZGYiLCJ0YXNrTmFtZSI6IuWFheWAvOS7o-WPkeaTjeS9nOaJi-WGjC1WMS4wIiwibWVyY2hhbnRSYW5nZSI6MSwidXNlcm5hbWUiOiJBRE1pbiJ9LCJzdWIiOiI2NTkzNzQ2OTAxMzUzMDgyODgzIiwiZXhwIjoxNjIxMjMyMTk5fQ.ldIgobBkjbyrHyz3W_2lTKuePPiF0d6JfpqnjMGQ8aIofD5RtQO4sGhxu-b1sZ4ybU_qqC5wZOauEdBEv4rvKQ"}</t>
+          <t>{"Authorization":"eyJhbGciOiJIUzUxMiJ9.eyJkYXRhIjp7ImZkZFRlbXBsYXRlSWQiOiJYWUZERDY3NzYwMzI2NTc1MzEyMzYzNTIiLCJpc1VwZGF0ZVB3ZCI6MCwibG9naW5UeXBlIjowLCJ1c2VyTG9naW5JZCI6NjU5Mzc0NjkwMTM1MzA4Mjg4MywibWVyY2hhbnRJZCI6IiIsInRhc2tVcmwiOiJodHRwczovL2Nkbi5sYXN0bWlsZXMuY24vYXBwcy82NzIyODEyMjM3NzQzNTk5NjE2LnBkZiIsInN5c05hbWUiOiLns7vnu5_mk43kvZzmiYvlhowtVjEuMCIsImlzTWFuYWdlciI6MSwiaXNBc3luY1JlcXVlc3QiOiJ0cnVlIiwic3lzVXJsIjoiaHR0cHM6Ly9jZG4ubGFzdG1pbGVzLmNuL2FwcHMvNjcyMjgxMTU2OTM5ODAzNDQzMi5wZGYiLCJ0YXNrTmFtZSI6IuWFheWAvOS7o-WPkeaTjeS9nOaJi-WGjC1WMS4wIiwibWVyY2hhbnRSYW5nZSI6MSwidXNlcm5hbWUiOiJBRE1pbiJ9LCJzdWIiOiI2NTkzNzQ2OTAxMzUzMDgyODgzIiwiZXhwIjoxNjIxMzEzNjExfQ.NwcBvfYCEo8Z-p_G1p0LSQC9Xtm_J1zwTDg2CMZdkWVLlAztrVohs4IJ5vU_0wShzn2qqnLbQWQ3A506gz-Keg"}</t>
         </is>
       </c>
       <c r="F4" s="3" t="inlineStr">
@@ -1262,6 +1263,16 @@
       <c r="G4" s="3" t="inlineStr">
         <is>
           <t>{"startDate":"","endDate":"","merchantId":"","orderNo":"","payee":"","status":"0","payType":"","type":"1"}</t>
+        </is>
+      </c>
+      <c r="H4" s="7" t="inlineStr">
+        <is>
+          <t>pass</t>
+        </is>
+      </c>
+      <c r="J4" s="8" t="inlineStr">
+        <is>
+          <t>bin</t>
         </is>
       </c>
     </row>
@@ -1288,7 +1299,7 @@
       </c>
       <c r="E5" s="0" t="inlineStr">
         <is>
-          <t>{"Authorization":"eyJhbGciOiJIUzUxMiJ9.eyJkYXRhIjp7ImZkZFRlbXBsYXRlSWQiOiJYWUZERDY3NzYwMzI2NTc1MzEyMzYzNTIiLCJpc1VwZGF0ZVB3ZCI6MCwibG9naW5UeXBlIjowLCJ1c2VyTG9naW5JZCI6NjU5Mzc0NjkwMTM1MzA4Mjg4MywibWVyY2hhbnRJZCI6IiIsInRhc2tVcmwiOiJodHRwczovL2Nkbi5sYXN0bWlsZXMuY24vYXBwcy82NzIyODEyMjM3NzQzNTk5NjE2LnBkZiIsInN5c05hbWUiOiLns7vnu5_mk43kvZzmiYvlhowtVjEuMCIsImlzTWFuYWdlciI6MSwiaXNBc3luY1JlcXVlc3QiOiJ0cnVlIiwic3lzVXJsIjoiaHR0cHM6Ly9jZG4ubGFzdG1pbGVzLmNuL2FwcHMvNjcyMjgxMTU2OTM5ODAzNDQzMi5wZGYiLCJ0YXNrTmFtZSI6IuWFheWAvOS7o-WPkeaTjeS9nOaJi-WGjC1WMS4wIiwibWVyY2hhbnRSYW5nZSI6MSwidXNlcm5hbWUiOiJBRE1pbiJ9LCJzdWIiOiI2NTkzNzQ2OTAxMzUzMDgyODgzIiwiZXhwIjoxNjIxMjMyMTk5fQ.ldIgobBkjbyrHyz3W_2lTKuePPiF0d6JfpqnjMGQ8aIofD5RtQO4sGhxu-b1sZ4ybU_qqC5wZOauEdBEv4rvKQ"}</t>
+          <t>{"Authorization":"eyJhbGciOiJIUzUxMiJ9.eyJkYXRhIjp7ImZkZFRlbXBsYXRlSWQiOiJYWUZERDY3NzYwMzI2NTc1MzEyMzYzNTIiLCJpc1VwZGF0ZVB3ZCI6MCwibG9naW5UeXBlIjowLCJ1c2VyTG9naW5JZCI6NjU5Mzc0NjkwMTM1MzA4Mjg4MywibWVyY2hhbnRJZCI6IiIsInRhc2tVcmwiOiJodHRwczovL2Nkbi5sYXN0bWlsZXMuY24vYXBwcy82NzIyODEyMjM3NzQzNTk5NjE2LnBkZiIsInN5c05hbWUiOiLns7vnu5_mk43kvZzmiYvlhowtVjEuMCIsImlzTWFuYWdlciI6MSwiaXNBc3luY1JlcXVlc3QiOiJ0cnVlIiwic3lzVXJsIjoiaHR0cHM6Ly9jZG4ubGFzdG1pbGVzLmNuL2FwcHMvNjcyMjgxMTU2OTM5ODAzNDQzMi5wZGYiLCJ0YXNrTmFtZSI6IuWFheWAvOS7o-WPkeaTjeS9nOaJi-WGjC1WMS4wIiwibWVyY2hhbnRSYW5nZSI6MSwidXNlcm5hbWUiOiJBRE1pbiJ9LCJzdWIiOiI2NTkzNzQ2OTAxMzUzMDgyODgzIiwiZXhwIjoxNjIxMzEzNjExfQ.NwcBvfYCEo8Z-p_G1p0LSQC9Xtm_J1zwTDg2CMZdkWVLlAztrVohs4IJ5vU_0wShzn2qqnLbQWQ3A506gz-Keg"}</t>
         </is>
       </c>
       <c r="F5" s="3" t="inlineStr">
@@ -1299,6 +1310,16 @@
       <c r="G5" s="3" t="inlineStr">
         <is>
           <t>{"pageNum":"1","pageSize":"15","startDate":"","endDate":"","merchantId":"","orderNo":"","payee":"","status":"0","type":"1","payType":"","orderBy":""}</t>
+        </is>
+      </c>
+      <c r="H5" s="7" t="inlineStr">
+        <is>
+          <t>pass</t>
+        </is>
+      </c>
+      <c r="J5" s="8" t="inlineStr">
+        <is>
+          <t>bin</t>
         </is>
       </c>
     </row>
@@ -1325,7 +1346,7 @@
       </c>
       <c r="E6" s="0" t="inlineStr">
         <is>
-          <t>{"Authorization":"eyJhbGciOiJIUzUxMiJ9.eyJkYXRhIjp7ImZkZFRlbXBsYXRlSWQiOiJYWUZERDY3NzYwMzI2NTc1MzEyMzYzNTIiLCJpc1VwZGF0ZVB3ZCI6MCwibG9naW5UeXBlIjowLCJ1c2VyTG9naW5JZCI6NjU5Mzc0NjkwMTM1MzA4Mjg4MywibWVyY2hhbnRJZCI6IiIsInRhc2tVcmwiOiJodHRwczovL2Nkbi5sYXN0bWlsZXMuY24vYXBwcy82NzIyODEyMjM3NzQzNTk5NjE2LnBkZiIsInN5c05hbWUiOiLns7vnu5_mk43kvZzmiYvlhowtVjEuMCIsImlzTWFuYWdlciI6MSwiaXNBc3luY1JlcXVlc3QiOiJ0cnVlIiwic3lzVXJsIjoiaHR0cHM6Ly9jZG4ubGFzdG1pbGVzLmNuL2FwcHMvNjcyMjgxMTU2OTM5ODAzNDQzMi5wZGYiLCJ0YXNrTmFtZSI6IuWFheWAvOS7o-WPkeaTjeS9nOaJi-WGjC1WMS4wIiwibWVyY2hhbnRSYW5nZSI6MSwidXNlcm5hbWUiOiJBRE1pbiJ9LCJzdWIiOiI2NTkzNzQ2OTAxMzUzMDgyODgzIiwiZXhwIjoxNjIxMjMyMTk5fQ.ldIgobBkjbyrHyz3W_2lTKuePPiF0d6JfpqnjMGQ8aIofD5RtQO4sGhxu-b1sZ4ybU_qqC5wZOauEdBEv4rvKQ"}</t>
+          <t>{"Authorization":"eyJhbGciOiJIUzUxMiJ9.eyJkYXRhIjp7ImZkZFRlbXBsYXRlSWQiOiJYWUZERDY3NzYwMzI2NTc1MzEyMzYzNTIiLCJpc1VwZGF0ZVB3ZCI6MCwibG9naW5UeXBlIjowLCJ1c2VyTG9naW5JZCI6NjU5Mzc0NjkwMTM1MzA4Mjg4MywibWVyY2hhbnRJZCI6IiIsInRhc2tVcmwiOiJodHRwczovL2Nkbi5sYXN0bWlsZXMuY24vYXBwcy82NzIyODEyMjM3NzQzNTk5NjE2LnBkZiIsInN5c05hbWUiOiLns7vnu5_mk43kvZzmiYvlhowtVjEuMCIsImlzTWFuYWdlciI6MSwiaXNBc3luY1JlcXVlc3QiOiJ0cnVlIiwic3lzVXJsIjoiaHR0cHM6Ly9jZG4ubGFzdG1pbGVzLmNuL2FwcHMvNjcyMjgxMTU2OTM5ODAzNDQzMi5wZGYiLCJ0YXNrTmFtZSI6IuWFheWAvOS7o-WPkeaTjeS9nOaJi-WGjC1WMS4wIiwibWVyY2hhbnRSYW5nZSI6MSwidXNlcm5hbWUiOiJBRE1pbiJ9LCJzdWIiOiI2NTkzNzQ2OTAxMzUzMDgyODgzIiwiZXhwIjoxNjIxMzEzNjExfQ.NwcBvfYCEo8Z-p_G1p0LSQC9Xtm_J1zwTDg2CMZdkWVLlAztrVohs4IJ5vU_0wShzn2qqnLbQWQ3A506gz-Keg"}</t>
         </is>
       </c>
       <c r="F6" s="3" t="inlineStr">
@@ -1362,7 +1383,7 @@
       </c>
       <c r="E7" s="0" t="inlineStr">
         <is>
-          <t>{"Authorization":"eyJhbGciOiJIUzUxMiJ9.eyJkYXRhIjp7ImZkZFRlbXBsYXRlSWQiOiJYWUZERDY3NzYwMzI2NTc1MzEyMzYzNTIiLCJpc1VwZGF0ZVB3ZCI6MCwibG9naW5UeXBlIjowLCJ1c2VyTG9naW5JZCI6NjU5Mzc0NjkwMTM1MzA4Mjg4MywibWVyY2hhbnRJZCI6IiIsInRhc2tVcmwiOiJodHRwczovL2Nkbi5sYXN0bWlsZXMuY24vYXBwcy82NzIyODEyMjM3NzQzNTk5NjE2LnBkZiIsInN5c05hbWUiOiLns7vnu5_mk43kvZzmiYvlhowtVjEuMCIsImlzTWFuYWdlciI6MSwiaXNBc3luY1JlcXVlc3QiOiJ0cnVlIiwic3lzVXJsIjoiaHR0cHM6Ly9jZG4ubGFzdG1pbGVzLmNuL2FwcHMvNjcyMjgxMTU2OTM5ODAzNDQzMi5wZGYiLCJ0YXNrTmFtZSI6IuWFheWAvOS7o-WPkeaTjeS9nOaJi-WGjC1WMS4wIiwibWVyY2hhbnRSYW5nZSI6MSwidXNlcm5hbWUiOiJBRE1pbiJ9LCJzdWIiOiI2NTkzNzQ2OTAxMzUzMDgyODgzIiwiZXhwIjoxNjIxMjMyMTk5fQ.ldIgobBkjbyrHyz3W_2lTKuePPiF0d6JfpqnjMGQ8aIofD5RtQO4sGhxu-b1sZ4ybU_qqC5wZOauEdBEv4rvKQ"}</t>
+          <t>{"Authorization":"eyJhbGciOiJIUzUxMiJ9.eyJkYXRhIjp7ImZkZFRlbXBsYXRlSWQiOiJYWUZERDY3NzYwMzI2NTc1MzEyMzYzNTIiLCJpc1VwZGF0ZVB3ZCI6MCwibG9naW5UeXBlIjowLCJ1c2VyTG9naW5JZCI6NjU5Mzc0NjkwMTM1MzA4Mjg4MywibWVyY2hhbnRJZCI6IiIsInRhc2tVcmwiOiJodHRwczovL2Nkbi5sYXN0bWlsZXMuY24vYXBwcy82NzIyODEyMjM3NzQzNTk5NjE2LnBkZiIsInN5c05hbWUiOiLns7vnu5_mk43kvZzmiYvlhowtVjEuMCIsImlzTWFuYWdlciI6MSwiaXNBc3luY1JlcXVlc3QiOiJ0cnVlIiwic3lzVXJsIjoiaHR0cHM6Ly9jZG4ubGFzdG1pbGVzLmNuL2FwcHMvNjcyMjgxMTU2OTM5ODAzNDQzMi5wZGYiLCJ0YXNrTmFtZSI6IuWFheWAvOS7o-WPkeaTjeS9nOaJi-WGjC1WMS4wIiwibWVyY2hhbnRSYW5nZSI6MSwidXNlcm5hbWUiOiJBRE1pbiJ9LCJzdWIiOiI2NTkzNzQ2OTAxMzUzMDgyODgzIiwiZXhwIjoxNjIxMzEzNjExfQ.NwcBvfYCEo8Z-p_G1p0LSQC9Xtm_J1zwTDg2CMZdkWVLlAztrVohs4IJ5vU_0wShzn2qqnLbQWQ3A506gz-Keg"}</t>
         </is>
       </c>
       <c r="F7" s="3" t="inlineStr">
@@ -1399,7 +1420,7 @@
       </c>
       <c r="E8" s="0" t="inlineStr">
         <is>
-          <t>{"Authorization":"eyJhbGciOiJIUzUxMiJ9.eyJkYXRhIjp7ImZkZFRlbXBsYXRlSWQiOiJYWUZERDY3NzYwMzI2NTc1MzEyMzYzNTIiLCJpc1VwZGF0ZVB3ZCI6MCwibG9naW5UeXBlIjowLCJ1c2VyTG9naW5JZCI6NjU5Mzc0NjkwMTM1MzA4Mjg4MywibWVyY2hhbnRJZCI6IiIsInRhc2tVcmwiOiJodHRwczovL2Nkbi5sYXN0bWlsZXMuY24vYXBwcy82NzIyODEyMjM3NzQzNTk5NjE2LnBkZiIsInN5c05hbWUiOiLns7vnu5_mk43kvZzmiYvlhowtVjEuMCIsImlzTWFuYWdlciI6MSwiaXNBc3luY1JlcXVlc3QiOiJ0cnVlIiwic3lzVXJsIjoiaHR0cHM6Ly9jZG4ubGFzdG1pbGVzLmNuL2FwcHMvNjcyMjgxMTU2OTM5ODAzNDQzMi5wZGYiLCJ0YXNrTmFtZSI6IuWFheWAvOS7o-WPkeaTjeS9nOaJi-WGjC1WMS4wIiwibWVyY2hhbnRSYW5nZSI6MSwidXNlcm5hbWUiOiJBRE1pbiJ9LCJzdWIiOiI2NTkzNzQ2OTAxMzUzMDgyODgzIiwiZXhwIjoxNjIxMjMyMTk5fQ.ldIgobBkjbyrHyz3W_2lTKuePPiF0d6JfpqnjMGQ8aIofD5RtQO4sGhxu-b1sZ4ybU_qqC5wZOauEdBEv4rvKQ"}</t>
+          <t>{"Authorization":"eyJhbGciOiJIUzUxMiJ9.eyJkYXRhIjp7ImZkZFRlbXBsYXRlSWQiOiJYWUZERDY3NzYwMzI2NTc1MzEyMzYzNTIiLCJpc1VwZGF0ZVB3ZCI6MCwibG9naW5UeXBlIjowLCJ1c2VyTG9naW5JZCI6NjU5Mzc0NjkwMTM1MzA4Mjg4MywibWVyY2hhbnRJZCI6IiIsInRhc2tVcmwiOiJodHRwczovL2Nkbi5sYXN0bWlsZXMuY24vYXBwcy82NzIyODEyMjM3NzQzNTk5NjE2LnBkZiIsInN5c05hbWUiOiLns7vnu5_mk43kvZzmiYvlhowtVjEuMCIsImlzTWFuYWdlciI6MSwiaXNBc3luY1JlcXVlc3QiOiJ0cnVlIiwic3lzVXJsIjoiaHR0cHM6Ly9jZG4ubGFzdG1pbGVzLmNuL2FwcHMvNjcyMjgxMTU2OTM5ODAzNDQzMi5wZGYiLCJ0YXNrTmFtZSI6IuWFheWAvOS7o-WPkeaTjeS9nOaJi-WGjC1WMS4wIiwibWVyY2hhbnRSYW5nZSI6MSwidXNlcm5hbWUiOiJBRE1pbiJ9LCJzdWIiOiI2NTkzNzQ2OTAxMzUzMDgyODgzIiwiZXhwIjoxNjIxMzEzNjExfQ.NwcBvfYCEo8Z-p_G1p0LSQC9Xtm_J1zwTDg2CMZdkWVLlAztrVohs4IJ5vU_0wShzn2qqnLbQWQ3A506gz-Keg"}</t>
         </is>
       </c>
       <c r="F8" s="3" t="inlineStr">
@@ -1436,7 +1457,7 @@
       </c>
       <c r="E9" s="0" t="inlineStr">
         <is>
-          <t>{"Authorization":"eyJhbGciOiJIUzUxMiJ9.eyJkYXRhIjp7ImZkZFRlbXBsYXRlSWQiOiJYWUZERDY3NzYwMzI2NTc1MzEyMzYzNTIiLCJpc1VwZGF0ZVB3ZCI6MCwibG9naW5UeXBlIjowLCJ1c2VyTG9naW5JZCI6NjU5Mzc0NjkwMTM1MzA4Mjg4MywibWVyY2hhbnRJZCI6IiIsInRhc2tVcmwiOiJodHRwczovL2Nkbi5sYXN0bWlsZXMuY24vYXBwcy82NzIyODEyMjM3NzQzNTk5NjE2LnBkZiIsInN5c05hbWUiOiLns7vnu5_mk43kvZzmiYvlhowtVjEuMCIsImlzTWFuYWdlciI6MSwiaXNBc3luY1JlcXVlc3QiOiJ0cnVlIiwic3lzVXJsIjoiaHR0cHM6Ly9jZG4ubGFzdG1pbGVzLmNuL2FwcHMvNjcyMjgxMTU2OTM5ODAzNDQzMi5wZGYiLCJ0YXNrTmFtZSI6IuWFheWAvOS7o-WPkeaTjeS9nOaJi-WGjC1WMS4wIiwibWVyY2hhbnRSYW5nZSI6MSwidXNlcm5hbWUiOiJBRE1pbiJ9LCJzdWIiOiI2NTkzNzQ2OTAxMzUzMDgyODgzIiwiZXhwIjoxNjIxMjMyMTk5fQ.ldIgobBkjbyrHyz3W_2lTKuePPiF0d6JfpqnjMGQ8aIofD5RtQO4sGhxu-b1sZ4ybU_qqC5wZOauEdBEv4rvKQ"}</t>
+          <t>{"Authorization":"eyJhbGciOiJIUzUxMiJ9.eyJkYXRhIjp7ImZkZFRlbXBsYXRlSWQiOiJYWUZERDY3NzYwMzI2NTc1MzEyMzYzNTIiLCJpc1VwZGF0ZVB3ZCI6MCwibG9naW5UeXBlIjowLCJ1c2VyTG9naW5JZCI6NjU5Mzc0NjkwMTM1MzA4Mjg4MywibWVyY2hhbnRJZCI6IiIsInRhc2tVcmwiOiJodHRwczovL2Nkbi5sYXN0bWlsZXMuY24vYXBwcy82NzIyODEyMjM3NzQzNTk5NjE2LnBkZiIsInN5c05hbWUiOiLns7vnu5_mk43kvZzmiYvlhowtVjEuMCIsImlzTWFuYWdlciI6MSwiaXNBc3luY1JlcXVlc3QiOiJ0cnVlIiwic3lzVXJsIjoiaHR0cHM6Ly9jZG4ubGFzdG1pbGVzLmNuL2FwcHMvNjcyMjgxMTU2OTM5ODAzNDQzMi5wZGYiLCJ0YXNrTmFtZSI6IuWFheWAvOS7o-WPkeaTjeS9nOaJi-WGjC1WMS4wIiwibWVyY2hhbnRSYW5nZSI6MSwidXNlcm5hbWUiOiJBRE1pbiJ9LCJzdWIiOiI2NTkzNzQ2OTAxMzUzMDgyODgzIiwiZXhwIjoxNjIxMzEzNjExfQ.NwcBvfYCEo8Z-p_G1p0LSQC9Xtm_J1zwTDg2CMZdkWVLlAztrVohs4IJ5vU_0wShzn2qqnLbQWQ3A506gz-Keg"}</t>
         </is>
       </c>
       <c r="F9" s="3" t="inlineStr">
@@ -1475,7 +1496,7 @@
       </c>
       <c r="E10" s="0" t="inlineStr">
         <is>
-          <t>{"Authorization":"eyJhbGciOiJIUzUxMiJ9.eyJkYXRhIjp7ImZkZFRlbXBsYXRlSWQiOiJYWUZERDY3NzYwMzI2NTc1MzEyMzYzNTIiLCJpc1VwZGF0ZVB3ZCI6MCwibG9naW5UeXBlIjowLCJ1c2VyTG9naW5JZCI6NjU5Mzc0NjkwMTM1MzA4Mjg4MywibWVyY2hhbnRJZCI6IiIsInRhc2tVcmwiOiJodHRwczovL2Nkbi5sYXN0bWlsZXMuY24vYXBwcy82NzIyODEyMjM3NzQzNTk5NjE2LnBkZiIsInN5c05hbWUiOiLns7vnu5_mk43kvZzmiYvlhowtVjEuMCIsImlzTWFuYWdlciI6MSwiaXNBc3luY1JlcXVlc3QiOiJ0cnVlIiwic3lzVXJsIjoiaHR0cHM6Ly9jZG4ubGFzdG1pbGVzLmNuL2FwcHMvNjcyMjgxMTU2OTM5ODAzNDQzMi5wZGYiLCJ0YXNrTmFtZSI6IuWFheWAvOS7o-WPkeaTjeS9nOaJi-WGjC1WMS4wIiwibWVyY2hhbnRSYW5nZSI6MSwidXNlcm5hbWUiOiJBRE1pbiJ9LCJzdWIiOiI2NTkzNzQ2OTAxMzUzMDgyODgzIiwiZXhwIjoxNjIxMjMyMTk5fQ.ldIgobBkjbyrHyz3W_2lTKuePPiF0d6JfpqnjMGQ8aIofD5RtQO4sGhxu-b1sZ4ybU_qqC5wZOauEdBEv4rvKQ"}</t>
+          <t>{"Authorization":"eyJhbGciOiJIUzUxMiJ9.eyJkYXRhIjp7ImZkZFRlbXBsYXRlSWQiOiJYWUZERDY3NzYwMzI2NTc1MzEyMzYzNTIiLCJpc1VwZGF0ZVB3ZCI6MCwibG9naW5UeXBlIjowLCJ1c2VyTG9naW5JZCI6NjU5Mzc0NjkwMTM1MzA4Mjg4MywibWVyY2hhbnRJZCI6IiIsInRhc2tVcmwiOiJodHRwczovL2Nkbi5sYXN0bWlsZXMuY24vYXBwcy82NzIyODEyMjM3NzQzNTk5NjE2LnBkZiIsInN5c05hbWUiOiLns7vnu5_mk43kvZzmiYvlhowtVjEuMCIsImlzTWFuYWdlciI6MSwiaXNBc3luY1JlcXVlc3QiOiJ0cnVlIiwic3lzVXJsIjoiaHR0cHM6Ly9jZG4ubGFzdG1pbGVzLmNuL2FwcHMvNjcyMjgxMTU2OTM5ODAzNDQzMi5wZGYiLCJ0YXNrTmFtZSI6IuWFheWAvOS7o-WPkeaTjeS9nOaJi-WGjC1WMS4wIiwibWVyY2hhbnRSYW5nZSI6MSwidXNlcm5hbWUiOiJBRE1pbiJ9LCJzdWIiOiI2NTkzNzQ2OTAxMzUzMDgyODgzIiwiZXhwIjoxNjIxMzEzNjExfQ.NwcBvfYCEo8Z-p_G1p0LSQC9Xtm_J1zwTDg2CMZdkWVLlAztrVohs4IJ5vU_0wShzn2qqnLbQWQ3A506gz-Keg"}</t>
         </is>
       </c>
       <c r="G10" s="3" t="inlineStr">

--- a/config/测试结果表格.xlsx
+++ b/config/测试结果表格.xlsx
@@ -1174,7 +1174,7 @@
       </c>
       <c r="E2" s="0" t="inlineStr">
         <is>
-          <t>{"Authorization":"eyJhbGciOiJIUzUxMiJ9.eyJkYXRhIjp7ImZkZFRlbXBsYXRlSWQiOiJYWUZERDY3NzYwMzI2NTc1MzEyMzYzNTIiLCJpc1VwZGF0ZVB3ZCI6MCwibG9naW5UeXBlIjowLCJ1c2VyTG9naW5JZCI6NjU5Mzc0NjkwMTM1MzA4Mjg4MywibWVyY2hhbnRJZCI6IiIsInRhc2tVcmwiOiJodHRwczovL2Nkbi5sYXN0bWlsZXMuY24vYXBwcy82NzIyODEyMjM3NzQzNTk5NjE2LnBkZiIsInN5c05hbWUiOiLns7vnu5_mk43kvZzmiYvlhowtVjEuMCIsImlzTWFuYWdlciI6MSwiaXNBc3luY1JlcXVlc3QiOiJ0cnVlIiwic3lzVXJsIjoiaHR0cHM6Ly9jZG4ubGFzdG1pbGVzLmNuL2FwcHMvNjcyMjgxMTU2OTM5ODAzNDQzMi5wZGYiLCJ0YXNrTmFtZSI6IuWFheWAvOS7o-WPkeaTjeS9nOaJi-WGjC1WMS4wIiwibWVyY2hhbnRSYW5nZSI6MSwidXNlcm5hbWUiOiJBRE1pbiJ9LCJzdWIiOiI2NTkzNzQ2OTAxMzUzMDgyODgzIiwiZXhwIjoxNjIxMzEzNjExfQ.NwcBvfYCEo8Z-p_G1p0LSQC9Xtm_J1zwTDg2CMZdkWVLlAztrVohs4IJ5vU_0wShzn2qqnLbQWQ3A506gz-Keg"}</t>
+          <t>{"Authorization":"eyJhbGciOiJIUzUxMiJ9.eyJkYXRhIjp7ImZkZFRlbXBsYXRlSWQiOiJYWUZERDY3NzYwMzI2NTc1MzEyMzYzNTIiLCJpc1VwZGF0ZVB3ZCI6MCwibG9naW5UeXBlIjowLCJ1c2VyTG9naW5JZCI6NjU5Mzc0NjkwMTM1MzA4Mjg4MywibWVyY2hhbnRJZCI6IiIsInRhc2tVcmwiOiJodHRwczovL2Nkbi5sYXN0bWlsZXMuY24vYXBwcy82NzIyODEyMjM3NzQzNTk5NjE2LnBkZiIsInN5c05hbWUiOiLns7vnu5_mk43kvZzmiYvlhowtVjEuMCIsImlzTWFuYWdlciI6MSwiaXNBc3luY1JlcXVlc3QiOiJ0cnVlIiwic3lzVXJsIjoiaHR0cHM6Ly9jZG4ubGFzdG1pbGVzLmNuL2FwcHMvNjcyMjgxMTU2OTM5ODAzNDQzMi5wZGYiLCJ0YXNrTmFtZSI6IuWFheWAvOS7o-WPkeaTjeS9nOaJi-WGjC1WMS4wIiwibWVyY2hhbnRSYW5nZSI6MSwidXNlcm5hbWUiOiJBRE1pbiJ9LCJzdWIiOiI2NTkzNzQ2OTAxMzUzMDgyODgzIiwiZXhwIjoxNjIxMzE2OTYxfQ.Ycm3m_CgSvEJvNxKBu0Ft-pEN3V47BZIPS1Kb1BQMprUa0dCU6EecZJtUHM4nd8NfGt1LitAd41UervL7AF6rA"}</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -1185,6 +1185,16 @@
       <c r="G2" s="3" t="inlineStr">
         <is>
           <t>{"pageNum":"1","pageSize":"15","merchantId":"","startDate":"2020-12","endDate":"2020-12","taxpayer":"","status":"0","type":"3","order":"2","businessNo":"","amountRangeJson":"[]"}</t>
+        </is>
+      </c>
+      <c r="H2" s="7" t="inlineStr">
+        <is>
+          <t>pass</t>
+        </is>
+      </c>
+      <c r="J2" s="8" t="inlineStr">
+        <is>
+          <t>bin</t>
         </is>
       </c>
       <c r="N2" s="6" t="n"/>
@@ -1213,7 +1223,7 @@
       </c>
       <c r="E3" s="0" t="inlineStr">
         <is>
-          <t>{"Authorization":"eyJhbGciOiJIUzUxMiJ9.eyJkYXRhIjp7ImZkZFRlbXBsYXRlSWQiOiJYWUZERDY3NzYwMzI2NTc1MzEyMzYzNTIiLCJpc1VwZGF0ZVB3ZCI6MCwibG9naW5UeXBlIjowLCJ1c2VyTG9naW5JZCI6NjU5Mzc0NjkwMTM1MzA4Mjg4MywibWVyY2hhbnRJZCI6IiIsInRhc2tVcmwiOiJodHRwczovL2Nkbi5sYXN0bWlsZXMuY24vYXBwcy82NzIyODEyMjM3NzQzNTk5NjE2LnBkZiIsInN5c05hbWUiOiLns7vnu5_mk43kvZzmiYvlhowtVjEuMCIsImlzTWFuYWdlciI6MSwiaXNBc3luY1JlcXVlc3QiOiJ0cnVlIiwic3lzVXJsIjoiaHR0cHM6Ly9jZG4ubGFzdG1pbGVzLmNuL2FwcHMvNjcyMjgxMTU2OTM5ODAzNDQzMi5wZGYiLCJ0YXNrTmFtZSI6IuWFheWAvOS7o-WPkeaTjeS9nOaJi-WGjC1WMS4wIiwibWVyY2hhbnRSYW5nZSI6MSwidXNlcm5hbWUiOiJBRE1pbiJ9LCJzdWIiOiI2NTkzNzQ2OTAxMzUzMDgyODgzIiwiZXhwIjoxNjIxMzEzNjExfQ.NwcBvfYCEo8Z-p_G1p0LSQC9Xtm_J1zwTDg2CMZdkWVLlAztrVohs4IJ5vU_0wShzn2qqnLbQWQ3A506gz-Keg"}</t>
+          <t>{"Authorization":"eyJhbGciOiJIUzUxMiJ9.eyJkYXRhIjp7ImZkZFRlbXBsYXRlSWQiOiJYWUZERDY3NzYwMzI2NTc1MzEyMzYzNTIiLCJpc1VwZGF0ZVB3ZCI6MCwibG9naW5UeXBlIjowLCJ1c2VyTG9naW5JZCI6NjU5Mzc0NjkwMTM1MzA4Mjg4MywibWVyY2hhbnRJZCI6IiIsInRhc2tVcmwiOiJodHRwczovL2Nkbi5sYXN0bWlsZXMuY24vYXBwcy82NzIyODEyMjM3NzQzNTk5NjE2LnBkZiIsInN5c05hbWUiOiLns7vnu5_mk43kvZzmiYvlhowtVjEuMCIsImlzTWFuYWdlciI6MSwiaXNBc3luY1JlcXVlc3QiOiJ0cnVlIiwic3lzVXJsIjoiaHR0cHM6Ly9jZG4ubGFzdG1pbGVzLmNuL2FwcHMvNjcyMjgxMTU2OTM5ODAzNDQzMi5wZGYiLCJ0YXNrTmFtZSI6IuWFheWAvOS7o-WPkeaTjeS9nOaJi-WGjC1WMS4wIiwibWVyY2hhbnRSYW5nZSI6MSwidXNlcm5hbWUiOiJBRE1pbiJ9LCJzdWIiOiI2NTkzNzQ2OTAxMzUzMDgyODgzIiwiZXhwIjoxNjIxMzE2OTYxfQ.Ycm3m_CgSvEJvNxKBu0Ft-pEN3V47BZIPS1Kb1BQMprUa0dCU6EecZJtUHM4nd8NfGt1LitAd41UervL7AF6rA"}</t>
         </is>
       </c>
       <c r="F3" s="3" t="inlineStr">
@@ -1252,7 +1262,7 @@
       </c>
       <c r="E4" s="0" t="inlineStr">
         <is>
-          <t>{"Authorization":"eyJhbGciOiJIUzUxMiJ9.eyJkYXRhIjp7ImZkZFRlbXBsYXRlSWQiOiJYWUZERDY3NzYwMzI2NTc1MzEyMzYzNTIiLCJpc1VwZGF0ZVB3ZCI6MCwibG9naW5UeXBlIjowLCJ1c2VyTG9naW5JZCI6NjU5Mzc0NjkwMTM1MzA4Mjg4MywibWVyY2hhbnRJZCI6IiIsInRhc2tVcmwiOiJodHRwczovL2Nkbi5sYXN0bWlsZXMuY24vYXBwcy82NzIyODEyMjM3NzQzNTk5NjE2LnBkZiIsInN5c05hbWUiOiLns7vnu5_mk43kvZzmiYvlhowtVjEuMCIsImlzTWFuYWdlciI6MSwiaXNBc3luY1JlcXVlc3QiOiJ0cnVlIiwic3lzVXJsIjoiaHR0cHM6Ly9jZG4ubGFzdG1pbGVzLmNuL2FwcHMvNjcyMjgxMTU2OTM5ODAzNDQzMi5wZGYiLCJ0YXNrTmFtZSI6IuWFheWAvOS7o-WPkeaTjeS9nOaJi-WGjC1WMS4wIiwibWVyY2hhbnRSYW5nZSI6MSwidXNlcm5hbWUiOiJBRE1pbiJ9LCJzdWIiOiI2NTkzNzQ2OTAxMzUzMDgyODgzIiwiZXhwIjoxNjIxMzEzNjExfQ.NwcBvfYCEo8Z-p_G1p0LSQC9Xtm_J1zwTDg2CMZdkWVLlAztrVohs4IJ5vU_0wShzn2qqnLbQWQ3A506gz-Keg"}</t>
+          <t>{"Authorization":"eyJhbGciOiJIUzUxMiJ9.eyJkYXRhIjp7ImZkZFRlbXBsYXRlSWQiOiJYWUZERDY3NzYwMzI2NTc1MzEyMzYzNTIiLCJpc1VwZGF0ZVB3ZCI6MCwibG9naW5UeXBlIjowLCJ1c2VyTG9naW5JZCI6NjU5Mzc0NjkwMTM1MzA4Mjg4MywibWVyY2hhbnRJZCI6IiIsInRhc2tVcmwiOiJodHRwczovL2Nkbi5sYXN0bWlsZXMuY24vYXBwcy82NzIyODEyMjM3NzQzNTk5NjE2LnBkZiIsInN5c05hbWUiOiLns7vnu5_mk43kvZzmiYvlhowtVjEuMCIsImlzTWFuYWdlciI6MSwiaXNBc3luY1JlcXVlc3QiOiJ0cnVlIiwic3lzVXJsIjoiaHR0cHM6Ly9jZG4ubGFzdG1pbGVzLmNuL2FwcHMvNjcyMjgxMTU2OTM5ODAzNDQzMi5wZGYiLCJ0YXNrTmFtZSI6IuWFheWAvOS7o-WPkeaTjeS9nOaJi-WGjC1WMS4wIiwibWVyY2hhbnRSYW5nZSI6MSwidXNlcm5hbWUiOiJBRE1pbiJ9LCJzdWIiOiI2NTkzNzQ2OTAxMzUzMDgyODgzIiwiZXhwIjoxNjIxMzE2OTYxfQ.Ycm3m_CgSvEJvNxKBu0Ft-pEN3V47BZIPS1Kb1BQMprUa0dCU6EecZJtUHM4nd8NfGt1LitAd41UervL7AF6rA"}</t>
         </is>
       </c>
       <c r="F4" s="3" t="inlineStr">
@@ -1299,7 +1309,7 @@
       </c>
       <c r="E5" s="0" t="inlineStr">
         <is>
-          <t>{"Authorization":"eyJhbGciOiJIUzUxMiJ9.eyJkYXRhIjp7ImZkZFRlbXBsYXRlSWQiOiJYWUZERDY3NzYwMzI2NTc1MzEyMzYzNTIiLCJpc1VwZGF0ZVB3ZCI6MCwibG9naW5UeXBlIjowLCJ1c2VyTG9naW5JZCI6NjU5Mzc0NjkwMTM1MzA4Mjg4MywibWVyY2hhbnRJZCI6IiIsInRhc2tVcmwiOiJodHRwczovL2Nkbi5sYXN0bWlsZXMuY24vYXBwcy82NzIyODEyMjM3NzQzNTk5NjE2LnBkZiIsInN5c05hbWUiOiLns7vnu5_mk43kvZzmiYvlhowtVjEuMCIsImlzTWFuYWdlciI6MSwiaXNBc3luY1JlcXVlc3QiOiJ0cnVlIiwic3lzVXJsIjoiaHR0cHM6Ly9jZG4ubGFzdG1pbGVzLmNuL2FwcHMvNjcyMjgxMTU2OTM5ODAzNDQzMi5wZGYiLCJ0YXNrTmFtZSI6IuWFheWAvOS7o-WPkeaTjeS9nOaJi-WGjC1WMS4wIiwibWVyY2hhbnRSYW5nZSI6MSwidXNlcm5hbWUiOiJBRE1pbiJ9LCJzdWIiOiI2NTkzNzQ2OTAxMzUzMDgyODgzIiwiZXhwIjoxNjIxMzEzNjExfQ.NwcBvfYCEo8Z-p_G1p0LSQC9Xtm_J1zwTDg2CMZdkWVLlAztrVohs4IJ5vU_0wShzn2qqnLbQWQ3A506gz-Keg"}</t>
+          <t>{"Authorization":"eyJhbGciOiJIUzUxMiJ9.eyJkYXRhIjp7ImZkZFRlbXBsYXRlSWQiOiJYWUZERDY3NzYwMzI2NTc1MzEyMzYzNTIiLCJpc1VwZGF0ZVB3ZCI6MCwibG9naW5UeXBlIjowLCJ1c2VyTG9naW5JZCI6NjU5Mzc0NjkwMTM1MzA4Mjg4MywibWVyY2hhbnRJZCI6IiIsInRhc2tVcmwiOiJodHRwczovL2Nkbi5sYXN0bWlsZXMuY24vYXBwcy82NzIyODEyMjM3NzQzNTk5NjE2LnBkZiIsInN5c05hbWUiOiLns7vnu5_mk43kvZzmiYvlhowtVjEuMCIsImlzTWFuYWdlciI6MSwiaXNBc3luY1JlcXVlc3QiOiJ0cnVlIiwic3lzVXJsIjoiaHR0cHM6Ly9jZG4ubGFzdG1pbGVzLmNuL2FwcHMvNjcyMjgxMTU2OTM5ODAzNDQzMi5wZGYiLCJ0YXNrTmFtZSI6IuWFheWAvOS7o-WPkeaTjeS9nOaJi-WGjC1WMS4wIiwibWVyY2hhbnRSYW5nZSI6MSwidXNlcm5hbWUiOiJBRE1pbiJ9LCJzdWIiOiI2NTkzNzQ2OTAxMzUzMDgyODgzIiwiZXhwIjoxNjIxMzE2OTYxfQ.Ycm3m_CgSvEJvNxKBu0Ft-pEN3V47BZIPS1Kb1BQMprUa0dCU6EecZJtUHM4nd8NfGt1LitAd41UervL7AF6rA"}</t>
         </is>
       </c>
       <c r="F5" s="3" t="inlineStr">
@@ -1346,7 +1356,7 @@
       </c>
       <c r="E6" s="0" t="inlineStr">
         <is>
-          <t>{"Authorization":"eyJhbGciOiJIUzUxMiJ9.eyJkYXRhIjp7ImZkZFRlbXBsYXRlSWQiOiJYWUZERDY3NzYwMzI2NTc1MzEyMzYzNTIiLCJpc1VwZGF0ZVB3ZCI6MCwibG9naW5UeXBlIjowLCJ1c2VyTG9naW5JZCI6NjU5Mzc0NjkwMTM1MzA4Mjg4MywibWVyY2hhbnRJZCI6IiIsInRhc2tVcmwiOiJodHRwczovL2Nkbi5sYXN0bWlsZXMuY24vYXBwcy82NzIyODEyMjM3NzQzNTk5NjE2LnBkZiIsInN5c05hbWUiOiLns7vnu5_mk43kvZzmiYvlhowtVjEuMCIsImlzTWFuYWdlciI6MSwiaXNBc3luY1JlcXVlc3QiOiJ0cnVlIiwic3lzVXJsIjoiaHR0cHM6Ly9jZG4ubGFzdG1pbGVzLmNuL2FwcHMvNjcyMjgxMTU2OTM5ODAzNDQzMi5wZGYiLCJ0YXNrTmFtZSI6IuWFheWAvOS7o-WPkeaTjeS9nOaJi-WGjC1WMS4wIiwibWVyY2hhbnRSYW5nZSI6MSwidXNlcm5hbWUiOiJBRE1pbiJ9LCJzdWIiOiI2NTkzNzQ2OTAxMzUzMDgyODgzIiwiZXhwIjoxNjIxMzEzNjExfQ.NwcBvfYCEo8Z-p_G1p0LSQC9Xtm_J1zwTDg2CMZdkWVLlAztrVohs4IJ5vU_0wShzn2qqnLbQWQ3A506gz-Keg"}</t>
+          <t>{"Authorization":"eyJhbGciOiJIUzUxMiJ9.eyJkYXRhIjp7ImZkZFRlbXBsYXRlSWQiOiJYWUZERDY3NzYwMzI2NTc1MzEyMzYzNTIiLCJpc1VwZGF0ZVB3ZCI6MCwibG9naW5UeXBlIjowLCJ1c2VyTG9naW5JZCI6NjU5Mzc0NjkwMTM1MzA4Mjg4MywibWVyY2hhbnRJZCI6IiIsInRhc2tVcmwiOiJodHRwczovL2Nkbi5sYXN0bWlsZXMuY24vYXBwcy82NzIyODEyMjM3NzQzNTk5NjE2LnBkZiIsInN5c05hbWUiOiLns7vnu5_mk43kvZzmiYvlhowtVjEuMCIsImlzTWFuYWdlciI6MSwiaXNBc3luY1JlcXVlc3QiOiJ0cnVlIiwic3lzVXJsIjoiaHR0cHM6Ly9jZG4ubGFzdG1pbGVzLmNuL2FwcHMvNjcyMjgxMTU2OTM5ODAzNDQzMi5wZGYiLCJ0YXNrTmFtZSI6IuWFheWAvOS7o-WPkeaTjeS9nOaJi-WGjC1WMS4wIiwibWVyY2hhbnRSYW5nZSI6MSwidXNlcm5hbWUiOiJBRE1pbiJ9LCJzdWIiOiI2NTkzNzQ2OTAxMzUzMDgyODgzIiwiZXhwIjoxNjIxMzE2OTYxfQ.Ycm3m_CgSvEJvNxKBu0Ft-pEN3V47BZIPS1Kb1BQMprUa0dCU6EecZJtUHM4nd8NfGt1LitAd41UervL7AF6rA"}</t>
         </is>
       </c>
       <c r="F6" s="3" t="inlineStr">
@@ -1357,6 +1367,16 @@
       <c r="G6" s="3" t="inlineStr">
         <is>
           <t>{"pageNum":"1","pageSize":"15","startDate":"","endDate":"","status":"0","merchantId":"","businessNo":"","isMerchant":"0"}</t>
+        </is>
+      </c>
+      <c r="H6" s="7" t="inlineStr">
+        <is>
+          <t>pass</t>
+        </is>
+      </c>
+      <c r="J6" s="8" t="inlineStr">
+        <is>
+          <t>bin</t>
         </is>
       </c>
     </row>
@@ -1383,7 +1403,7 @@
       </c>
       <c r="E7" s="0" t="inlineStr">
         <is>
-          <t>{"Authorization":"eyJhbGciOiJIUzUxMiJ9.eyJkYXRhIjp7ImZkZFRlbXBsYXRlSWQiOiJYWUZERDY3NzYwMzI2NTc1MzEyMzYzNTIiLCJpc1VwZGF0ZVB3ZCI6MCwibG9naW5UeXBlIjowLCJ1c2VyTG9naW5JZCI6NjU5Mzc0NjkwMTM1MzA4Mjg4MywibWVyY2hhbnRJZCI6IiIsInRhc2tVcmwiOiJodHRwczovL2Nkbi5sYXN0bWlsZXMuY24vYXBwcy82NzIyODEyMjM3NzQzNTk5NjE2LnBkZiIsInN5c05hbWUiOiLns7vnu5_mk43kvZzmiYvlhowtVjEuMCIsImlzTWFuYWdlciI6MSwiaXNBc3luY1JlcXVlc3QiOiJ0cnVlIiwic3lzVXJsIjoiaHR0cHM6Ly9jZG4ubGFzdG1pbGVzLmNuL2FwcHMvNjcyMjgxMTU2OTM5ODAzNDQzMi5wZGYiLCJ0YXNrTmFtZSI6IuWFheWAvOS7o-WPkeaTjeS9nOaJi-WGjC1WMS4wIiwibWVyY2hhbnRSYW5nZSI6MSwidXNlcm5hbWUiOiJBRE1pbiJ9LCJzdWIiOiI2NTkzNzQ2OTAxMzUzMDgyODgzIiwiZXhwIjoxNjIxMzEzNjExfQ.NwcBvfYCEo8Z-p_G1p0LSQC9Xtm_J1zwTDg2CMZdkWVLlAztrVohs4IJ5vU_0wShzn2qqnLbQWQ3A506gz-Keg"}</t>
+          <t>{"Authorization":"eyJhbGciOiJIUzUxMiJ9.eyJkYXRhIjp7ImZkZFRlbXBsYXRlSWQiOiJYWUZERDY3NzYwMzI2NTc1MzEyMzYzNTIiLCJpc1VwZGF0ZVB3ZCI6MCwibG9naW5UeXBlIjowLCJ1c2VyTG9naW5JZCI6NjU5Mzc0NjkwMTM1MzA4Mjg4MywibWVyY2hhbnRJZCI6IiIsInRhc2tVcmwiOiJodHRwczovL2Nkbi5sYXN0bWlsZXMuY24vYXBwcy82NzIyODEyMjM3NzQzNTk5NjE2LnBkZiIsInN5c05hbWUiOiLns7vnu5_mk43kvZzmiYvlhowtVjEuMCIsImlzTWFuYWdlciI6MSwiaXNBc3luY1JlcXVlc3QiOiJ0cnVlIiwic3lzVXJsIjoiaHR0cHM6Ly9jZG4ubGFzdG1pbGVzLmNuL2FwcHMvNjcyMjgxMTU2OTM5ODAzNDQzMi5wZGYiLCJ0YXNrTmFtZSI6IuWFheWAvOS7o-WPkeaTjeS9nOaJi-WGjC1WMS4wIiwibWVyY2hhbnRSYW5nZSI6MSwidXNlcm5hbWUiOiJBRE1pbiJ9LCJzdWIiOiI2NTkzNzQ2OTAxMzUzMDgyODgzIiwiZXhwIjoxNjIxMzE2OTYxfQ.Ycm3m_CgSvEJvNxKBu0Ft-pEN3V47BZIPS1Kb1BQMprUa0dCU6EecZJtUHM4nd8NfGt1LitAd41UervL7AF6rA"}</t>
         </is>
       </c>
       <c r="F7" s="3" t="inlineStr">
@@ -1394,6 +1414,16 @@
       <c r="G7" s="3" t="inlineStr">
         <is>
           <t>{"pageNum":"1","pageSize":"15","startDate":"","endDate":""}</t>
+        </is>
+      </c>
+      <c r="H7" s="7" t="inlineStr">
+        <is>
+          <t>pass</t>
+        </is>
+      </c>
+      <c r="J7" s="8" t="inlineStr">
+        <is>
+          <t>bin</t>
         </is>
       </c>
     </row>
@@ -1420,7 +1450,7 @@
       </c>
       <c r="E8" s="0" t="inlineStr">
         <is>
-          <t>{"Authorization":"eyJhbGciOiJIUzUxMiJ9.eyJkYXRhIjp7ImZkZFRlbXBsYXRlSWQiOiJYWUZERDY3NzYwMzI2NTc1MzEyMzYzNTIiLCJpc1VwZGF0ZVB3ZCI6MCwibG9naW5UeXBlIjowLCJ1c2VyTG9naW5JZCI6NjU5Mzc0NjkwMTM1MzA4Mjg4MywibWVyY2hhbnRJZCI6IiIsInRhc2tVcmwiOiJodHRwczovL2Nkbi5sYXN0bWlsZXMuY24vYXBwcy82NzIyODEyMjM3NzQzNTk5NjE2LnBkZiIsInN5c05hbWUiOiLns7vnu5_mk43kvZzmiYvlhowtVjEuMCIsImlzTWFuYWdlciI6MSwiaXNBc3luY1JlcXVlc3QiOiJ0cnVlIiwic3lzVXJsIjoiaHR0cHM6Ly9jZG4ubGFzdG1pbGVzLmNuL2FwcHMvNjcyMjgxMTU2OTM5ODAzNDQzMi5wZGYiLCJ0YXNrTmFtZSI6IuWFheWAvOS7o-WPkeaTjeS9nOaJi-WGjC1WMS4wIiwibWVyY2hhbnRSYW5nZSI6MSwidXNlcm5hbWUiOiJBRE1pbiJ9LCJzdWIiOiI2NTkzNzQ2OTAxMzUzMDgyODgzIiwiZXhwIjoxNjIxMzEzNjExfQ.NwcBvfYCEo8Z-p_G1p0LSQC9Xtm_J1zwTDg2CMZdkWVLlAztrVohs4IJ5vU_0wShzn2qqnLbQWQ3A506gz-Keg"}</t>
+          <t>{"Authorization":"eyJhbGciOiJIUzUxMiJ9.eyJkYXRhIjp7ImZkZFRlbXBsYXRlSWQiOiJYWUZERDY3NzYwMzI2NTc1MzEyMzYzNTIiLCJpc1VwZGF0ZVB3ZCI6MCwibG9naW5UeXBlIjowLCJ1c2VyTG9naW5JZCI6NjU5Mzc0NjkwMTM1MzA4Mjg4MywibWVyY2hhbnRJZCI6IiIsInRhc2tVcmwiOiJodHRwczovL2Nkbi5sYXN0bWlsZXMuY24vYXBwcy82NzIyODEyMjM3NzQzNTk5NjE2LnBkZiIsInN5c05hbWUiOiLns7vnu5_mk43kvZzmiYvlhowtVjEuMCIsImlzTWFuYWdlciI6MSwiaXNBc3luY1JlcXVlc3QiOiJ0cnVlIiwic3lzVXJsIjoiaHR0cHM6Ly9jZG4ubGFzdG1pbGVzLmNuL2FwcHMvNjcyMjgxMTU2OTM5ODAzNDQzMi5wZGYiLCJ0YXNrTmFtZSI6IuWFheWAvOS7o-WPkeaTjeS9nOaJi-WGjC1WMS4wIiwibWVyY2hhbnRSYW5nZSI6MSwidXNlcm5hbWUiOiJBRE1pbiJ9LCJzdWIiOiI2NTkzNzQ2OTAxMzUzMDgyODgzIiwiZXhwIjoxNjIxMzE2OTYxfQ.Ycm3m_CgSvEJvNxKBu0Ft-pEN3V47BZIPS1Kb1BQMprUa0dCU6EecZJtUHM4nd8NfGt1LitAd41UervL7AF6rA"}</t>
         </is>
       </c>
       <c r="F8" s="3" t="inlineStr">
@@ -1431,6 +1461,16 @@
       <c r="G8" s="3" t="inlineStr">
         <is>
           <t>{"pageNum":"1","pageSize":"15","browseMode":"1","merchantName":"","taxpayerCondition":"","startDate":"","endDate":"","status":"","authStatus":"","signStatus":""}</t>
+        </is>
+      </c>
+      <c r="H8" s="7" t="inlineStr">
+        <is>
+          <t>pass</t>
+        </is>
+      </c>
+      <c r="J8" s="8" t="inlineStr">
+        <is>
+          <t>bin</t>
         </is>
       </c>
     </row>
@@ -1457,7 +1497,7 @@
       </c>
       <c r="E9" s="0" t="inlineStr">
         <is>
-          <t>{"Authorization":"eyJhbGciOiJIUzUxMiJ9.eyJkYXRhIjp7ImZkZFRlbXBsYXRlSWQiOiJYWUZERDY3NzYwMzI2NTc1MzEyMzYzNTIiLCJpc1VwZGF0ZVB3ZCI6MCwibG9naW5UeXBlIjowLCJ1c2VyTG9naW5JZCI6NjU5Mzc0NjkwMTM1MzA4Mjg4MywibWVyY2hhbnRJZCI6IiIsInRhc2tVcmwiOiJodHRwczovL2Nkbi5sYXN0bWlsZXMuY24vYXBwcy82NzIyODEyMjM3NzQzNTk5NjE2LnBkZiIsInN5c05hbWUiOiLns7vnu5_mk43kvZzmiYvlhowtVjEuMCIsImlzTWFuYWdlciI6MSwiaXNBc3luY1JlcXVlc3QiOiJ0cnVlIiwic3lzVXJsIjoiaHR0cHM6Ly9jZG4ubGFzdG1pbGVzLmNuL2FwcHMvNjcyMjgxMTU2OTM5ODAzNDQzMi5wZGYiLCJ0YXNrTmFtZSI6IuWFheWAvOS7o-WPkeaTjeS9nOaJi-WGjC1WMS4wIiwibWVyY2hhbnRSYW5nZSI6MSwidXNlcm5hbWUiOiJBRE1pbiJ9LCJzdWIiOiI2NTkzNzQ2OTAxMzUzMDgyODgzIiwiZXhwIjoxNjIxMzEzNjExfQ.NwcBvfYCEo8Z-p_G1p0LSQC9Xtm_J1zwTDg2CMZdkWVLlAztrVohs4IJ5vU_0wShzn2qqnLbQWQ3A506gz-Keg"}</t>
+          <t>{"Authorization":"eyJhbGciOiJIUzUxMiJ9.eyJkYXRhIjp7ImZkZFRlbXBsYXRlSWQiOiJYWUZERDY3NzYwMzI2NTc1MzEyMzYzNTIiLCJpc1VwZGF0ZVB3ZCI6MCwibG9naW5UeXBlIjowLCJ1c2VyTG9naW5JZCI6NjU5Mzc0NjkwMTM1MzA4Mjg4MywibWVyY2hhbnRJZCI6IiIsInRhc2tVcmwiOiJodHRwczovL2Nkbi5sYXN0bWlsZXMuY24vYXBwcy82NzIyODEyMjM3NzQzNTk5NjE2LnBkZiIsInN5c05hbWUiOiLns7vnu5_mk43kvZzmiYvlhowtVjEuMCIsImlzTWFuYWdlciI6MSwiaXNBc3luY1JlcXVlc3QiOiJ0cnVlIiwic3lzVXJsIjoiaHR0cHM6Ly9jZG4ubGFzdG1pbGVzLmNuL2FwcHMvNjcyMjgxMTU2OTM5ODAzNDQzMi5wZGYiLCJ0YXNrTmFtZSI6IuWFheWAvOS7o-WPkeaTjeS9nOaJi-WGjC1WMS4wIiwibWVyY2hhbnRSYW5nZSI6MSwidXNlcm5hbWUiOiJBRE1pbiJ9LCJzdWIiOiI2NTkzNzQ2OTAxMzUzMDgyODgzIiwiZXhwIjoxNjIxMzE2OTYxfQ.Ycm3m_CgSvEJvNxKBu0Ft-pEN3V47BZIPS1Kb1BQMprUa0dCU6EecZJtUHM4nd8NfGt1LitAd41UervL7AF6rA"}</t>
         </is>
       </c>
       <c r="F9" s="3" t="inlineStr">
@@ -1472,6 +1512,16 @@
 "pageSize":"15"}</t>
         </is>
       </c>
+      <c r="H9" s="7" t="inlineStr">
+        <is>
+          <t>pass</t>
+        </is>
+      </c>
+      <c r="J9" s="8" t="inlineStr">
+        <is>
+          <t>bin</t>
+        </is>
+      </c>
     </row>
     <row r="10" ht="69" customHeight="1" s="1">
       <c r="A10" s="3" t="inlineStr">
@@ -1496,7 +1546,7 @@
       </c>
       <c r="E10" s="0" t="inlineStr">
         <is>
-          <t>{"Authorization":"eyJhbGciOiJIUzUxMiJ9.eyJkYXRhIjp7ImZkZFRlbXBsYXRlSWQiOiJYWUZERDY3NzYwMzI2NTc1MzEyMzYzNTIiLCJpc1VwZGF0ZVB3ZCI6MCwibG9naW5UeXBlIjowLCJ1c2VyTG9naW5JZCI6NjU5Mzc0NjkwMTM1MzA4Mjg4MywibWVyY2hhbnRJZCI6IiIsInRhc2tVcmwiOiJodHRwczovL2Nkbi5sYXN0bWlsZXMuY24vYXBwcy82NzIyODEyMjM3NzQzNTk5NjE2LnBkZiIsInN5c05hbWUiOiLns7vnu5_mk43kvZzmiYvlhowtVjEuMCIsImlzTWFuYWdlciI6MSwiaXNBc3luY1JlcXVlc3QiOiJ0cnVlIiwic3lzVXJsIjoiaHR0cHM6Ly9jZG4ubGFzdG1pbGVzLmNuL2FwcHMvNjcyMjgxMTU2OTM5ODAzNDQzMi5wZGYiLCJ0YXNrTmFtZSI6IuWFheWAvOS7o-WPkeaTjeS9nOaJi-WGjC1WMS4wIiwibWVyY2hhbnRSYW5nZSI6MSwidXNlcm5hbWUiOiJBRE1pbiJ9LCJzdWIiOiI2NTkzNzQ2OTAxMzUzMDgyODgzIiwiZXhwIjoxNjIxMzEzNjExfQ.NwcBvfYCEo8Z-p_G1p0LSQC9Xtm_J1zwTDg2CMZdkWVLlAztrVohs4IJ5vU_0wShzn2qqnLbQWQ3A506gz-Keg"}</t>
+          <t>{"Authorization":"eyJhbGciOiJIUzUxMiJ9.eyJkYXRhIjp7ImZkZFRlbXBsYXRlSWQiOiJYWUZERDY3NzYwMzI2NTc1MzEyMzYzNTIiLCJpc1VwZGF0ZVB3ZCI6MCwibG9naW5UeXBlIjowLCJ1c2VyTG9naW5JZCI6NjU5Mzc0NjkwMTM1MzA4Mjg4MywibWVyY2hhbnRJZCI6IiIsInRhc2tVcmwiOiJodHRwczovL2Nkbi5sYXN0bWlsZXMuY24vYXBwcy82NzIyODEyMjM3NzQzNTk5NjE2LnBkZiIsInN5c05hbWUiOiLns7vnu5_mk43kvZzmiYvlhowtVjEuMCIsImlzTWFuYWdlciI6MSwiaXNBc3luY1JlcXVlc3QiOiJ0cnVlIiwic3lzVXJsIjoiaHR0cHM6Ly9jZG4ubGFzdG1pbGVzLmNuL2FwcHMvNjcyMjgxMTU2OTM5ODAzNDQzMi5wZGYiLCJ0YXNrTmFtZSI6IuWFheWAvOS7o-WPkeaTjeS9nOaJi-WGjC1WMS4wIiwibWVyY2hhbnRSYW5nZSI6MSwidXNlcm5hbWUiOiJBRE1pbiJ9LCJzdWIiOiI2NTkzNzQ2OTAxMzUzMDgyODgzIiwiZXhwIjoxNjIxMzE2OTYxfQ.Ycm3m_CgSvEJvNxKBu0Ft-pEN3V47BZIPS1Kb1BQMprUa0dCU6EecZJtUHM4nd8NfGt1LitAd41UervL7AF6rA"}</t>
         </is>
       </c>
       <c r="G10" s="3" t="inlineStr">

--- a/config/测试结果表格.xlsx
+++ b/config/测试结果表格.xlsx
@@ -59,16 +59,8 @@
     <font>
       <name val="宋体"/>
       <charset val="0"/>
-      <i val="1"/>
-      <color rgb="FF7F7F7F"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="134"/>
       <b val="1"/>
-      <color theme="3"/>
+      <color rgb="FF3F3F3F"/>
       <sz val="11"/>
       <scheme val="minor"/>
     </font>
@@ -82,23 +74,8 @@
     <font>
       <name val="宋体"/>
       <charset val="0"/>
-      <color rgb="FF800080"/>
-      <sz val="11"/>
-      <u val="single"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <color rgb="FF9C0006"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
       <b val="1"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
       <sz val="11"/>
       <scheme val="minor"/>
     </font>
@@ -120,14 +97,7 @@
     <font>
       <name val="宋体"/>
       <charset val="0"/>
-      <color rgb="FF3F3F76"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C0006"/>
       <sz val="11"/>
       <scheme val="minor"/>
     </font>
@@ -150,7 +120,7 @@
     <font>
       <name val="宋体"/>
       <charset val="0"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFA7D00"/>
       <sz val="11"/>
       <scheme val="minor"/>
     </font>
@@ -158,7 +128,29 @@
       <name val="宋体"/>
       <charset val="0"/>
       <b val="1"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="1"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <color rgb="FF3F3F76"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <color rgb="FF9C6500"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <b val="1"/>
+      <color theme="3"/>
       <sz val="11"/>
       <scheme val="minor"/>
     </font>
@@ -173,16 +165,24 @@
     <font>
       <name val="宋体"/>
       <charset val="0"/>
-      <b val="1"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF006100"/>
       <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
       <name val="宋体"/>
       <charset val="0"/>
-      <color rgb="FF006100"/>
-      <sz val="11"/>
+      <i val="1"/>
+      <color rgb="FF7F7F7F"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <color rgb="FF800080"/>
+      <sz val="11"/>
+      <u val="single"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -205,187 +205,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -399,22 +399,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -437,8 +432,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -473,17 +468,22 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -504,10 +504,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="3" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="24" borderId="2" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyAlignment="1">
@@ -516,16 +516,16 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyAlignment="1">
@@ -534,115 +534,115 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="5" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="24" borderId="7" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="24" borderId="3" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="19" borderId="6" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="4" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="2" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="5" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="28" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="23" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1174,7 +1174,7 @@
       </c>
       <c r="E2" s="0" t="inlineStr">
         <is>
-          <t>{"Authorization":"eyJhbGciOiJIUzUxMiJ9.eyJkYXRhIjp7ImZkZFRlbXBsYXRlSWQiOiJYWUZERDY3NzYwMzI2NTc1MzEyMzYzNTIiLCJpc1VwZGF0ZVB3ZCI6MCwibG9naW5UeXBlIjowLCJ1c2VyTG9naW5JZCI6NjU5Mzc0NjkwMTM1MzA4Mjg4MywibWVyY2hhbnRJZCI6IiIsInRhc2tVcmwiOiJodHRwczovL2Nkbi5sYXN0bWlsZXMuY24vYXBwcy82NzIyODEyMjM3NzQzNTk5NjE2LnBkZiIsInN5c05hbWUiOiLns7vnu5_mk43kvZzmiYvlhowtVjEuMCIsImlzTWFuYWdlciI6MSwiaXNBc3luY1JlcXVlc3QiOiJ0cnVlIiwic3lzVXJsIjoiaHR0cHM6Ly9jZG4ubGFzdG1pbGVzLmNuL2FwcHMvNjcyMjgxMTU2OTM5ODAzNDQzMi5wZGYiLCJ0YXNrTmFtZSI6IuWFheWAvOS7o-WPkeaTjeS9nOaJi-WGjC1WMS4wIiwibWVyY2hhbnRSYW5nZSI6MSwidXNlcm5hbWUiOiJBRE1pbiJ9LCJzdWIiOiI2NTkzNzQ2OTAxMzUzMDgyODgzIiwiZXhwIjoxNjIxMzE2OTYxfQ.Ycm3m_CgSvEJvNxKBu0Ft-pEN3V47BZIPS1Kb1BQMprUa0dCU6EecZJtUHM4nd8NfGt1LitAd41UervL7AF6rA"}</t>
+          <t>{"Authorization":"eyJhbGciOiJIUzUxMiJ9.eyJkYXRhIjp7ImZkZFRlbXBsYXRlSWQiOiJYWUZERDY3NzYwMzI2NTc1MzEyMzYzNTIiLCJpc1VwZGF0ZVB3ZCI6MCwibG9naW5UeXBlIjowLCJ1c2VyTG9naW5JZCI6NjU5Mzc0NjkwMTM1MzA4Mjg4MywibWVyY2hhbnRJZCI6IiIsInRhc2tVcmwiOiJodHRwczovL2Nkbi5sYXN0bWlsZXMuY24vYXBwcy82NzIyODEyMjM3NzQzNTk5NjE2LnBkZiIsInN5c05hbWUiOiLns7vnu5_mk43kvZzmiYvlhowtVjEuMCIsImlzTWFuYWdlciI6MSwiaXNBc3luY1JlcXVlc3QiOiJ0cnVlIiwic3lzVXJsIjoiaHR0cHM6Ly9jZG4ubGFzdG1pbGVzLmNuL2FwcHMvNjcyMjgxMTU2OTM5ODAzNDQzMi5wZGYiLCJ0YXNrTmFtZSI6IuWFheWAvOS7o-WPkeaTjeS9nOaJi-WGjC1WMS4wIiwibWVyY2hhbnRSYW5nZSI6MSwidXNlcm5hbWUiOiJBRE1pbiJ9LCJzdWIiOiI2NTkzNzQ2OTAxMzUzMDgyODgzIiwiZXhwIjoxNjIxNDY1NzczfQ.a2hmM5fkFgAg2HffP6twUYLtxU8w3bgRO_Jy8I4lz8DkY1sKNZ6plQefSE0CjndXfaaBYto9Qh29C7ubgVOzow"}</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -1223,7 +1223,7 @@
       </c>
       <c r="E3" s="0" t="inlineStr">
         <is>
-          <t>{"Authorization":"eyJhbGciOiJIUzUxMiJ9.eyJkYXRhIjp7ImZkZFRlbXBsYXRlSWQiOiJYWUZERDY3NzYwMzI2NTc1MzEyMzYzNTIiLCJpc1VwZGF0ZVB3ZCI6MCwibG9naW5UeXBlIjowLCJ1c2VyTG9naW5JZCI6NjU5Mzc0NjkwMTM1MzA4Mjg4MywibWVyY2hhbnRJZCI6IiIsInRhc2tVcmwiOiJodHRwczovL2Nkbi5sYXN0bWlsZXMuY24vYXBwcy82NzIyODEyMjM3NzQzNTk5NjE2LnBkZiIsInN5c05hbWUiOiLns7vnu5_mk43kvZzmiYvlhowtVjEuMCIsImlzTWFuYWdlciI6MSwiaXNBc3luY1JlcXVlc3QiOiJ0cnVlIiwic3lzVXJsIjoiaHR0cHM6Ly9jZG4ubGFzdG1pbGVzLmNuL2FwcHMvNjcyMjgxMTU2OTM5ODAzNDQzMi5wZGYiLCJ0YXNrTmFtZSI6IuWFheWAvOS7o-WPkeaTjeS9nOaJi-WGjC1WMS4wIiwibWVyY2hhbnRSYW5nZSI6MSwidXNlcm5hbWUiOiJBRE1pbiJ9LCJzdWIiOiI2NTkzNzQ2OTAxMzUzMDgyODgzIiwiZXhwIjoxNjIxMzE2OTYxfQ.Ycm3m_CgSvEJvNxKBu0Ft-pEN3V47BZIPS1Kb1BQMprUa0dCU6EecZJtUHM4nd8NfGt1LitAd41UervL7AF6rA"}</t>
+          <t>{"Authorization":"eyJhbGciOiJIUzUxMiJ9.eyJkYXRhIjp7ImZkZFRlbXBsYXRlSWQiOiJYWUZERDY3NzYwMzI2NTc1MzEyMzYzNTIiLCJpc1VwZGF0ZVB3ZCI6MCwibG9naW5UeXBlIjowLCJ1c2VyTG9naW5JZCI6NjU5Mzc0NjkwMTM1MzA4Mjg4MywibWVyY2hhbnRJZCI6IiIsInRhc2tVcmwiOiJodHRwczovL2Nkbi5sYXN0bWlsZXMuY24vYXBwcy82NzIyODEyMjM3NzQzNTk5NjE2LnBkZiIsInN5c05hbWUiOiLns7vnu5_mk43kvZzmiYvlhowtVjEuMCIsImlzTWFuYWdlciI6MSwiaXNBc3luY1JlcXVlc3QiOiJ0cnVlIiwic3lzVXJsIjoiaHR0cHM6Ly9jZG4ubGFzdG1pbGVzLmNuL2FwcHMvNjcyMjgxMTU2OTM5ODAzNDQzMi5wZGYiLCJ0YXNrTmFtZSI6IuWFheWAvOS7o-WPkeaTjeS9nOaJi-WGjC1WMS4wIiwibWVyY2hhbnRSYW5nZSI6MSwidXNlcm5hbWUiOiJBRE1pbiJ9LCJzdWIiOiI2NTkzNzQ2OTAxMzUzMDgyODgzIiwiZXhwIjoxNjIxNDY1NzczfQ.a2hmM5fkFgAg2HffP6twUYLtxU8w3bgRO_Jy8I4lz8DkY1sKNZ6plQefSE0CjndXfaaBYto9Qh29C7ubgVOzow"}</t>
         </is>
       </c>
       <c r="F3" s="3" t="inlineStr">
@@ -1233,7 +1233,17 @@
       </c>
       <c r="G3" s="3" t="inlineStr">
         <is>
-          <t>{"tartDate":"2020-12","endDate":"2020-12","merchantId":"","taxpayer":"","status":"0","type":"3""businessNo":"","amountRangeJson":"[]"}</t>
+          <t>{"tartDate":"2020-12","endDate":"2020-12","merchantId":"","taxpayer":"","status":"0","type":"3","businessNo":"","amountRangeJson":"[]"}</t>
+        </is>
+      </c>
+      <c r="H3" s="7" t="inlineStr">
+        <is>
+          <t>pass</t>
+        </is>
+      </c>
+      <c r="J3" s="8" t="inlineStr">
+        <is>
+          <t>bin</t>
         </is>
       </c>
       <c r="N3" s="6" t="n"/>
@@ -1262,7 +1272,7 @@
       </c>
       <c r="E4" s="0" t="inlineStr">
         <is>
-          <t>{"Authorization":"eyJhbGciOiJIUzUxMiJ9.eyJkYXRhIjp7ImZkZFRlbXBsYXRlSWQiOiJYWUZERDY3NzYwMzI2NTc1MzEyMzYzNTIiLCJpc1VwZGF0ZVB3ZCI6MCwibG9naW5UeXBlIjowLCJ1c2VyTG9naW5JZCI6NjU5Mzc0NjkwMTM1MzA4Mjg4MywibWVyY2hhbnRJZCI6IiIsInRhc2tVcmwiOiJodHRwczovL2Nkbi5sYXN0bWlsZXMuY24vYXBwcy82NzIyODEyMjM3NzQzNTk5NjE2LnBkZiIsInN5c05hbWUiOiLns7vnu5_mk43kvZzmiYvlhowtVjEuMCIsImlzTWFuYWdlciI6MSwiaXNBc3luY1JlcXVlc3QiOiJ0cnVlIiwic3lzVXJsIjoiaHR0cHM6Ly9jZG4ubGFzdG1pbGVzLmNuL2FwcHMvNjcyMjgxMTU2OTM5ODAzNDQzMi5wZGYiLCJ0YXNrTmFtZSI6IuWFheWAvOS7o-WPkeaTjeS9nOaJi-WGjC1WMS4wIiwibWVyY2hhbnRSYW5nZSI6MSwidXNlcm5hbWUiOiJBRE1pbiJ9LCJzdWIiOiI2NTkzNzQ2OTAxMzUzMDgyODgzIiwiZXhwIjoxNjIxMzE2OTYxfQ.Ycm3m_CgSvEJvNxKBu0Ft-pEN3V47BZIPS1Kb1BQMprUa0dCU6EecZJtUHM4nd8NfGt1LitAd41UervL7AF6rA"}</t>
+          <t>{"Authorization":"eyJhbGciOiJIUzUxMiJ9.eyJkYXRhIjp7ImZkZFRlbXBsYXRlSWQiOiJYWUZERDY3NzYwMzI2NTc1MzEyMzYzNTIiLCJpc1VwZGF0ZVB3ZCI6MCwibG9naW5UeXBlIjowLCJ1c2VyTG9naW5JZCI6NjU5Mzc0NjkwMTM1MzA4Mjg4MywibWVyY2hhbnRJZCI6IiIsInRhc2tVcmwiOiJodHRwczovL2Nkbi5sYXN0bWlsZXMuY24vYXBwcy82NzIyODEyMjM3NzQzNTk5NjE2LnBkZiIsInN5c05hbWUiOiLns7vnu5_mk43kvZzmiYvlhowtVjEuMCIsImlzTWFuYWdlciI6MSwiaXNBc3luY1JlcXVlc3QiOiJ0cnVlIiwic3lzVXJsIjoiaHR0cHM6Ly9jZG4ubGFzdG1pbGVzLmNuL2FwcHMvNjcyMjgxMTU2OTM5ODAzNDQzMi5wZGYiLCJ0YXNrTmFtZSI6IuWFheWAvOS7o-WPkeaTjeS9nOaJi-WGjC1WMS4wIiwibWVyY2hhbnRSYW5nZSI6MSwidXNlcm5hbWUiOiJBRE1pbiJ9LCJzdWIiOiI2NTkzNzQ2OTAxMzUzMDgyODgzIiwiZXhwIjoxNjIxNDY1NzczfQ.a2hmM5fkFgAg2HffP6twUYLtxU8w3bgRO_Jy8I4lz8DkY1sKNZ6plQefSE0CjndXfaaBYto9Qh29C7ubgVOzow"}</t>
         </is>
       </c>
       <c r="F4" s="3" t="inlineStr">
@@ -1309,7 +1319,7 @@
       </c>
       <c r="E5" s="0" t="inlineStr">
         <is>
-          <t>{"Authorization":"eyJhbGciOiJIUzUxMiJ9.eyJkYXRhIjp7ImZkZFRlbXBsYXRlSWQiOiJYWUZERDY3NzYwMzI2NTc1MzEyMzYzNTIiLCJpc1VwZGF0ZVB3ZCI6MCwibG9naW5UeXBlIjowLCJ1c2VyTG9naW5JZCI6NjU5Mzc0NjkwMTM1MzA4Mjg4MywibWVyY2hhbnRJZCI6IiIsInRhc2tVcmwiOiJodHRwczovL2Nkbi5sYXN0bWlsZXMuY24vYXBwcy82NzIyODEyMjM3NzQzNTk5NjE2LnBkZiIsInN5c05hbWUiOiLns7vnu5_mk43kvZzmiYvlhowtVjEuMCIsImlzTWFuYWdlciI6MSwiaXNBc3luY1JlcXVlc3QiOiJ0cnVlIiwic3lzVXJsIjoiaHR0cHM6Ly9jZG4ubGFzdG1pbGVzLmNuL2FwcHMvNjcyMjgxMTU2OTM5ODAzNDQzMi5wZGYiLCJ0YXNrTmFtZSI6IuWFheWAvOS7o-WPkeaTjeS9nOaJi-WGjC1WMS4wIiwibWVyY2hhbnRSYW5nZSI6MSwidXNlcm5hbWUiOiJBRE1pbiJ9LCJzdWIiOiI2NTkzNzQ2OTAxMzUzMDgyODgzIiwiZXhwIjoxNjIxMzE2OTYxfQ.Ycm3m_CgSvEJvNxKBu0Ft-pEN3V47BZIPS1Kb1BQMprUa0dCU6EecZJtUHM4nd8NfGt1LitAd41UervL7AF6rA"}</t>
+          <t>{"Authorization":"eyJhbGciOiJIUzUxMiJ9.eyJkYXRhIjp7ImZkZFRlbXBsYXRlSWQiOiJYWUZERDY3NzYwMzI2NTc1MzEyMzYzNTIiLCJpc1VwZGF0ZVB3ZCI6MCwibG9naW5UeXBlIjowLCJ1c2VyTG9naW5JZCI6NjU5Mzc0NjkwMTM1MzA4Mjg4MywibWVyY2hhbnRJZCI6IiIsInRhc2tVcmwiOiJodHRwczovL2Nkbi5sYXN0bWlsZXMuY24vYXBwcy82NzIyODEyMjM3NzQzNTk5NjE2LnBkZiIsInN5c05hbWUiOiLns7vnu5_mk43kvZzmiYvlhowtVjEuMCIsImlzTWFuYWdlciI6MSwiaXNBc3luY1JlcXVlc3QiOiJ0cnVlIiwic3lzVXJsIjoiaHR0cHM6Ly9jZG4ubGFzdG1pbGVzLmNuL2FwcHMvNjcyMjgxMTU2OTM5ODAzNDQzMi5wZGYiLCJ0YXNrTmFtZSI6IuWFheWAvOS7o-WPkeaTjeS9nOaJi-WGjC1WMS4wIiwibWVyY2hhbnRSYW5nZSI6MSwidXNlcm5hbWUiOiJBRE1pbiJ9LCJzdWIiOiI2NTkzNzQ2OTAxMzUzMDgyODgzIiwiZXhwIjoxNjIxNDY1NzczfQ.a2hmM5fkFgAg2HffP6twUYLtxU8w3bgRO_Jy8I4lz8DkY1sKNZ6plQefSE0CjndXfaaBYto9Qh29C7ubgVOzow"}</t>
         </is>
       </c>
       <c r="F5" s="3" t="inlineStr">
@@ -1356,7 +1366,7 @@
       </c>
       <c r="E6" s="0" t="inlineStr">
         <is>
-          <t>{"Authorization":"eyJhbGciOiJIUzUxMiJ9.eyJkYXRhIjp7ImZkZFRlbXBsYXRlSWQiOiJYWUZERDY3NzYwMzI2NTc1MzEyMzYzNTIiLCJpc1VwZGF0ZVB3ZCI6MCwibG9naW5UeXBlIjowLCJ1c2VyTG9naW5JZCI6NjU5Mzc0NjkwMTM1MzA4Mjg4MywibWVyY2hhbnRJZCI6IiIsInRhc2tVcmwiOiJodHRwczovL2Nkbi5sYXN0bWlsZXMuY24vYXBwcy82NzIyODEyMjM3NzQzNTk5NjE2LnBkZiIsInN5c05hbWUiOiLns7vnu5_mk43kvZzmiYvlhowtVjEuMCIsImlzTWFuYWdlciI6MSwiaXNBc3luY1JlcXVlc3QiOiJ0cnVlIiwic3lzVXJsIjoiaHR0cHM6Ly9jZG4ubGFzdG1pbGVzLmNuL2FwcHMvNjcyMjgxMTU2OTM5ODAzNDQzMi5wZGYiLCJ0YXNrTmFtZSI6IuWFheWAvOS7o-WPkeaTjeS9nOaJi-WGjC1WMS4wIiwibWVyY2hhbnRSYW5nZSI6MSwidXNlcm5hbWUiOiJBRE1pbiJ9LCJzdWIiOiI2NTkzNzQ2OTAxMzUzMDgyODgzIiwiZXhwIjoxNjIxMzE2OTYxfQ.Ycm3m_CgSvEJvNxKBu0Ft-pEN3V47BZIPS1Kb1BQMprUa0dCU6EecZJtUHM4nd8NfGt1LitAd41UervL7AF6rA"}</t>
+          <t>{"Authorization":"eyJhbGciOiJIUzUxMiJ9.eyJkYXRhIjp7ImZkZFRlbXBsYXRlSWQiOiJYWUZERDY3NzYwMzI2NTc1MzEyMzYzNTIiLCJpc1VwZGF0ZVB3ZCI6MCwibG9naW5UeXBlIjowLCJ1c2VyTG9naW5JZCI6NjU5Mzc0NjkwMTM1MzA4Mjg4MywibWVyY2hhbnRJZCI6IiIsInRhc2tVcmwiOiJodHRwczovL2Nkbi5sYXN0bWlsZXMuY24vYXBwcy82NzIyODEyMjM3NzQzNTk5NjE2LnBkZiIsInN5c05hbWUiOiLns7vnu5_mk43kvZzmiYvlhowtVjEuMCIsImlzTWFuYWdlciI6MSwiaXNBc3luY1JlcXVlc3QiOiJ0cnVlIiwic3lzVXJsIjoiaHR0cHM6Ly9jZG4ubGFzdG1pbGVzLmNuL2FwcHMvNjcyMjgxMTU2OTM5ODAzNDQzMi5wZGYiLCJ0YXNrTmFtZSI6IuWFheWAvOS7o-WPkeaTjeS9nOaJi-WGjC1WMS4wIiwibWVyY2hhbnRSYW5nZSI6MSwidXNlcm5hbWUiOiJBRE1pbiJ9LCJzdWIiOiI2NTkzNzQ2OTAxMzUzMDgyODgzIiwiZXhwIjoxNjIxNDY1NzczfQ.a2hmM5fkFgAg2HffP6twUYLtxU8w3bgRO_Jy8I4lz8DkY1sKNZ6plQefSE0CjndXfaaBYto9Qh29C7ubgVOzow"}</t>
         </is>
       </c>
       <c r="F6" s="3" t="inlineStr">
@@ -1403,7 +1413,7 @@
       </c>
       <c r="E7" s="0" t="inlineStr">
         <is>
-          <t>{"Authorization":"eyJhbGciOiJIUzUxMiJ9.eyJkYXRhIjp7ImZkZFRlbXBsYXRlSWQiOiJYWUZERDY3NzYwMzI2NTc1MzEyMzYzNTIiLCJpc1VwZGF0ZVB3ZCI6MCwibG9naW5UeXBlIjowLCJ1c2VyTG9naW5JZCI6NjU5Mzc0NjkwMTM1MzA4Mjg4MywibWVyY2hhbnRJZCI6IiIsInRhc2tVcmwiOiJodHRwczovL2Nkbi5sYXN0bWlsZXMuY24vYXBwcy82NzIyODEyMjM3NzQzNTk5NjE2LnBkZiIsInN5c05hbWUiOiLns7vnu5_mk43kvZzmiYvlhowtVjEuMCIsImlzTWFuYWdlciI6MSwiaXNBc3luY1JlcXVlc3QiOiJ0cnVlIiwic3lzVXJsIjoiaHR0cHM6Ly9jZG4ubGFzdG1pbGVzLmNuL2FwcHMvNjcyMjgxMTU2OTM5ODAzNDQzMi5wZGYiLCJ0YXNrTmFtZSI6IuWFheWAvOS7o-WPkeaTjeS9nOaJi-WGjC1WMS4wIiwibWVyY2hhbnRSYW5nZSI6MSwidXNlcm5hbWUiOiJBRE1pbiJ9LCJzdWIiOiI2NTkzNzQ2OTAxMzUzMDgyODgzIiwiZXhwIjoxNjIxMzE2OTYxfQ.Ycm3m_CgSvEJvNxKBu0Ft-pEN3V47BZIPS1Kb1BQMprUa0dCU6EecZJtUHM4nd8NfGt1LitAd41UervL7AF6rA"}</t>
+          <t>{"Authorization":"eyJhbGciOiJIUzUxMiJ9.eyJkYXRhIjp7ImZkZFRlbXBsYXRlSWQiOiJYWUZERDY3NzYwMzI2NTc1MzEyMzYzNTIiLCJpc1VwZGF0ZVB3ZCI6MCwibG9naW5UeXBlIjowLCJ1c2VyTG9naW5JZCI6NjU5Mzc0NjkwMTM1MzA4Mjg4MywibWVyY2hhbnRJZCI6IiIsInRhc2tVcmwiOiJodHRwczovL2Nkbi5sYXN0bWlsZXMuY24vYXBwcy82NzIyODEyMjM3NzQzNTk5NjE2LnBkZiIsInN5c05hbWUiOiLns7vnu5_mk43kvZzmiYvlhowtVjEuMCIsImlzTWFuYWdlciI6MSwiaXNBc3luY1JlcXVlc3QiOiJ0cnVlIiwic3lzVXJsIjoiaHR0cHM6Ly9jZG4ubGFzdG1pbGVzLmNuL2FwcHMvNjcyMjgxMTU2OTM5ODAzNDQzMi5wZGYiLCJ0YXNrTmFtZSI6IuWFheWAvOS7o-WPkeaTjeS9nOaJi-WGjC1WMS4wIiwibWVyY2hhbnRSYW5nZSI6MSwidXNlcm5hbWUiOiJBRE1pbiJ9LCJzdWIiOiI2NTkzNzQ2OTAxMzUzMDgyODgzIiwiZXhwIjoxNjIxNDY1NzczfQ.a2hmM5fkFgAg2HffP6twUYLtxU8w3bgRO_Jy8I4lz8DkY1sKNZ6plQefSE0CjndXfaaBYto9Qh29C7ubgVOzow"}</t>
         </is>
       </c>
       <c r="F7" s="3" t="inlineStr">
@@ -1450,7 +1460,7 @@
       </c>
       <c r="E8" s="0" t="inlineStr">
         <is>
-          <t>{"Authorization":"eyJhbGciOiJIUzUxMiJ9.eyJkYXRhIjp7ImZkZFRlbXBsYXRlSWQiOiJYWUZERDY3NzYwMzI2NTc1MzEyMzYzNTIiLCJpc1VwZGF0ZVB3ZCI6MCwibG9naW5UeXBlIjowLCJ1c2VyTG9naW5JZCI6NjU5Mzc0NjkwMTM1MzA4Mjg4MywibWVyY2hhbnRJZCI6IiIsInRhc2tVcmwiOiJodHRwczovL2Nkbi5sYXN0bWlsZXMuY24vYXBwcy82NzIyODEyMjM3NzQzNTk5NjE2LnBkZiIsInN5c05hbWUiOiLns7vnu5_mk43kvZzmiYvlhowtVjEuMCIsImlzTWFuYWdlciI6MSwiaXNBc3luY1JlcXVlc3QiOiJ0cnVlIiwic3lzVXJsIjoiaHR0cHM6Ly9jZG4ubGFzdG1pbGVzLmNuL2FwcHMvNjcyMjgxMTU2OTM5ODAzNDQzMi5wZGYiLCJ0YXNrTmFtZSI6IuWFheWAvOS7o-WPkeaTjeS9nOaJi-WGjC1WMS4wIiwibWVyY2hhbnRSYW5nZSI6MSwidXNlcm5hbWUiOiJBRE1pbiJ9LCJzdWIiOiI2NTkzNzQ2OTAxMzUzMDgyODgzIiwiZXhwIjoxNjIxMzE2OTYxfQ.Ycm3m_CgSvEJvNxKBu0Ft-pEN3V47BZIPS1Kb1BQMprUa0dCU6EecZJtUHM4nd8NfGt1LitAd41UervL7AF6rA"}</t>
+          <t>{"Authorization":"eyJhbGciOiJIUzUxMiJ9.eyJkYXRhIjp7ImZkZFRlbXBsYXRlSWQiOiJYWUZERDY3NzYwMzI2NTc1MzEyMzYzNTIiLCJpc1VwZGF0ZVB3ZCI6MCwibG9naW5UeXBlIjowLCJ1c2VyTG9naW5JZCI6NjU5Mzc0NjkwMTM1MzA4Mjg4MywibWVyY2hhbnRJZCI6IiIsInRhc2tVcmwiOiJodHRwczovL2Nkbi5sYXN0bWlsZXMuY24vYXBwcy82NzIyODEyMjM3NzQzNTk5NjE2LnBkZiIsInN5c05hbWUiOiLns7vnu5_mk43kvZzmiYvlhowtVjEuMCIsImlzTWFuYWdlciI6MSwiaXNBc3luY1JlcXVlc3QiOiJ0cnVlIiwic3lzVXJsIjoiaHR0cHM6Ly9jZG4ubGFzdG1pbGVzLmNuL2FwcHMvNjcyMjgxMTU2OTM5ODAzNDQzMi5wZGYiLCJ0YXNrTmFtZSI6IuWFheWAvOS7o-WPkeaTjeS9nOaJi-WGjC1WMS4wIiwibWVyY2hhbnRSYW5nZSI6MSwidXNlcm5hbWUiOiJBRE1pbiJ9LCJzdWIiOiI2NTkzNzQ2OTAxMzUzMDgyODgzIiwiZXhwIjoxNjIxNDY1NzczfQ.a2hmM5fkFgAg2HffP6twUYLtxU8w3bgRO_Jy8I4lz8DkY1sKNZ6plQefSE0CjndXfaaBYto9Qh29C7ubgVOzow"}</t>
         </is>
       </c>
       <c r="F8" s="3" t="inlineStr">
@@ -1497,7 +1507,7 @@
       </c>
       <c r="E9" s="0" t="inlineStr">
         <is>
-          <t>{"Authorization":"eyJhbGciOiJIUzUxMiJ9.eyJkYXRhIjp7ImZkZFRlbXBsYXRlSWQiOiJYWUZERDY3NzYwMzI2NTc1MzEyMzYzNTIiLCJpc1VwZGF0ZVB3ZCI6MCwibG9naW5UeXBlIjowLCJ1c2VyTG9naW5JZCI6NjU5Mzc0NjkwMTM1MzA4Mjg4MywibWVyY2hhbnRJZCI6IiIsInRhc2tVcmwiOiJodHRwczovL2Nkbi5sYXN0bWlsZXMuY24vYXBwcy82NzIyODEyMjM3NzQzNTk5NjE2LnBkZiIsInN5c05hbWUiOiLns7vnu5_mk43kvZzmiYvlhowtVjEuMCIsImlzTWFuYWdlciI6MSwiaXNBc3luY1JlcXVlc3QiOiJ0cnVlIiwic3lzVXJsIjoiaHR0cHM6Ly9jZG4ubGFzdG1pbGVzLmNuL2FwcHMvNjcyMjgxMTU2OTM5ODAzNDQzMi5wZGYiLCJ0YXNrTmFtZSI6IuWFheWAvOS7o-WPkeaTjeS9nOaJi-WGjC1WMS4wIiwibWVyY2hhbnRSYW5nZSI6MSwidXNlcm5hbWUiOiJBRE1pbiJ9LCJzdWIiOiI2NTkzNzQ2OTAxMzUzMDgyODgzIiwiZXhwIjoxNjIxMzE2OTYxfQ.Ycm3m_CgSvEJvNxKBu0Ft-pEN3V47BZIPS1Kb1BQMprUa0dCU6EecZJtUHM4nd8NfGt1LitAd41UervL7AF6rA"}</t>
+          <t>{"Authorization":"eyJhbGciOiJIUzUxMiJ9.eyJkYXRhIjp7ImZkZFRlbXBsYXRlSWQiOiJYWUZERDY3NzYwMzI2NTc1MzEyMzYzNTIiLCJpc1VwZGF0ZVB3ZCI6MCwibG9naW5UeXBlIjowLCJ1c2VyTG9naW5JZCI6NjU5Mzc0NjkwMTM1MzA4Mjg4MywibWVyY2hhbnRJZCI6IiIsInRhc2tVcmwiOiJodHRwczovL2Nkbi5sYXN0bWlsZXMuY24vYXBwcy82NzIyODEyMjM3NzQzNTk5NjE2LnBkZiIsInN5c05hbWUiOiLns7vnu5_mk43kvZzmiYvlhowtVjEuMCIsImlzTWFuYWdlciI6MSwiaXNBc3luY1JlcXVlc3QiOiJ0cnVlIiwic3lzVXJsIjoiaHR0cHM6Ly9jZG4ubGFzdG1pbGVzLmNuL2FwcHMvNjcyMjgxMTU2OTM5ODAzNDQzMi5wZGYiLCJ0YXNrTmFtZSI6IuWFheWAvOS7o-WPkeaTjeS9nOaJi-WGjC1WMS4wIiwibWVyY2hhbnRSYW5nZSI6MSwidXNlcm5hbWUiOiJBRE1pbiJ9LCJzdWIiOiI2NTkzNzQ2OTAxMzUzMDgyODgzIiwiZXhwIjoxNjIxNDY1NzczfQ.a2hmM5fkFgAg2HffP6twUYLtxU8w3bgRO_Jy8I4lz8DkY1sKNZ6plQefSE0CjndXfaaBYto9Qh29C7ubgVOzow"}</t>
         </is>
       </c>
       <c r="F9" s="3" t="inlineStr">
@@ -1546,7 +1556,7 @@
       </c>
       <c r="E10" s="0" t="inlineStr">
         <is>
-          <t>{"Authorization":"eyJhbGciOiJIUzUxMiJ9.eyJkYXRhIjp7ImZkZFRlbXBsYXRlSWQiOiJYWUZERDY3NzYwMzI2NTc1MzEyMzYzNTIiLCJpc1VwZGF0ZVB3ZCI6MCwibG9naW5UeXBlIjowLCJ1c2VyTG9naW5JZCI6NjU5Mzc0NjkwMTM1MzA4Mjg4MywibWVyY2hhbnRJZCI6IiIsInRhc2tVcmwiOiJodHRwczovL2Nkbi5sYXN0bWlsZXMuY24vYXBwcy82NzIyODEyMjM3NzQzNTk5NjE2LnBkZiIsInN5c05hbWUiOiLns7vnu5_mk43kvZzmiYvlhowtVjEuMCIsImlzTWFuYWdlciI6MSwiaXNBc3luY1JlcXVlc3QiOiJ0cnVlIiwic3lzVXJsIjoiaHR0cHM6Ly9jZG4ubGFzdG1pbGVzLmNuL2FwcHMvNjcyMjgxMTU2OTM5ODAzNDQzMi5wZGYiLCJ0YXNrTmFtZSI6IuWFheWAvOS7o-WPkeaTjeS9nOaJi-WGjC1WMS4wIiwibWVyY2hhbnRSYW5nZSI6MSwidXNlcm5hbWUiOiJBRE1pbiJ9LCJzdWIiOiI2NTkzNzQ2OTAxMzUzMDgyODgzIiwiZXhwIjoxNjIxMzE2OTYxfQ.Ycm3m_CgSvEJvNxKBu0Ft-pEN3V47BZIPS1Kb1BQMprUa0dCU6EecZJtUHM4nd8NfGt1LitAd41UervL7AF6rA"}</t>
+          <t>{"Authorization":"eyJhbGciOiJIUzUxMiJ9.eyJkYXRhIjp7ImZkZFRlbXBsYXRlSWQiOiJYWUZERDY3NzYwMzI2NTc1MzEyMzYzNTIiLCJpc1VwZGF0ZVB3ZCI6MCwibG9naW5UeXBlIjowLCJ1c2VyTG9naW5JZCI6NjU5Mzc0NjkwMTM1MzA4Mjg4MywibWVyY2hhbnRJZCI6IiIsInRhc2tVcmwiOiJodHRwczovL2Nkbi5sYXN0bWlsZXMuY24vYXBwcy82NzIyODEyMjM3NzQzNTk5NjE2LnBkZiIsInN5c05hbWUiOiLns7vnu5_mk43kvZzmiYvlhowtVjEuMCIsImlzTWFuYWdlciI6MSwiaXNBc3luY1JlcXVlc3QiOiJ0cnVlIiwic3lzVXJsIjoiaHR0cHM6Ly9jZG4ubGFzdG1pbGVzLmNuL2FwcHMvNjcyMjgxMTU2OTM5ODAzNDQzMi5wZGYiLCJ0YXNrTmFtZSI6IuWFheWAvOS7o-WPkeaTjeS9nOaJi-WGjC1WMS4wIiwibWVyY2hhbnRSYW5nZSI6MSwidXNlcm5hbWUiOiJBRE1pbiJ9LCJzdWIiOiI2NTkzNzQ2OTAxMzUzMDgyODgzIiwiZXhwIjoxNjIxNDY1NzczfQ.a2hmM5fkFgAg2HffP6twUYLtxU8w3bgRO_Jy8I4lz8DkY1sKNZ6plQefSE0CjndXfaaBYto9Qh29C7ubgVOzow"}</t>
         </is>
       </c>
       <c r="G10" s="3" t="inlineStr">
